--- a/data/nzd0216/nzd0216.xlsx
+++ b/data/nzd0216/nzd0216.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W390"/>
+  <dimension ref="A1:W394"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -23147,9 +23147,7 @@
       <c r="M388" t="n">
         <v>247.1285714285714</v>
       </c>
-      <c r="N388" t="n">
-        <v>232.034358974359</v>
-      </c>
+      <c r="N388" t="inlineStr"/>
       <c r="O388" t="inlineStr"/>
       <c r="P388" t="inlineStr"/>
       <c r="Q388" t="inlineStr"/>
@@ -23175,9 +23173,7 @@
       <c r="B389" t="n">
         <v>299.5833333333333</v>
       </c>
-      <c r="C389" t="n">
-        <v>288.74</v>
-      </c>
+      <c r="C389" t="inlineStr"/>
       <c r="D389" t="n">
         <v>304.0968965517241</v>
       </c>
@@ -23204,9 +23200,7 @@
       <c r="M389" t="n">
         <v>265.5657142857143</v>
       </c>
-      <c r="N389" t="n">
-        <v>253.9382051282052</v>
-      </c>
+      <c r="N389" t="inlineStr"/>
       <c r="O389" t="inlineStr"/>
       <c r="P389" t="n">
         <v>292.2766666666667</v>
@@ -23275,9 +23269,7 @@
       <c r="M390" t="n">
         <v>270.8057142857143</v>
       </c>
-      <c r="N390" t="n">
-        <v>257.2364102564103</v>
-      </c>
+      <c r="N390" t="inlineStr"/>
       <c r="O390" t="inlineStr"/>
       <c r="P390" t="n">
         <v>295.2933333333333</v>
@@ -23303,6 +23295,246 @@
       <c r="W390" t="inlineStr">
         <is>
           <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="391">
+      <c r="A391" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-12 22:12:12+00:00</t>
+        </is>
+      </c>
+      <c r="B391" t="inlineStr"/>
+      <c r="C391" t="inlineStr"/>
+      <c r="D391" t="inlineStr"/>
+      <c r="E391" t="inlineStr"/>
+      <c r="F391" t="inlineStr"/>
+      <c r="G391" t="inlineStr"/>
+      <c r="H391" t="inlineStr"/>
+      <c r="I391" t="inlineStr"/>
+      <c r="J391" t="inlineStr"/>
+      <c r="K391" t="inlineStr"/>
+      <c r="L391" t="inlineStr"/>
+      <c r="M391" t="inlineStr"/>
+      <c r="N391" t="inlineStr"/>
+      <c r="O391" t="inlineStr"/>
+      <c r="P391" t="inlineStr"/>
+      <c r="Q391" t="inlineStr"/>
+      <c r="R391" t="inlineStr"/>
+      <c r="S391" t="n">
+        <v>328.1785714285714</v>
+      </c>
+      <c r="T391" t="n">
+        <v>332.0336363636364</v>
+      </c>
+      <c r="U391" t="n">
+        <v>334.1785714285714</v>
+      </c>
+      <c r="V391" t="n">
+        <v>325.39</v>
+      </c>
+      <c r="W391" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="392">
+      <c r="A392" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-06 22:06:06+00:00</t>
+        </is>
+      </c>
+      <c r="B392" t="n">
+        <v>377.1766666666667</v>
+      </c>
+      <c r="C392" t="inlineStr"/>
+      <c r="D392" t="n">
+        <v>368.9141379310345</v>
+      </c>
+      <c r="E392" t="n">
+        <v>327.7677777777778</v>
+      </c>
+      <c r="F392" t="inlineStr"/>
+      <c r="G392" t="inlineStr"/>
+      <c r="H392" t="inlineStr"/>
+      <c r="I392" t="inlineStr"/>
+      <c r="J392" t="inlineStr"/>
+      <c r="K392" t="inlineStr"/>
+      <c r="L392" t="inlineStr"/>
+      <c r="M392" t="inlineStr"/>
+      <c r="N392" t="n">
+        <v>325.6833333333333</v>
+      </c>
+      <c r="O392" t="n">
+        <v>337.8466666666667</v>
+      </c>
+      <c r="P392" t="n">
+        <v>349.0633333333333</v>
+      </c>
+      <c r="Q392" t="n">
+        <v>345.8233333333333</v>
+      </c>
+      <c r="R392" t="inlineStr"/>
+      <c r="S392" t="n">
+        <v>367.29</v>
+      </c>
+      <c r="T392" t="n">
+        <v>350.6345454545454</v>
+      </c>
+      <c r="U392" t="n">
+        <v>346.08</v>
+      </c>
+      <c r="V392" t="n">
+        <v>364.555</v>
+      </c>
+      <c r="W392" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="393">
+      <c r="A393" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-30 22:06:08+00:00</t>
+        </is>
+      </c>
+      <c r="B393" t="n">
+        <v>351.1266666666667</v>
+      </c>
+      <c r="C393" t="n">
+        <v>330.3</v>
+      </c>
+      <c r="D393" t="n">
+        <v>310.6727586206896</v>
+      </c>
+      <c r="E393" t="n">
+        <v>335.9577777777778</v>
+      </c>
+      <c r="F393" t="n">
+        <v>305.42</v>
+      </c>
+      <c r="G393" t="n">
+        <v>298.0073913043478</v>
+      </c>
+      <c r="H393" t="n">
+        <v>296.3623076923077</v>
+      </c>
+      <c r="I393" t="n">
+        <v>284.5007936507937</v>
+      </c>
+      <c r="J393" t="n">
+        <v>280.4562162162162</v>
+      </c>
+      <c r="K393" t="n">
+        <v>289.99</v>
+      </c>
+      <c r="L393" t="n">
+        <v>286.0333333333333</v>
+      </c>
+      <c r="M393" t="n">
+        <v>280.8657142857143</v>
+      </c>
+      <c r="N393" t="n">
+        <v>267.7448717948718</v>
+      </c>
+      <c r="O393" t="n">
+        <v>266.5966666666667</v>
+      </c>
+      <c r="P393" t="n">
+        <v>311.2533333333333</v>
+      </c>
+      <c r="Q393" t="n">
+        <v>324.1333333333333</v>
+      </c>
+      <c r="R393" t="n">
+        <v>312.25</v>
+      </c>
+      <c r="S393" t="n">
+        <v>322.4342857142857</v>
+      </c>
+      <c r="T393" t="n">
+        <v>335.7963636363637</v>
+      </c>
+      <c r="U393" t="n">
+        <v>339.9342857142857</v>
+      </c>
+      <c r="V393" t="n">
+        <v>327.58</v>
+      </c>
+      <c r="W393" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="394">
+      <c r="A394" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-07 22:06:05+00:00</t>
+        </is>
+      </c>
+      <c r="B394" t="n">
+        <v>335.96</v>
+      </c>
+      <c r="C394" t="n">
+        <v>346.35</v>
+      </c>
+      <c r="D394" t="n">
+        <v>349.6503448275862</v>
+      </c>
+      <c r="E394" t="n">
+        <v>336.0333333333333</v>
+      </c>
+      <c r="F394" t="n">
+        <v>328.94</v>
+      </c>
+      <c r="G394" t="n">
+        <v>318.9986956521739</v>
+      </c>
+      <c r="H394" t="n">
+        <v>323.87</v>
+      </c>
+      <c r="I394" t="n">
+        <v>324.0338095238095</v>
+      </c>
+      <c r="J394" t="inlineStr"/>
+      <c r="K394" t="n">
+        <v>327.89</v>
+      </c>
+      <c r="L394" t="inlineStr"/>
+      <c r="M394" t="inlineStr"/>
+      <c r="N394" t="n">
+        <v>288.37</v>
+      </c>
+      <c r="O394" t="n">
+        <v>275.59</v>
+      </c>
+      <c r="P394" t="n">
+        <v>301.78</v>
+      </c>
+      <c r="Q394" t="n">
+        <v>334.04</v>
+      </c>
+      <c r="R394" t="n">
+        <v>350.5747368421053</v>
+      </c>
+      <c r="S394" t="n">
+        <v>342.7785714285715</v>
+      </c>
+      <c r="T394" t="n">
+        <v>338.759090909091</v>
+      </c>
+      <c r="U394" t="n">
+        <v>341.3785714285714</v>
+      </c>
+      <c r="V394" t="n">
+        <v>353.405</v>
+      </c>
+      <c r="W394" t="inlineStr">
+        <is>
+          <t>L8</t>
         </is>
       </c>
     </row>
@@ -23317,7 +23549,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B428"/>
+  <dimension ref="A1:B432"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -27605,6 +27837,46 @@
       </c>
       <c r="B428" t="n">
         <v>0.05</v>
+      </c>
+    </row>
+    <row r="429">
+      <c r="A429" t="inlineStr">
+        <is>
+          <t>2024-12-12 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B429" t="n">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="430">
+      <c r="A430" t="inlineStr">
+        <is>
+          <t>2025-01-06 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B430" t="n">
+        <v>-0.91</v>
+      </c>
+    </row>
+    <row r="431">
+      <c r="A431" t="inlineStr">
+        <is>
+          <t>2025-01-30 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B431" t="n">
+        <v>1.52</v>
+      </c>
+    </row>
+    <row r="432">
+      <c r="A432" t="inlineStr">
+        <is>
+          <t>2025-02-07 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B432" t="n">
+        <v>-0.39</v>
       </c>
     </row>
   </sheetData>
@@ -27773,28 +28045,28 @@
         <v>0.036</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.3932966014681849</v>
+        <v>-0.3231757145182473</v>
       </c>
       <c r="J2" t="n">
-        <v>389</v>
+        <v>393</v>
       </c>
       <c r="K2" t="n">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="L2" t="n">
-        <v>0.01708849485017305</v>
+        <v>0.0115610100173299</v>
       </c>
       <c r="M2" t="n">
-        <v>16.69417776721107</v>
+        <v>16.80892702228636</v>
       </c>
       <c r="N2" t="n">
-        <v>466.645333532169</v>
+        <v>474.328778731724</v>
       </c>
       <c r="O2" t="n">
-        <v>21.60197522293202</v>
+        <v>21.7790904018447</v>
       </c>
       <c r="P2" t="n">
-        <v>336.5240622242589</v>
+        <v>335.8278322231864</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -27850,28 +28122,28 @@
         <v>0.0728</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.4498171796858983</v>
+        <v>-0.3742376549645424</v>
       </c>
       <c r="J3" t="n">
-        <v>389</v>
+        <v>393</v>
       </c>
       <c r="K3" t="n">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="L3" t="n">
-        <v>0.003145449094281494</v>
+        <v>0.002196473377334973</v>
       </c>
       <c r="M3" t="n">
-        <v>37.92655619527061</v>
+        <v>37.74896794634002</v>
       </c>
       <c r="N3" t="n">
-        <v>3100.413266059878</v>
+        <v>3091.180492803253</v>
       </c>
       <c r="O3" t="n">
-        <v>55.68135474339573</v>
+        <v>55.59838570321313</v>
       </c>
       <c r="P3" t="n">
-        <v>320.7927745424488</v>
+        <v>319.9808830789332</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -27927,28 +28199,28 @@
         <v>0.2</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.6630396767037077</v>
+        <v>-0.5101503337553647</v>
       </c>
       <c r="J4" t="n">
-        <v>389</v>
+        <v>393</v>
       </c>
       <c r="K4" t="n">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="L4" t="n">
-        <v>0.004015126939568514</v>
+        <v>0.002420280344036851</v>
       </c>
       <c r="M4" t="n">
-        <v>57.71482105305612</v>
+        <v>57.29688811828817</v>
       </c>
       <c r="N4" t="n">
-        <v>5349.418882565913</v>
+        <v>5321.117480428226</v>
       </c>
       <c r="O4" t="n">
-        <v>73.1397216467626</v>
+        <v>72.94599016003708</v>
       </c>
       <c r="P4" t="n">
-        <v>305.0111041826564</v>
+        <v>303.3728762300813</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -28004,28 +28276,28 @@
         <v>0.07770000000000001</v>
       </c>
       <c r="I5" t="n">
-        <v>-1.329780238263324</v>
+        <v>-1.192554644682064</v>
       </c>
       <c r="J5" t="n">
-        <v>389</v>
+        <v>393</v>
       </c>
       <c r="K5" t="n">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="L5" t="n">
-        <v>0.01768182450551692</v>
+        <v>0.0145233523899202</v>
       </c>
       <c r="M5" t="n">
-        <v>57.6244439645395</v>
+        <v>57.25468756448529</v>
       </c>
       <c r="N5" t="n">
-        <v>4807.494767403263</v>
+        <v>4777.660958940316</v>
       </c>
       <c r="O5" t="n">
-        <v>69.33610003023867</v>
+        <v>69.12062614690579</v>
       </c>
       <c r="P5" t="n">
-        <v>314.6588897904994</v>
+        <v>313.2016947143488</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -28081,28 +28353,28 @@
         <v>0.2</v>
       </c>
       <c r="I6" t="n">
-        <v>0.2628449230406061</v>
+        <v>0.3105811203441413</v>
       </c>
       <c r="J6" t="n">
-        <v>389</v>
+        <v>393</v>
       </c>
       <c r="K6" t="n">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="L6" t="n">
-        <v>0.0009887775953031364</v>
+        <v>0.001403463633472657</v>
       </c>
       <c r="M6" t="n">
-        <v>48.54645275854707</v>
+        <v>48.22504661973768</v>
       </c>
       <c r="N6" t="n">
-        <v>3526.780700570032</v>
+        <v>3499.279700030636</v>
       </c>
       <c r="O6" t="n">
-        <v>59.38670474584384</v>
+        <v>59.15470987191667</v>
       </c>
       <c r="P6" t="n">
-        <v>285.4438862168803</v>
+        <v>284.9506625806025</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -28158,28 +28430,28 @@
         <v>0.2</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.2372148358072551</v>
+        <v>-0.2010675237876787</v>
       </c>
       <c r="J7" t="n">
-        <v>389</v>
+        <v>393</v>
       </c>
       <c r="K7" t="n">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="L7" t="n">
-        <v>0.001366006210813175</v>
+        <v>0.001001032460661522</v>
       </c>
       <c r="M7" t="n">
-        <v>35.27318833821325</v>
+        <v>35.02913760438026</v>
       </c>
       <c r="N7" t="n">
-        <v>1901.246728433764</v>
+        <v>1884.993281977554</v>
       </c>
       <c r="O7" t="n">
-        <v>43.60328804612978</v>
+        <v>43.41650932511219</v>
       </c>
       <c r="P7" t="n">
-        <v>298.0242716309432</v>
+        <v>297.6318288705978</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -28235,28 +28507,28 @@
         <v>0.2</v>
       </c>
       <c r="I8" t="n">
-        <v>0.1731911166514163</v>
+        <v>0.195818351201727</v>
       </c>
       <c r="J8" t="n">
-        <v>389</v>
+        <v>393</v>
       </c>
       <c r="K8" t="n">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="L8" t="n">
-        <v>0.001388779408102225</v>
+        <v>0.001799244126071686</v>
       </c>
       <c r="M8" t="n">
-        <v>25.17897846046582</v>
+        <v>25.09664029260044</v>
       </c>
       <c r="N8" t="n">
-        <v>1018.828882973366</v>
+        <v>1013.235529519633</v>
       </c>
       <c r="O8" t="n">
-        <v>31.91909903135372</v>
+        <v>31.83136078648906</v>
       </c>
       <c r="P8" t="n">
-        <v>292.5363340485172</v>
+        <v>292.2928320633143</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -28306,28 +28578,28 @@
       <c r="G9" t="inlineStr"/>
       <c r="H9" t="inlineStr"/>
       <c r="I9" t="n">
-        <v>-0.005424505670087675</v>
+        <v>0.05537572037901655</v>
       </c>
       <c r="J9" t="n">
-        <v>389</v>
+        <v>393</v>
       </c>
       <c r="K9" t="n">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="L9" t="n">
-        <v>6.621266586126495e-07</v>
+        <v>6.969054151662046e-05</v>
       </c>
       <c r="M9" t="n">
-        <v>41.31484840913485</v>
+        <v>41.27786459772903</v>
       </c>
       <c r="N9" t="n">
-        <v>2177.757898526767</v>
+        <v>2173.253395728446</v>
       </c>
       <c r="O9" t="n">
-        <v>46.66645367420548</v>
+        <v>46.61816594127708</v>
       </c>
       <c r="P9" t="n">
-        <v>268.3924975800358</v>
+        <v>267.750634653799</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -28383,28 +28655,28 @@
         <v>0.2</v>
       </c>
       <c r="I10" t="n">
-        <v>-0.5906124803295744</v>
+        <v>-0.5746062727434348</v>
       </c>
       <c r="J10" t="n">
-        <v>389</v>
+        <v>393</v>
       </c>
       <c r="K10" t="n">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="L10" t="n">
-        <v>0.007829503541076477</v>
+        <v>0.007471459270088521</v>
       </c>
       <c r="M10" t="n">
-        <v>40.37537449398214</v>
+        <v>40.28429355510763</v>
       </c>
       <c r="N10" t="n">
-        <v>2163.291748765683</v>
+        <v>2155.157505857112</v>
       </c>
       <c r="O10" t="n">
-        <v>46.5112002507534</v>
+        <v>46.4236739806008</v>
       </c>
       <c r="P10" t="n">
-        <v>277.0413409480766</v>
+        <v>276.8719061098145</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
@@ -28460,28 +28732,28 @@
         <v>0.2</v>
       </c>
       <c r="I11" t="n">
-        <v>-0.210728077700306</v>
+        <v>-0.1575893942673041</v>
       </c>
       <c r="J11" t="n">
-        <v>389</v>
+        <v>393</v>
       </c>
       <c r="K11" t="n">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="L11" t="n">
-        <v>0.002581935047923256</v>
+        <v>0.00145066362589652</v>
       </c>
       <c r="M11" t="n">
-        <v>23.39834324117056</v>
+        <v>23.49095127926278</v>
       </c>
       <c r="N11" t="n">
-        <v>795.0885252118582</v>
+        <v>799.4570036036218</v>
       </c>
       <c r="O11" t="n">
-        <v>28.19731414890181</v>
+        <v>28.27467070725355</v>
       </c>
       <c r="P11" t="n">
-        <v>282.3414422352831</v>
+        <v>281.7738433946461</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
@@ -28531,28 +28803,28 @@
       <c r="G12" t="inlineStr"/>
       <c r="H12" t="inlineStr"/>
       <c r="I12" t="n">
-        <v>-0.660152346255603</v>
+        <v>-0.6466511400659068</v>
       </c>
       <c r="J12" t="n">
-        <v>389</v>
+        <v>393</v>
       </c>
       <c r="K12" t="n">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="L12" t="n">
-        <v>0.01487583804459625</v>
+        <v>0.01438647044506469</v>
       </c>
       <c r="M12" t="n">
-        <v>32.21310564936957</v>
+        <v>32.1545403342584</v>
       </c>
       <c r="N12" t="n">
-        <v>1383.515881433499</v>
+        <v>1379.053066297276</v>
       </c>
       <c r="O12" t="n">
-        <v>37.19564331253727</v>
+        <v>37.13560375565847</v>
       </c>
       <c r="P12" t="n">
-        <v>286.2833405735392</v>
+        <v>286.1405886222101</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
@@ -28608,28 +28880,28 @@
         <v>0.2</v>
       </c>
       <c r="I13" t="n">
-        <v>0.2161440921498113</v>
+        <v>0.2027311835803738</v>
       </c>
       <c r="J13" t="n">
-        <v>389</v>
+        <v>393</v>
       </c>
       <c r="K13" t="n">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="L13" t="n">
-        <v>0.002245009205890214</v>
+        <v>0.001989200387432222</v>
       </c>
       <c r="M13" t="n">
-        <v>26.75436983390166</v>
+        <v>26.70650945573945</v>
       </c>
       <c r="N13" t="n">
-        <v>1012.02593011213</v>
+        <v>1008.976394831609</v>
       </c>
       <c r="O13" t="n">
-        <v>31.81235499160868</v>
+        <v>31.76438878416535</v>
       </c>
       <c r="P13" t="n">
-        <v>291.8611348976198</v>
+        <v>292.0028234164238</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
@@ -28685,28 +28957,28 @@
         <v>0.2</v>
       </c>
       <c r="I14" t="n">
-        <v>0.2853218020268516</v>
+        <v>0.4152686718878271</v>
       </c>
       <c r="J14" t="n">
-        <v>389</v>
+        <v>393</v>
       </c>
       <c r="K14" t="n">
         <v>210</v>
       </c>
       <c r="L14" t="n">
-        <v>0.004930727488320463</v>
+        <v>0.01061166887307752</v>
       </c>
       <c r="M14" t="n">
-        <v>22.52337706464742</v>
+        <v>22.35769276370919</v>
       </c>
       <c r="N14" t="n">
-        <v>843.5119445670546</v>
+        <v>827.5173614627397</v>
       </c>
       <c r="O14" t="n">
-        <v>29.04327709758412</v>
+        <v>28.76660149309855</v>
       </c>
       <c r="P14" t="n">
-        <v>279.7249859824259</v>
+        <v>278.4655095306565</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
@@ -28762,28 +29034,28 @@
         <v>0.1895</v>
       </c>
       <c r="I15" t="n">
-        <v>-0.1212019165362022</v>
+        <v>-0.07596404135417316</v>
       </c>
       <c r="J15" t="n">
-        <v>389</v>
+        <v>393</v>
       </c>
       <c r="K15" t="n">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="L15" t="n">
-        <v>0.0006911029083722653</v>
+        <v>0.0002745073280815413</v>
       </c>
       <c r="M15" t="n">
-        <v>25.46468335755432</v>
+        <v>25.45829440639556</v>
       </c>
       <c r="N15" t="n">
-        <v>1067.023569362296</v>
+        <v>1070.045105285847</v>
       </c>
       <c r="O15" t="n">
-        <v>32.6653267144582</v>
+        <v>32.71154391473822</v>
       </c>
       <c r="P15" t="n">
-        <v>279.0320299374721</v>
+        <v>278.5715485971156</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
@@ -28839,28 +29111,28 @@
         <v>0.0726</v>
       </c>
       <c r="I16" t="n">
-        <v>-0.01325164768420311</v>
+        <v>0.013859430993067</v>
       </c>
       <c r="J16" t="n">
-        <v>389</v>
+        <v>393</v>
       </c>
       <c r="K16" t="n">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="L16" t="n">
-        <v>1.561857673970657e-05</v>
+        <v>1.726501243204392e-05</v>
       </c>
       <c r="M16" t="n">
-        <v>17.1986995275949</v>
+        <v>17.18963182146065</v>
       </c>
       <c r="N16" t="n">
-        <v>544.0330900579175</v>
+        <v>544.1778861939995</v>
       </c>
       <c r="O16" t="n">
-        <v>23.32451693085877</v>
+        <v>23.32762067151297</v>
       </c>
       <c r="P16" t="n">
-        <v>309.0278437099749</v>
+        <v>308.7415589657109</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
@@ -28916,28 +29188,28 @@
         <v>0.0707</v>
       </c>
       <c r="I17" t="n">
-        <v>-0.06445434565724886</v>
+        <v>-0.03319863206151171</v>
       </c>
       <c r="J17" t="n">
-        <v>389</v>
+        <v>393</v>
       </c>
       <c r="K17" t="n">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="L17" t="n">
-        <v>0.0006316987162700016</v>
+        <v>0.0001698618404079033</v>
       </c>
       <c r="M17" t="n">
-        <v>13.1187870349342</v>
+        <v>13.14702388631692</v>
       </c>
       <c r="N17" t="n">
-        <v>313.6982258537045</v>
+        <v>313.2085262282871</v>
       </c>
       <c r="O17" t="n">
-        <v>17.71152804965468</v>
+        <v>17.69769833137313</v>
       </c>
       <c r="P17" t="n">
-        <v>322.2658026098228</v>
+        <v>321.9360733394738</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
@@ -28993,28 +29265,28 @@
         <v>0.1168</v>
       </c>
       <c r="I18" t="n">
-        <v>-0.0701652534041782</v>
+        <v>-0.05694973749869808</v>
       </c>
       <c r="J18" t="n">
-        <v>389</v>
+        <v>393</v>
       </c>
       <c r="K18" t="n">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="L18" t="n">
-        <v>0.0006202019745620291</v>
+        <v>0.0004110866339882557</v>
       </c>
       <c r="M18" t="n">
-        <v>15.58900007180122</v>
+        <v>15.62988495007879</v>
       </c>
       <c r="N18" t="n">
-        <v>398.0744355299603</v>
+        <v>398.4801581066338</v>
       </c>
       <c r="O18" t="n">
-        <v>19.95180281403062</v>
+        <v>19.96196779144366</v>
       </c>
       <c r="P18" t="n">
-        <v>323.6844018814674</v>
+        <v>323.5481255322542</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
@@ -29070,28 +29342,28 @@
         <v>0.0864</v>
       </c>
       <c r="I19" t="n">
-        <v>0.128804366251942</v>
+        <v>0.1476693497169792</v>
       </c>
       <c r="J19" t="n">
-        <v>389</v>
+        <v>393</v>
       </c>
       <c r="K19" t="n">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="L19" t="n">
-        <v>0.001661986428078133</v>
+        <v>0.002223114779972168</v>
       </c>
       <c r="M19" t="n">
-        <v>17.47007977071505</v>
+        <v>17.44354320731777</v>
       </c>
       <c r="N19" t="n">
-        <v>475.7634611362706</v>
+        <v>473.9182865288188</v>
       </c>
       <c r="O19" t="n">
-        <v>21.81200268513349</v>
+        <v>21.76966436417472</v>
       </c>
       <c r="P19" t="n">
-        <v>330.2016116825665</v>
+        <v>330.0026289567255</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
@@ -29147,28 +29419,28 @@
         <v>0.0648</v>
       </c>
       <c r="I20" t="n">
-        <v>0.09595751696645878</v>
+        <v>0.08551374516797967</v>
       </c>
       <c r="J20" t="n">
-        <v>389</v>
+        <v>393</v>
       </c>
       <c r="K20" t="n">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="L20" t="n">
-        <v>0.001046450669185628</v>
+        <v>0.0008528916953648435</v>
       </c>
       <c r="M20" t="n">
-        <v>15.90944881745257</v>
+        <v>15.79414497665826</v>
       </c>
       <c r="N20" t="n">
-        <v>419.3006581092081</v>
+        <v>414.4429452208986</v>
       </c>
       <c r="O20" t="n">
-        <v>20.47683222837967</v>
+        <v>20.35787182445401</v>
       </c>
       <c r="P20" t="n">
-        <v>340.6743717358059</v>
+        <v>340.7843419304351</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
@@ -29224,28 +29496,28 @@
         <v>0.08169999999999999</v>
       </c>
       <c r="I21" t="n">
-        <v>-0.1816977601636253</v>
+        <v>-0.1822209037170593</v>
       </c>
       <c r="J21" t="n">
-        <v>389</v>
+        <v>393</v>
       </c>
       <c r="K21" t="n">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="L21" t="n">
-        <v>0.003739254019020755</v>
+        <v>0.003869341723098385</v>
       </c>
       <c r="M21" t="n">
-        <v>15.15629461485234</v>
+        <v>14.97965021591694</v>
       </c>
       <c r="N21" t="n">
-        <v>404.4473963127203</v>
+        <v>398.6812105584228</v>
       </c>
       <c r="O21" t="n">
-        <v>20.11087756197427</v>
+        <v>19.96700304398291</v>
       </c>
       <c r="P21" t="n">
-        <v>345.1716720294764</v>
+        <v>345.177184437588</v>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
@@ -29301,28 +29573,28 @@
         <v>0.1058</v>
       </c>
       <c r="I22" t="n">
-        <v>-0.8121473369731224</v>
+        <v>-0.7335513634764776</v>
       </c>
       <c r="J22" t="n">
-        <v>389</v>
+        <v>393</v>
       </c>
       <c r="K22" t="n">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="L22" t="n">
-        <v>0.02243340154551554</v>
+        <v>0.01878500955062501</v>
       </c>
       <c r="M22" t="n">
-        <v>20.95666548892426</v>
+        <v>20.87049508416948</v>
       </c>
       <c r="N22" t="n">
-        <v>1286.766874979848</v>
+        <v>1277.666262711771</v>
       </c>
       <c r="O22" t="n">
-        <v>35.87153293323061</v>
+        <v>35.74445779014938</v>
       </c>
       <c r="P22" t="n">
-        <v>340.7234629447464</v>
+        <v>339.8443381255685</v>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
@@ -29359,7 +29631,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W390"/>
+  <dimension ref="A1:W394"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -61916,11 +62188,7 @@
           <t>-37.67788514687867,174.8092588028077</t>
         </is>
       </c>
-      <c r="N388" t="inlineStr">
-        <is>
-          <t>-37.67717019087442,174.80910243829155</t>
-        </is>
-      </c>
+      <c r="N388" t="inlineStr"/>
       <c r="O388" t="inlineStr"/>
       <c r="P388" t="inlineStr"/>
       <c r="Q388" t="inlineStr"/>
@@ -61950,11 +62218,7 @@
           <t>-37.685359442399616,174.81222372884062</t>
         </is>
       </c>
-      <c r="C389" t="inlineStr">
-        <is>
-          <t>-37.68465983337884,174.81201491911887</t>
-        </is>
-      </c>
+      <c r="C389" t="inlineStr"/>
       <c r="D389" t="inlineStr">
         <is>
           <t>-37.684047775678394,174.81153023990964</t>
@@ -61997,11 +62261,7 @@
           <t>-37.67794543983026,174.80906403446656</t>
         </is>
       </c>
-      <c r="N389" t="inlineStr">
-        <is>
-          <t>-37.67724182043911,174.80887105010822</t>
-        </is>
-      </c>
+      <c r="N389" t="inlineStr"/>
       <c r="O389" t="inlineStr"/>
       <c r="P389" t="inlineStr">
         <is>
@@ -62106,11 +62366,7 @@
           <t>-37.67796257556607,174.80900867951192</t>
         </is>
       </c>
-      <c r="N390" t="inlineStr">
-        <is>
-          <t>-37.677252606131916,174.80883620843878</t>
-        </is>
-      </c>
+      <c r="N390" t="inlineStr"/>
       <c r="O390" t="inlineStr"/>
       <c r="P390" t="inlineStr">
         <is>
@@ -62150,6 +62406,354 @@
       <c r="W390" t="inlineStr">
         <is>
           <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="391">
+      <c r="A391" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-12 22:12:12+00:00</t>
+        </is>
+      </c>
+      <c r="B391" t="inlineStr"/>
+      <c r="C391" t="inlineStr"/>
+      <c r="D391" t="inlineStr"/>
+      <c r="E391" t="inlineStr"/>
+      <c r="F391" t="inlineStr"/>
+      <c r="G391" t="inlineStr"/>
+      <c r="H391" t="inlineStr"/>
+      <c r="I391" t="inlineStr"/>
+      <c r="J391" t="inlineStr"/>
+      <c r="K391" t="inlineStr"/>
+      <c r="L391" t="inlineStr"/>
+      <c r="M391" t="inlineStr"/>
+      <c r="N391" t="inlineStr"/>
+      <c r="O391" t="inlineStr"/>
+      <c r="P391" t="inlineStr"/>
+      <c r="Q391" t="inlineStr"/>
+      <c r="R391" t="inlineStr"/>
+      <c r="S391" t="inlineStr">
+        <is>
+          <t>-37.674120954650505,174.80670921018393</t>
+        </is>
+      </c>
+      <c r="T391" t="inlineStr">
+        <is>
+          <t>-37.67344602315449,174.80640478262782</t>
+        </is>
+      </c>
+      <c r="U391" t="inlineStr">
+        <is>
+          <t>-37.67276782647149,174.8060764017463</t>
+        </is>
+      </c>
+      <c r="V391" t="inlineStr">
+        <is>
+          <t>-37.67208092329485,174.80577132047398</t>
+        </is>
+      </c>
+      <c r="W391" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="392">
+      <c r="A392" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-06 22:06:06+00:00</t>
+        </is>
+      </c>
+      <c r="B392" t="inlineStr">
+        <is>
+          <t>-37.68561874650276,174.81140671638565</t>
+        </is>
+      </c>
+      <c r="C392" t="inlineStr"/>
+      <c r="D392" t="inlineStr">
+        <is>
+          <t>-37.68426438169115,174.8108477630059</t>
+        </is>
+      </c>
+      <c r="E392" t="inlineStr">
+        <is>
+          <t>-37.683463494783005,174.81095802376214</t>
+        </is>
+      </c>
+      <c r="F392" t="inlineStr"/>
+      <c r="G392" t="inlineStr"/>
+      <c r="H392" t="inlineStr"/>
+      <c r="I392" t="inlineStr"/>
+      <c r="J392" t="inlineStr"/>
+      <c r="K392" t="inlineStr"/>
+      <c r="L392" t="inlineStr"/>
+      <c r="M392" t="inlineStr"/>
+      <c r="N392" t="inlineStr">
+        <is>
+          <t>-37.67747643696404,174.80811314460357</t>
+        </is>
+      </c>
+      <c r="O392" t="inlineStr">
+        <is>
+          <t>-37.676853578250196,174.807670202594</t>
+        </is>
+      </c>
+      <c r="P392" t="inlineStr">
+        <is>
+          <t>-37.67621774068415,174.80726538526892</t>
+        </is>
+      </c>
+      <c r="Q392" t="inlineStr">
+        <is>
+          <t>-37.675529750952634,174.80704006529615</t>
+        </is>
+      </c>
+      <c r="R392" t="inlineStr"/>
+      <c r="S392" t="inlineStr">
+        <is>
+          <t>-37.67422737315303,174.806286527768</t>
+        </is>
+      </c>
+      <c r="T392" t="inlineStr">
+        <is>
+          <t>-37.67350017541521,174.80620522780785</t>
+        </is>
+      </c>
+      <c r="U392" t="inlineStr">
+        <is>
+          <t>-37.67281010700463,174.80595241430038</t>
+        </is>
+      </c>
+      <c r="V392" t="inlineStr">
+        <is>
+          <t>-37.67223731288063,174.8053733209104</t>
+        </is>
+      </c>
+      <c r="W392" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="393">
+      <c r="A393" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-30 22:06:08+00:00</t>
+        </is>
+      </c>
+      <c r="B393" t="inlineStr">
+        <is>
+          <t>-37.68553169232204,174.81168100831866</t>
+        </is>
+      </c>
+      <c r="C393" t="inlineStr">
+        <is>
+          <t>-37.684798720297366,174.81157732119348</t>
+        </is>
+      </c>
+      <c r="D393" t="inlineStr">
+        <is>
+          <t>-37.68406975104525,174.81146100120475</t>
+        </is>
+      </c>
+      <c r="E393" t="inlineStr">
+        <is>
+          <t>-37.68349086396394,174.8108717899191</t>
+        </is>
+      </c>
+      <c r="F393" t="inlineStr">
+        <is>
+          <t>-37.68272542301904,174.8108703449718</t>
+        </is>
+      </c>
+      <c r="G393" t="inlineStr">
+        <is>
+          <t>-37.68203725578354,174.8106254102522</t>
+        </is>
+      </c>
+      <c r="H393" t="inlineStr">
+        <is>
+          <t>-37.6813692872359,174.81032020929416</t>
+        </is>
+      </c>
+      <c r="I393" t="inlineStr">
+        <is>
+          <t>-37.68066815232049,174.81012651547326</t>
+        </is>
+      </c>
+      <c r="J393" t="inlineStr">
+        <is>
+          <t>-37.67999088592161,174.80985417478033</t>
+        </is>
+      </c>
+      <c r="K393" t="inlineStr">
+        <is>
+          <t>-37.67935648544399,174.80943764471894</t>
+        </is>
+      </c>
+      <c r="L393" t="inlineStr">
+        <is>
+          <t>-37.67867796238996,174.8091636296731</t>
+        </is>
+      </c>
+      <c r="M393" t="inlineStr">
+        <is>
+          <t>-37.6779954734915,174.80890240637623</t>
+        </is>
+      </c>
+      <c r="N393" t="inlineStr">
+        <is>
+          <t>-37.677286970524776,174.80872519879594</t>
+        </is>
+      </c>
+      <c r="O393" t="inlineStr">
+        <is>
+          <t>-37.67663088597224,174.80842779352395</t>
+        </is>
+      </c>
+      <c r="P393" t="inlineStr">
+        <is>
+          <t>-37.676109955271194,174.80767200619312</t>
+        </is>
+      </c>
+      <c r="Q393" t="inlineStr">
+        <is>
+          <t>-37.67547073349697,174.80727447572008</t>
+        </is>
+      </c>
+      <c r="R393" t="inlineStr">
+        <is>
+          <t>-37.67475800982253,174.80714212718274</t>
+        </is>
+      </c>
+      <c r="S393" t="inlineStr">
+        <is>
+          <t>-37.674105324866524,174.806771289338</t>
+        </is>
+      </c>
+      <c r="T393" t="inlineStr">
+        <is>
+          <t>-37.67345697749461,174.8063644152508</t>
+        </is>
+      </c>
+      <c r="U393" t="inlineStr">
+        <is>
+          <t>-37.67278827400483,174.80601643952463</t>
+        </is>
+      </c>
+      <c r="V393" t="inlineStr">
+        <is>
+          <t>-37.67208966820846,174.8057490654689</t>
+        </is>
+      </c>
+      <c r="W393" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="394">
+      <c r="A394" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-07 22:06:05+00:00</t>
+        </is>
+      </c>
+      <c r="B394" t="inlineStr">
+        <is>
+          <t>-37.68548100789916,174.8118407045319</t>
+        </is>
+      </c>
+      <c r="C394" t="inlineStr">
+        <is>
+          <t>-37.68485235642354,174.81140832539248</t>
+        </is>
+      </c>
+      <c r="D394" t="inlineStr">
+        <is>
+          <t>-37.68420000642281,174.81105059671802</t>
+        </is>
+      </c>
+      <c r="E394" t="inlineStr">
+        <is>
+          <t>-37.68349111645373,174.81087099438204</t>
+        </is>
+      </c>
+      <c r="F394" t="inlineStr">
+        <is>
+          <t>-37.68280402153547,174.81062270133341</t>
+        </is>
+      </c>
+      <c r="G394" t="inlineStr">
+        <is>
+          <t>-37.68210740371557,174.8104043933204</t>
+        </is>
+      </c>
+      <c r="H394" t="inlineStr">
+        <is>
+          <t>-37.68146079786626,174.81003037674336</t>
+        </is>
+      </c>
+      <c r="I394" t="inlineStr">
+        <is>
+          <t>-37.68079825422231,174.80970928058244</t>
+        </is>
+      </c>
+      <c r="J394" t="inlineStr"/>
+      <c r="K394" t="inlineStr">
+        <is>
+          <t>-37.67948042528739,174.8090372642592</t>
+        </is>
+      </c>
+      <c r="L394" t="inlineStr"/>
+      <c r="M394" t="inlineStr"/>
+      <c r="N394" t="inlineStr">
+        <is>
+          <t>-37.677354417780194,174.80850731805776</t>
+        </is>
+      </c>
+      <c r="O394" t="inlineStr">
+        <is>
+          <t>-37.676658994948944,174.8083321689726</t>
+        </is>
+      </c>
+      <c r="P394" t="inlineStr">
+        <is>
+          <t>-37.67608294931282,174.8077738852802</t>
+        </is>
+      </c>
+      <c r="Q394" t="inlineStr">
+        <is>
+          <t>-37.67549768912127,174.80716741140992</t>
+        </is>
+      </c>
+      <c r="R394" t="inlineStr">
+        <is>
+          <t>-37.67486228907784,174.80672794368976</t>
+        </is>
+      </c>
+      <c r="S394" t="inlineStr">
+        <is>
+          <t>-37.6741606800452,174.8065514261879</t>
+        </is>
+      </c>
+      <c r="T394" t="inlineStr">
+        <is>
+          <t>-37.67346560280387,174.80633263044345</t>
+        </is>
+      </c>
+      <c r="U394" t="inlineStr">
+        <is>
+          <t>-37.67279340491508,174.80600139315393</t>
+        </is>
+      </c>
+      <c r="V394" t="inlineStr">
+        <is>
+          <t>-37.6721927899985,174.80548662876092</t>
+        </is>
+      </c>
+      <c r="W394" t="inlineStr">
+        <is>
+          <t>L8</t>
         </is>
       </c>
     </row>

--- a/data/nzd0216/nzd0216.xlsx
+++ b/data/nzd0216/nzd0216.xlsx
@@ -27890,7 +27890,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W22"/>
+  <dimension ref="A1:X22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -27981,35 +27981,40 @@
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
+          <t>ERODIBILITY</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
           <t>geometry</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>land_x</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>land_y</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>sea_x</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>sea_y</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>center_x</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>center_y</t>
         </is>
@@ -28068,27 +28073,28 @@
       <c r="P2" t="n">
         <v>335.8278322231864</v>
       </c>
-      <c r="Q2" t="inlineStr">
+      <c r="Q2" t="inlineStr"/>
+      <c r="R2" t="inlineStr">
         <is>
           <t>LINESTRING (174.81537811102194 -37.68435823251791, 174.8057256444 -37.68742160542029)</t>
         </is>
       </c>
-      <c r="R2" t="n">
+      <c r="S2" t="n">
         <v>174.8153781110219</v>
       </c>
-      <c r="S2" t="n">
+      <c r="T2" t="n">
         <v>-37.68435823251791</v>
       </c>
-      <c r="T2" t="n">
+      <c r="U2" t="n">
         <v>174.8057256444</v>
       </c>
-      <c r="U2" t="n">
+      <c r="V2" t="n">
         <v>-37.68742160542029</v>
       </c>
-      <c r="V2" t="n">
+      <c r="W2" t="n">
         <v>174.810551877711</v>
       </c>
-      <c r="W2" t="n">
+      <c r="X2" t="n">
         <v>-37.6858899189691</v>
       </c>
     </row>
@@ -28145,27 +28151,28 @@
       <c r="P3" t="n">
         <v>319.9808830789332</v>
       </c>
-      <c r="Q3" t="inlineStr">
+      <c r="Q3" t="inlineStr"/>
+      <c r="R3" t="inlineStr">
         <is>
           <t>LINESTRING (174.81505510408581 -37.68369486638721, 174.80540268329986 -37.68675823016896)</t>
         </is>
       </c>
-      <c r="R3" t="n">
+      <c r="S3" t="n">
         <v>174.8150551040858</v>
       </c>
-      <c r="S3" t="n">
+      <c r="T3" t="n">
         <v>-37.68369486638721</v>
       </c>
-      <c r="T3" t="n">
+      <c r="U3" t="n">
         <v>174.8054026832999</v>
       </c>
-      <c r="U3" t="n">
+      <c r="V3" t="n">
         <v>-37.68675823016896</v>
       </c>
-      <c r="V3" t="n">
+      <c r="W3" t="n">
         <v>174.8102288936929</v>
       </c>
-      <c r="W3" t="n">
+      <c r="X3" t="n">
         <v>-37.68522654827809</v>
       </c>
     </row>
@@ -28222,27 +28229,28 @@
       <c r="P4" t="n">
         <v>303.3728762300813</v>
       </c>
-      <c r="Q4" t="inlineStr">
+      <c r="Q4" t="inlineStr"/>
+      <c r="R4" t="inlineStr">
         <is>
           <t>LINESTRING (174.81473209714986 -37.68303149432349, 174.80507972219928 -37.68609484898491)</t>
         </is>
       </c>
-      <c r="R4" t="n">
+      <c r="S4" t="n">
         <v>174.8147320971499</v>
       </c>
-      <c r="S4" t="n">
+      <c r="T4" t="n">
         <v>-37.68303149432349</v>
       </c>
-      <c r="T4" t="n">
+      <c r="U4" t="n">
         <v>174.8050797221993</v>
       </c>
-      <c r="U4" t="n">
+      <c r="V4" t="n">
         <v>-37.68609484898491</v>
       </c>
-      <c r="V4" t="n">
+      <c r="W4" t="n">
         <v>174.8099059096746</v>
       </c>
-      <c r="W4" t="n">
+      <c r="X4" t="n">
         <v>-37.6845631716542</v>
       </c>
     </row>
@@ -28299,27 +28307,28 @@
       <c r="P5" t="n">
         <v>313.2016947143488</v>
       </c>
-      <c r="Q5" t="inlineStr">
+      <c r="Q5" t="inlineStr"/>
+      <c r="R5" t="inlineStr">
         <is>
           <t>LINESTRING (174.81440909021416 -37.68236811632674, 174.80475676109822 -37.68543146186823)</t>
         </is>
       </c>
-      <c r="R5" t="n">
+      <c r="S5" t="n">
         <v>174.8144090902142</v>
       </c>
-      <c r="S5" t="n">
+      <c r="T5" t="n">
         <v>-37.68236811632674</v>
       </c>
-      <c r="T5" t="n">
+      <c r="U5" t="n">
         <v>174.8047567610982</v>
       </c>
-      <c r="U5" t="n">
+      <c r="V5" t="n">
         <v>-37.68543146186823</v>
       </c>
-      <c r="V5" t="n">
+      <c r="W5" t="n">
         <v>174.8095829256562</v>
       </c>
-      <c r="W5" t="n">
+      <c r="X5" t="n">
         <v>-37.68389978909748</v>
       </c>
     </row>
@@ -28376,27 +28385,28 @@
       <c r="P6" t="n">
         <v>284.9506625806025</v>
       </c>
-      <c r="Q6" t="inlineStr">
+      <c r="Q6" t="inlineStr"/>
+      <c r="R6" t="inlineStr">
         <is>
           <t>LINESTRING (174.81408608327874 -37.68170473239701, 174.8044337999967 -37.68476806881893)</t>
         </is>
       </c>
-      <c r="R6" t="n">
+      <c r="S6" t="n">
         <v>174.8140860832787</v>
       </c>
-      <c r="S6" t="n">
+      <c r="T6" t="n">
         <v>-37.68170473239701</v>
       </c>
-      <c r="T6" t="n">
+      <c r="U6" t="n">
         <v>174.8044337999967</v>
       </c>
-      <c r="U6" t="n">
+      <c r="V6" t="n">
         <v>-37.68476806881893</v>
       </c>
-      <c r="V6" t="n">
+      <c r="W6" t="n">
         <v>174.8092599416377</v>
       </c>
-      <c r="W6" t="n">
+      <c r="X6" t="n">
         <v>-37.68323640060797</v>
       </c>
     </row>
@@ -28453,27 +28463,28 @@
       <c r="P7" t="n">
         <v>297.6318288705978</v>
       </c>
-      <c r="Q7" t="inlineStr">
+      <c r="Q7" t="inlineStr"/>
+      <c r="R7" t="inlineStr">
         <is>
           <t>LINESTRING (174.81376307634352 -37.68104134253433, 174.80411083889464 -37.684104669837076)</t>
         </is>
       </c>
-      <c r="R7" t="n">
+      <c r="S7" t="n">
         <v>174.8137630763435</v>
       </c>
-      <c r="S7" t="n">
+      <c r="T7" t="n">
         <v>-37.68104134253433</v>
       </c>
-      <c r="T7" t="n">
+      <c r="U7" t="n">
         <v>174.8041108388946</v>
       </c>
-      <c r="U7" t="n">
+      <c r="V7" t="n">
         <v>-37.68410466983708</v>
       </c>
-      <c r="V7" t="n">
+      <c r="W7" t="n">
         <v>174.8089369576191</v>
       </c>
-      <c r="W7" t="n">
+      <c r="X7" t="n">
         <v>-37.68257300618571</v>
       </c>
     </row>
@@ -28530,27 +28541,28 @@
       <c r="P8" t="n">
         <v>292.2928320633143</v>
       </c>
-      <c r="Q8" t="inlineStr">
+      <c r="Q8" t="inlineStr"/>
+      <c r="R8" t="inlineStr">
         <is>
           <t>LINESTRING (174.81344275976863 -37.68038332611105, 174.8037836548609 -37.68343288850935)</t>
         </is>
       </c>
-      <c r="R8" t="n">
+      <c r="S8" t="n">
         <v>174.8134427597686</v>
       </c>
-      <c r="S8" t="n">
+      <c r="T8" t="n">
         <v>-37.68038332611105</v>
       </c>
-      <c r="T8" t="n">
+      <c r="U8" t="n">
         <v>174.8037836548609</v>
       </c>
-      <c r="U8" t="n">
+      <c r="V8" t="n">
         <v>-37.68343288850935</v>
       </c>
-      <c r="V8" t="n">
+      <c r="W8" t="n">
         <v>174.8086132073147</v>
       </c>
-      <c r="W8" t="n">
+      <c r="X8" t="n">
         <v>-37.6819081073102</v>
       </c>
     </row>
@@ -28601,27 +28613,28 @@
       <c r="P9" t="n">
         <v>267.750634653799</v>
       </c>
-      <c r="Q9" t="inlineStr">
+      <c r="Q9" t="inlineStr"/>
+      <c r="R9" t="inlineStr">
         <is>
           <t>LINESTRING (174.81312911709864 -37.6797318266985, 174.80345374067167 -37.682748623139304)</t>
         </is>
       </c>
-      <c r="R9" t="n">
+      <c r="S9" t="n">
         <v>174.8131291170986</v>
       </c>
-      <c r="S9" t="n">
+      <c r="T9" t="n">
         <v>-37.6797318266985</v>
       </c>
-      <c r="T9" t="n">
+      <c r="U9" t="n">
         <v>174.8034537406717</v>
       </c>
-      <c r="U9" t="n">
+      <c r="V9" t="n">
         <v>-37.6827486231393</v>
       </c>
-      <c r="V9" t="n">
+      <c r="W9" t="n">
         <v>174.8082914288852</v>
       </c>
-      <c r="W9" t="n">
+      <c r="X9" t="n">
         <v>-37.6812402249189</v>
       </c>
     </row>
@@ -28678,27 +28691,28 @@
       <c r="P10" t="n">
         <v>276.8719061098145</v>
       </c>
-      <c r="Q10" t="inlineStr">
+      <c r="Q10" t="inlineStr"/>
+      <c r="R10" t="inlineStr">
         <is>
           <t>LINESTRING (174.81281692808327 -37.679073694143604, 174.80313222214104 -37.68207147213372)</t>
         </is>
       </c>
-      <c r="R10" t="n">
+      <c r="S10" t="n">
         <v>174.8128169280833</v>
       </c>
-      <c r="S10" t="n">
+      <c r="T10" t="n">
         <v>-37.6790736941436</v>
       </c>
-      <c r="T10" t="n">
+      <c r="U10" t="n">
         <v>174.803132222141</v>
       </c>
-      <c r="U10" t="n">
+      <c r="V10" t="n">
         <v>-37.68207147213372</v>
       </c>
-      <c r="V10" t="n">
+      <c r="W10" t="n">
         <v>174.8079745751122</v>
       </c>
-      <c r="W10" t="n">
+      <c r="X10" t="n">
         <v>-37.68057258313866</v>
       </c>
     </row>
@@ -28755,27 +28769,28 @@
       <c r="P11" t="n">
         <v>281.7738433946461</v>
       </c>
-      <c r="Q11" t="inlineStr">
+      <c r="Q11" t="inlineStr"/>
+      <c r="R11" t="inlineStr">
         <is>
           <t>LINESTRING (174.8125010905819 -37.678408121824624, 174.80281643125124 -37.68140589082486)</t>
         </is>
       </c>
-      <c r="R11" t="n">
+      <c r="S11" t="n">
         <v>174.8125010905819</v>
       </c>
-      <c r="S11" t="n">
+      <c r="T11" t="n">
         <v>-37.67840812182462</v>
       </c>
-      <c r="T11" t="n">
+      <c r="U11" t="n">
         <v>174.8028164312512</v>
       </c>
-      <c r="U11" t="n">
+      <c r="V11" t="n">
         <v>-37.68140589082486</v>
       </c>
-      <c r="V11" t="n">
+      <c r="W11" t="n">
         <v>174.8076587609166</v>
       </c>
-      <c r="W11" t="n">
+      <c r="X11" t="n">
         <v>-37.67990700632474</v>
       </c>
     </row>
@@ -28826,27 +28841,28 @@
       <c r="P12" t="n">
         <v>286.1405886222101</v>
       </c>
-      <c r="Q12" t="inlineStr">
+      <c r="Q12" t="inlineStr"/>
+      <c r="R12" t="inlineStr">
         <is>
           <t>LINESTRING (174.81218525308083 -37.67774254353421, 174.8025006403609 -37.68074030354492)</t>
         </is>
       </c>
-      <c r="R12" t="n">
+      <c r="S12" t="n">
         <v>174.8121852530808</v>
       </c>
-      <c r="S12" t="n">
+      <c r="T12" t="n">
         <v>-37.67774254353421</v>
       </c>
-      <c r="T12" t="n">
+      <c r="U12" t="n">
         <v>174.8025006403609</v>
       </c>
-      <c r="U12" t="n">
+      <c r="V12" t="n">
         <v>-37.68074030354492</v>
       </c>
-      <c r="V12" t="n">
+      <c r="W12" t="n">
         <v>174.8073429467209</v>
       </c>
-      <c r="W12" t="n">
+      <c r="X12" t="n">
         <v>-37.67924142353957</v>
       </c>
     </row>
@@ -28903,27 +28919,28 @@
       <c r="P13" t="n">
         <v>292.0028234164238</v>
       </c>
-      <c r="Q13" t="inlineStr">
+      <c r="Q13" t="inlineStr"/>
+      <c r="R13" t="inlineStr">
         <is>
           <t>LINESTRING (174.81186941558002 -37.67707695927246, 174.80218484946997 -37.68007471029386)</t>
         </is>
       </c>
-      <c r="R13" t="n">
+      <c r="S13" t="n">
         <v>174.81186941558</v>
       </c>
-      <c r="S13" t="n">
+      <c r="T13" t="n">
         <v>-37.67707695927246</v>
       </c>
-      <c r="T13" t="n">
+      <c r="U13" t="n">
         <v>174.80218484947</v>
       </c>
-      <c r="U13" t="n">
+      <c r="V13" t="n">
         <v>-37.68007471029386</v>
       </c>
-      <c r="V13" t="n">
+      <c r="W13" t="n">
         <v>174.807027132525</v>
       </c>
-      <c r="W13" t="n">
+      <c r="X13" t="n">
         <v>-37.67857583478316</v>
       </c>
     </row>
@@ -28980,27 +28997,28 @@
       <c r="P14" t="n">
         <v>278.4655095306565</v>
       </c>
-      <c r="Q14" t="inlineStr">
+      <c r="Q14" t="inlineStr"/>
+      <c r="R14" t="inlineStr">
         <is>
           <t>LINESTRING (174.81155357807947 -37.67641136903934, 174.80186905857863 -37.67940911107181)</t>
         </is>
       </c>
-      <c r="R14" t="n">
+      <c r="S14" t="n">
         <v>174.8115535780795</v>
       </c>
-      <c r="S14" t="n">
+      <c r="T14" t="n">
         <v>-37.67641136903934</v>
       </c>
-      <c r="T14" t="n">
+      <c r="U14" t="n">
         <v>174.8018690585786</v>
       </c>
-      <c r="U14" t="n">
+      <c r="V14" t="n">
         <v>-37.67940911107181</v>
       </c>
-      <c r="V14" t="n">
+      <c r="W14" t="n">
         <v>174.8067113183291</v>
       </c>
-      <c r="W14" t="n">
+      <c r="X14" t="n">
         <v>-37.67791024005558</v>
       </c>
     </row>
@@ -29057,27 +29075,28 @@
       <c r="P15" t="n">
         <v>278.5715485971156</v>
       </c>
-      <c r="Q15" t="inlineStr">
+      <c r="Q15" t="inlineStr"/>
+      <c r="R15" t="inlineStr">
         <is>
           <t>LINESTRING (174.8112624355426 -37.67579759435383, 174.80151449184498 -37.67866280888085)</t>
         </is>
       </c>
-      <c r="R15" t="n">
+      <c r="S15" t="n">
         <v>174.8112624355426</v>
       </c>
-      <c r="S15" t="n">
+      <c r="T15" t="n">
         <v>-37.67579759435383</v>
       </c>
-      <c r="T15" t="n">
+      <c r="U15" t="n">
         <v>174.801514491845</v>
       </c>
-      <c r="U15" t="n">
+      <c r="V15" t="n">
         <v>-37.67866280888085</v>
       </c>
-      <c r="V15" t="n">
+      <c r="W15" t="n">
         <v>174.8063884636938</v>
       </c>
-      <c r="W15" t="n">
+      <c r="X15" t="n">
         <v>-37.67723020161734</v>
       </c>
     </row>
@@ -29134,27 +29153,28 @@
       <c r="P16" t="n">
         <v>308.7415589657109</v>
       </c>
-      <c r="Q16" t="inlineStr">
+      <c r="Q16" t="inlineStr"/>
+      <c r="R16" t="inlineStr">
         <is>
           <t>LINESTRING (174.8110192781726 -37.6752226095033, 174.80115969323 -37.677836008191505)</t>
         </is>
       </c>
-      <c r="R16" t="n">
+      <c r="S16" t="n">
         <v>174.8110192781726</v>
       </c>
-      <c r="S16" t="n">
+      <c r="T16" t="n">
         <v>-37.6752226095033</v>
       </c>
-      <c r="T16" t="n">
+      <c r="U16" t="n">
         <v>174.80115969323</v>
       </c>
-      <c r="U16" t="n">
+      <c r="V16" t="n">
         <v>-37.67783600819151</v>
       </c>
-      <c r="V16" t="n">
+      <c r="W16" t="n">
         <v>174.8060894857013</v>
       </c>
-      <c r="W16" t="n">
+      <c r="X16" t="n">
         <v>-37.67652930884741</v>
       </c>
     </row>
@@ -29211,27 +29231,28 @@
       <c r="P17" t="n">
         <v>321.9360733394738</v>
       </c>
-      <c r="Q17" t="inlineStr">
+      <c r="Q17" t="inlineStr"/>
+      <c r="R17" t="inlineStr">
         <is>
           <t>LINESTRING (174.8107774368846 -37.674588727693425, 174.8008691288616 -37.67708320649948)</t>
         </is>
       </c>
-      <c r="R17" t="n">
+      <c r="S17" t="n">
         <v>174.8107774368846</v>
       </c>
-      <c r="S17" t="n">
+      <c r="T17" t="n">
         <v>-37.67458872769343</v>
       </c>
-      <c r="T17" t="n">
+      <c r="U17" t="n">
         <v>174.8008691288616</v>
       </c>
-      <c r="U17" t="n">
+      <c r="V17" t="n">
         <v>-37.67708320649948</v>
       </c>
-      <c r="V17" t="n">
+      <c r="W17" t="n">
         <v>174.8058232828731</v>
       </c>
-      <c r="W17" t="n">
+      <c r="X17" t="n">
         <v>-37.67583596709645</v>
       </c>
     </row>
@@ -29288,27 +29309,28 @@
       <c r="P18" t="n">
         <v>323.5481255322542</v>
       </c>
-      <c r="Q18" t="inlineStr">
+      <c r="Q18" t="inlineStr"/>
+      <c r="R18" t="inlineStr">
         <is>
           <t>LINESTRING (174.81051663339625 -37.67390834356517, 174.80060837743892 -37.67640281443956)</t>
         </is>
       </c>
-      <c r="R18" t="n">
+      <c r="S18" t="n">
         <v>174.8105166333962</v>
       </c>
-      <c r="S18" t="n">
+      <c r="T18" t="n">
         <v>-37.67390834356517</v>
       </c>
-      <c r="T18" t="n">
+      <c r="U18" t="n">
         <v>174.8006083774389</v>
       </c>
-      <c r="U18" t="n">
+      <c r="V18" t="n">
         <v>-37.67640281443956</v>
       </c>
-      <c r="V18" t="n">
+      <c r="W18" t="n">
         <v>174.8055625054176</v>
       </c>
-      <c r="W18" t="n">
+      <c r="X18" t="n">
         <v>-37.67515557900236</v>
       </c>
     </row>
@@ -29365,27 +29387,28 @@
       <c r="P19" t="n">
         <v>330.0026289567255</v>
       </c>
-      <c r="Q19" t="inlineStr">
+      <c r="Q19" t="inlineStr"/>
+      <c r="R19" t="inlineStr">
         <is>
           <t>LINESTRING (174.8102558299082 -37.673227953197824, 174.8003476260155 -37.675722416140914)</t>
         </is>
       </c>
-      <c r="R19" t="n">
+      <c r="S19" t="n">
         <v>174.8102558299082</v>
       </c>
-      <c r="S19" t="n">
+      <c r="T19" t="n">
         <v>-37.67322795319782</v>
       </c>
-      <c r="T19" t="n">
+      <c r="U19" t="n">
         <v>174.8003476260155</v>
       </c>
-      <c r="U19" t="n">
+      <c r="V19" t="n">
         <v>-37.67572241614091</v>
       </c>
-      <c r="V19" t="n">
+      <c r="W19" t="n">
         <v>174.8053017279618</v>
       </c>
-      <c r="W19" t="n">
+      <c r="X19" t="n">
         <v>-37.67447518466937</v>
       </c>
     </row>
@@ -29442,27 +29465,28 @@
       <c r="P20" t="n">
         <v>340.7843419304351</v>
       </c>
-      <c r="Q20" t="inlineStr">
+      <c r="Q20" t="inlineStr"/>
+      <c r="R20" t="inlineStr">
         <is>
           <t>LINESTRING (174.80996686477178 -37.67247932807165, 174.8001311458963 -37.67514827314039)</t>
         </is>
       </c>
-      <c r="R20" t="n">
+      <c r="S20" t="n">
         <v>174.8099668647718</v>
       </c>
-      <c r="S20" t="n">
+      <c r="T20" t="n">
         <v>-37.67247932807165</v>
       </c>
-      <c r="T20" t="n">
+      <c r="U20" t="n">
         <v>174.8001311458963</v>
       </c>
-      <c r="U20" t="n">
+      <c r="V20" t="n">
         <v>-37.67514827314039</v>
       </c>
-      <c r="V20" t="n">
+      <c r="W20" t="n">
         <v>174.805049005334</v>
       </c>
-      <c r="W20" t="n">
+      <c r="X20" t="n">
         <v>-37.67381380060602</v>
       </c>
     </row>
@@ -29519,27 +29543,28 @@
       <c r="P21" t="n">
         <v>345.177184437588</v>
       </c>
-      <c r="Q21" t="inlineStr">
+      <c r="Q21" t="inlineStr"/>
+      <c r="R21" t="inlineStr">
         <is>
           <t>LINESTRING (174.80955776889124 -37.6715805853346, 174.80000724733202 -37.67483724076264)</t>
         </is>
       </c>
-      <c r="R21" t="n">
+      <c r="S21" t="n">
         <v>174.8095577688912</v>
       </c>
-      <c r="S21" t="n">
+      <c r="T21" t="n">
         <v>-37.6715805853346</v>
       </c>
-      <c r="T21" t="n">
+      <c r="U21" t="n">
         <v>174.800007247332</v>
       </c>
-      <c r="U21" t="n">
+      <c r="V21" t="n">
         <v>-37.67483724076264</v>
       </c>
-      <c r="V21" t="n">
+      <c r="W21" t="n">
         <v>174.8047825081116</v>
       </c>
-      <c r="W21" t="n">
+      <c r="X21" t="n">
         <v>-37.67320891304863</v>
       </c>
     </row>
@@ -29596,27 +29621,28 @@
       <c r="P22" t="n">
         <v>339.8443381255685</v>
       </c>
-      <c r="Q22" t="inlineStr">
+      <c r="Q22" t="inlineStr"/>
+      <c r="R22" t="inlineStr">
         <is>
           <t>LINESTRING (174.80907790757567 -37.670781559498515, 174.79976234761145 -37.674441873128266)</t>
         </is>
       </c>
-      <c r="R22" t="n">
+      <c r="S22" t="n">
         <v>174.8090779075757</v>
       </c>
-      <c r="S22" t="n">
+      <c r="T22" t="n">
         <v>-37.67078155949851</v>
       </c>
-      <c r="T22" t="n">
+      <c r="U22" t="n">
         <v>174.7997623476114</v>
       </c>
-      <c r="U22" t="n">
+      <c r="V22" t="n">
         <v>-37.67444187312827</v>
       </c>
-      <c r="V22" t="n">
+      <c r="W22" t="n">
         <v>174.8044201275936</v>
       </c>
-      <c r="W22" t="n">
+      <c r="X22" t="n">
         <v>-37.67261171631339</v>
       </c>
     </row>

--- a/data/nzd0216/nzd0216.xlsx
+++ b/data/nzd0216/nzd0216.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W394"/>
+  <dimension ref="A1:W396"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -23424,9 +23424,7 @@
       <c r="I393" t="n">
         <v>284.5007936507937</v>
       </c>
-      <c r="J393" t="n">
-        <v>280.4562162162162</v>
-      </c>
+      <c r="J393" t="inlineStr"/>
       <c r="K393" t="n">
         <v>289.99</v>
       </c>
@@ -23504,7 +23502,9 @@
         <v>327.89</v>
       </c>
       <c r="L394" t="inlineStr"/>
-      <c r="M394" t="inlineStr"/>
+      <c r="M394" t="n">
+        <v>326.0814285714285</v>
+      </c>
       <c r="N394" t="n">
         <v>288.37</v>
       </c>
@@ -23533,6 +23533,144 @@
         <v>353.405</v>
       </c>
       <c r="W394" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="395">
+      <c r="A395" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-19 22:05:54+00:00</t>
+        </is>
+      </c>
+      <c r="B395" t="n">
+        <v>346.8</v>
+      </c>
+      <c r="C395" t="n">
+        <v>341.75</v>
+      </c>
+      <c r="D395" t="n">
+        <v>335.6944827586207</v>
+      </c>
+      <c r="E395" t="n">
+        <v>334.8733333333333</v>
+      </c>
+      <c r="F395" t="n">
+        <v>337</v>
+      </c>
+      <c r="G395" t="n">
+        <v>327.904347826087</v>
+      </c>
+      <c r="H395" t="n">
+        <v>320.6038461538461</v>
+      </c>
+      <c r="I395" t="n">
+        <v>311.052380952381</v>
+      </c>
+      <c r="J395" t="inlineStr"/>
+      <c r="K395" t="n">
+        <v>324.03</v>
+      </c>
+      <c r="L395" t="n">
+        <v>325.96</v>
+      </c>
+      <c r="M395" t="n">
+        <v>327.7171428571428</v>
+      </c>
+      <c r="N395" t="n">
+        <v>319.7292307692308</v>
+      </c>
+      <c r="O395" t="n">
+        <v>313.31</v>
+      </c>
+      <c r="P395" t="n">
+        <v>323.63</v>
+      </c>
+      <c r="Q395" t="n">
+        <v>330.24</v>
+      </c>
+      <c r="R395" t="n">
+        <v>323.9289473684211</v>
+      </c>
+      <c r="S395" t="n">
+        <v>333.6528571428572</v>
+      </c>
+      <c r="T395" t="n">
+        <v>339.1672727272727</v>
+      </c>
+      <c r="U395" t="n">
+        <v>337.6628571428571</v>
+      </c>
+      <c r="V395" t="n">
+        <v>343.115</v>
+      </c>
+      <c r="W395" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="396">
+      <c r="A396" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-12 22:05:36+00:00</t>
+        </is>
+      </c>
+      <c r="B396" t="n">
+        <v>328.5866666666667</v>
+      </c>
+      <c r="C396" t="n">
+        <v>309.08</v>
+      </c>
+      <c r="D396" t="n">
+        <v>310.2844827586207</v>
+      </c>
+      <c r="E396" t="n">
+        <v>332.8911111111111</v>
+      </c>
+      <c r="F396" t="inlineStr"/>
+      <c r="G396" t="n">
+        <v>295.2513043478261</v>
+      </c>
+      <c r="H396" t="n">
+        <v>299.5269230769231</v>
+      </c>
+      <c r="I396" t="inlineStr"/>
+      <c r="J396" t="n">
+        <v>237.1510810810811</v>
+      </c>
+      <c r="K396" t="inlineStr"/>
+      <c r="L396" t="inlineStr"/>
+      <c r="M396" t="inlineStr"/>
+      <c r="N396" t="n">
+        <v>287.4079487179487</v>
+      </c>
+      <c r="O396" t="n">
+        <v>293.0966666666667</v>
+      </c>
+      <c r="P396" t="n">
+        <v>317.1233333333333</v>
+      </c>
+      <c r="Q396" t="n">
+        <v>326.1933333333333</v>
+      </c>
+      <c r="R396" t="n">
+        <v>313.2094736842105</v>
+      </c>
+      <c r="S396" t="n">
+        <v>321.1142857142857</v>
+      </c>
+      <c r="T396" t="n">
+        <v>342.1281818181818</v>
+      </c>
+      <c r="U396" t="n">
+        <v>340.5042857142857</v>
+      </c>
+      <c r="V396" t="n">
+        <v>319.595</v>
+      </c>
+      <c r="W396" t="inlineStr">
         <is>
           <t>L8</t>
         </is>
@@ -23549,7 +23687,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B432"/>
+  <dimension ref="A1:B435"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -27877,6 +28015,36 @@
       </c>
       <c r="B432" t="n">
         <v>-0.39</v>
+      </c>
+    </row>
+    <row r="433">
+      <c r="A433" t="inlineStr">
+        <is>
+          <t>2025-03-19 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B433" t="n">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="434">
+      <c r="A434" t="inlineStr">
+        <is>
+          <t>2025-04-12 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B434" t="n">
+        <v>1.31</v>
+      </c>
+    </row>
+    <row r="435">
+      <c r="A435" t="inlineStr">
+        <is>
+          <t>2025-04-19 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B435" t="n">
+        <v>-0.31</v>
       </c>
     </row>
   </sheetData>
@@ -28050,28 +28218,28 @@
         <v>0.036</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.3231757145182473</v>
+        <v>-0.3065701275493605</v>
       </c>
       <c r="J2" t="n">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="K2" t="n">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="L2" t="n">
-        <v>0.0115610100173299</v>
+        <v>0.01055831912452754</v>
       </c>
       <c r="M2" t="n">
-        <v>16.80892702228636</v>
+        <v>16.74251310186336</v>
       </c>
       <c r="N2" t="n">
-        <v>474.328778731724</v>
+        <v>471.7993915172317</v>
       </c>
       <c r="O2" t="n">
-        <v>21.7790904018447</v>
+        <v>21.72094361479795</v>
       </c>
       <c r="P2" t="n">
-        <v>335.8278322231864</v>
+        <v>335.6614998856255</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -28128,28 +28296,28 @@
         <v>0.0728</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.3742376549645424</v>
+        <v>-0.3455962991236988</v>
       </c>
       <c r="J3" t="n">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="K3" t="n">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="L3" t="n">
-        <v>0.002196473377334973</v>
+        <v>0.001905305718679307</v>
       </c>
       <c r="M3" t="n">
-        <v>37.74896794634002</v>
+        <v>37.47560686580728</v>
       </c>
       <c r="N3" t="n">
-        <v>3091.180492803253</v>
+        <v>3064.980841310702</v>
       </c>
       <c r="O3" t="n">
-        <v>55.59838570321313</v>
+        <v>55.36226911273328</v>
       </c>
       <c r="P3" t="n">
-        <v>319.9808830789332</v>
+        <v>319.6695565713902</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -28206,28 +28374,28 @@
         <v>0.2</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.5101503337553647</v>
+        <v>-0.4500465134918495</v>
       </c>
       <c r="J4" t="n">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="K4" t="n">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="L4" t="n">
-        <v>0.002420280344036851</v>
+        <v>0.001913338843826495</v>
       </c>
       <c r="M4" t="n">
-        <v>57.29688811828817</v>
+        <v>56.90341163919687</v>
       </c>
       <c r="N4" t="n">
-        <v>5321.117480428226</v>
+        <v>5280.072988805947</v>
       </c>
       <c r="O4" t="n">
-        <v>72.94599016003708</v>
+        <v>72.66411073429542</v>
       </c>
       <c r="P4" t="n">
-        <v>303.3728762300813</v>
+        <v>302.7227656518912</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -28284,28 +28452,28 @@
         <v>0.07770000000000001</v>
       </c>
       <c r="I5" t="n">
-        <v>-1.192554644682064</v>
+        <v>-1.103801358228586</v>
       </c>
       <c r="J5" t="n">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="K5" t="n">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="L5" t="n">
-        <v>0.0145233523899202</v>
+        <v>0.01261663214086384</v>
       </c>
       <c r="M5" t="n">
-        <v>57.25468756448529</v>
+        <v>57.00127812349269</v>
       </c>
       <c r="N5" t="n">
-        <v>4777.660958940316</v>
+        <v>4757.339129672558</v>
       </c>
       <c r="O5" t="n">
-        <v>69.12062614690579</v>
+        <v>68.97346685264239</v>
       </c>
       <c r="P5" t="n">
-        <v>313.2016947143488</v>
+        <v>312.2507462869691</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -28362,28 +28530,28 @@
         <v>0.2</v>
       </c>
       <c r="I6" t="n">
-        <v>0.3105811203441413</v>
+        <v>0.3524826558066976</v>
       </c>
       <c r="J6" t="n">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="K6" t="n">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="L6" t="n">
-        <v>0.001403463633472657</v>
+        <v>0.001819175770459092</v>
       </c>
       <c r="M6" t="n">
-        <v>48.22504661973768</v>
+        <v>48.12612272549343</v>
       </c>
       <c r="N6" t="n">
-        <v>3499.279700030636</v>
+        <v>3491.504442208554</v>
       </c>
       <c r="O6" t="n">
-        <v>59.15470987191667</v>
+        <v>59.08895363947947</v>
       </c>
       <c r="P6" t="n">
-        <v>284.9506625806025</v>
+        <v>284.515189699829</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -28440,28 +28608,28 @@
         <v>0.2</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.2010675237876787</v>
+        <v>-0.1600743867690877</v>
       </c>
       <c r="J7" t="n">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="K7" t="n">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="L7" t="n">
-        <v>0.001001032460661522</v>
+        <v>0.000646098240551729</v>
       </c>
       <c r="M7" t="n">
-        <v>35.02913760438026</v>
+        <v>34.80712671399707</v>
       </c>
       <c r="N7" t="n">
-        <v>1884.993281977554</v>
+        <v>1871.663215972394</v>
       </c>
       <c r="O7" t="n">
-        <v>43.41650932511219</v>
+        <v>43.26272316870951</v>
       </c>
       <c r="P7" t="n">
-        <v>297.6318288705978</v>
+        <v>297.1843816402935</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -28518,28 +28686,28 @@
         <v>0.2</v>
       </c>
       <c r="I8" t="n">
-        <v>0.195818351201727</v>
+        <v>0.2174506047283017</v>
       </c>
       <c r="J8" t="n">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="K8" t="n">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="L8" t="n">
-        <v>0.001799244126071686</v>
+        <v>0.002250073146810916</v>
       </c>
       <c r="M8" t="n">
-        <v>25.09664029260044</v>
+        <v>25.00443820299088</v>
       </c>
       <c r="N8" t="n">
-        <v>1013.235529519633</v>
+        <v>1006.994352313525</v>
       </c>
       <c r="O8" t="n">
-        <v>31.83136078648906</v>
+        <v>31.73317431826707</v>
       </c>
       <c r="P8" t="n">
-        <v>292.2928320633143</v>
+        <v>292.0587870292844</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -28590,28 +28758,28 @@
       <c r="G9" t="inlineStr"/>
       <c r="H9" t="inlineStr"/>
       <c r="I9" t="n">
-        <v>0.05537572037901655</v>
+        <v>0.09071033441665433</v>
       </c>
       <c r="J9" t="n">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="K9" t="n">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="L9" t="n">
-        <v>6.969054151662046e-05</v>
+        <v>0.00018789162584254</v>
       </c>
       <c r="M9" t="n">
-        <v>41.27786459772903</v>
+        <v>41.28339380485892</v>
       </c>
       <c r="N9" t="n">
-        <v>2173.253395728446</v>
+        <v>2171.363949533202</v>
       </c>
       <c r="O9" t="n">
-        <v>46.61816594127708</v>
+        <v>46.59789640673925</v>
       </c>
       <c r="P9" t="n">
-        <v>267.750634653799</v>
+        <v>267.3755003679211</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -28668,28 +28836,28 @@
         <v>0.2</v>
       </c>
       <c r="I10" t="n">
-        <v>-0.5746062727434348</v>
+        <v>-0.6126726241381255</v>
       </c>
       <c r="J10" t="n">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="K10" t="n">
         <v>225</v>
       </c>
       <c r="L10" t="n">
-        <v>0.007471459270088521</v>
+        <v>0.008483658231253188</v>
       </c>
       <c r="M10" t="n">
-        <v>40.28429355510763</v>
+        <v>40.29403113833254</v>
       </c>
       <c r="N10" t="n">
-        <v>2155.157505857112</v>
+        <v>2156.378893958019</v>
       </c>
       <c r="O10" t="n">
-        <v>46.4236739806008</v>
+        <v>46.43682691526219</v>
       </c>
       <c r="P10" t="n">
-        <v>276.8719061098145</v>
+        <v>277.2770876023864</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -28746,28 +28914,28 @@
         <v>0.2</v>
       </c>
       <c r="I11" t="n">
-        <v>-0.1575893942673041</v>
+        <v>-0.1191336179378669</v>
       </c>
       <c r="J11" t="n">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="K11" t="n">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="L11" t="n">
-        <v>0.00145066362589652</v>
+        <v>0.0008280186198634798</v>
       </c>
       <c r="M11" t="n">
-        <v>23.49095127926278</v>
+        <v>23.59590243568752</v>
       </c>
       <c r="N11" t="n">
-        <v>799.4570036036218</v>
+        <v>804.5737033166915</v>
       </c>
       <c r="O11" t="n">
-        <v>28.27467070725355</v>
+        <v>28.36500843145814</v>
       </c>
       <c r="P11" t="n">
-        <v>281.7738433946461</v>
+        <v>281.3610368388035</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -28818,28 +28986,28 @@
       <c r="G12" t="inlineStr"/>
       <c r="H12" t="inlineStr"/>
       <c r="I12" t="n">
-        <v>-0.6466511400659068</v>
+        <v>-0.6004575500522153</v>
       </c>
       <c r="J12" t="n">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="K12" t="n">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="L12" t="n">
-        <v>0.01438647044506469</v>
+        <v>0.01241940376159711</v>
       </c>
       <c r="M12" t="n">
-        <v>32.1545403342584</v>
+        <v>32.26557215961775</v>
       </c>
       <c r="N12" t="n">
-        <v>1379.053066297276</v>
+        <v>1386.023499564329</v>
       </c>
       <c r="O12" t="n">
-        <v>37.13560375565847</v>
+        <v>37.22933654477782</v>
       </c>
       <c r="P12" t="n">
-        <v>286.1405886222101</v>
+        <v>285.6492098069739</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
@@ -28896,28 +29064,28 @@
         <v>0.2</v>
       </c>
       <c r="I13" t="n">
-        <v>0.2027311835803738</v>
+        <v>0.2504202760859002</v>
       </c>
       <c r="J13" t="n">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="K13" t="n">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="L13" t="n">
-        <v>0.001989200387432222</v>
+        <v>0.003058777302776372</v>
       </c>
       <c r="M13" t="n">
-        <v>26.70650945573945</v>
+        <v>26.75000542166994</v>
       </c>
       <c r="N13" t="n">
-        <v>1008.976394831609</v>
+        <v>1007.802580655483</v>
       </c>
       <c r="O13" t="n">
-        <v>31.76438878416535</v>
+        <v>31.74590651809273</v>
       </c>
       <c r="P13" t="n">
-        <v>292.0028234164238</v>
+        <v>291.4971414234643</v>
       </c>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr">
@@ -28974,28 +29142,28 @@
         <v>0.2</v>
       </c>
       <c r="I14" t="n">
-        <v>0.4152686718878271</v>
+        <v>0.4431316212156594</v>
       </c>
       <c r="J14" t="n">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="K14" t="n">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="L14" t="n">
-        <v>0.01061166887307752</v>
+        <v>0.01225208919644549</v>
       </c>
       <c r="M14" t="n">
-        <v>22.35769276370919</v>
+        <v>22.33205687860026</v>
       </c>
       <c r="N14" t="n">
-        <v>827.5173614627397</v>
+        <v>824.1084875516246</v>
       </c>
       <c r="O14" t="n">
-        <v>28.76660149309855</v>
+        <v>28.70728979809179</v>
       </c>
       <c r="P14" t="n">
-        <v>278.4655095306565</v>
+        <v>278.1884857713671</v>
       </c>
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr">
@@ -29052,28 +29220,28 @@
         <v>0.1895</v>
       </c>
       <c r="I15" t="n">
-        <v>-0.07596404135417316</v>
+        <v>-0.03003489391420418</v>
       </c>
       <c r="J15" t="n">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="K15" t="n">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="L15" t="n">
-        <v>0.0002745073280815413</v>
+        <v>4.340846495798356e-05</v>
       </c>
       <c r="M15" t="n">
-        <v>25.45829440639556</v>
+        <v>25.47666737834018</v>
       </c>
       <c r="N15" t="n">
-        <v>1070.045105285847</v>
+        <v>1067.572593844022</v>
       </c>
       <c r="O15" t="n">
-        <v>32.71154391473822</v>
+        <v>32.67372941437849</v>
       </c>
       <c r="P15" t="n">
-        <v>278.5715485971156</v>
+        <v>278.0987197055019</v>
       </c>
       <c r="Q15" t="inlineStr"/>
       <c r="R15" t="inlineStr">
@@ -29130,28 +29298,28 @@
         <v>0.0726</v>
       </c>
       <c r="I16" t="n">
-        <v>0.013859430993067</v>
+        <v>0.0308670769613028</v>
       </c>
       <c r="J16" t="n">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="K16" t="n">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="L16" t="n">
-        <v>1.726501243204392e-05</v>
+        <v>8.675383262890524e-05</v>
       </c>
       <c r="M16" t="n">
-        <v>17.18963182146065</v>
+        <v>17.1427375785514</v>
       </c>
       <c r="N16" t="n">
-        <v>544.1778861939995</v>
+        <v>541.0546211821944</v>
       </c>
       <c r="O16" t="n">
-        <v>23.32762067151297</v>
+        <v>23.26058084361167</v>
       </c>
       <c r="P16" t="n">
-        <v>308.7415589657109</v>
+        <v>308.5599031823225</v>
       </c>
       <c r="Q16" t="inlineStr"/>
       <c r="R16" t="inlineStr">
@@ -29208,28 +29376,28 @@
         <v>0.0707</v>
       </c>
       <c r="I17" t="n">
-        <v>-0.03319863206151171</v>
+        <v>-0.02265023915969874</v>
       </c>
       <c r="J17" t="n">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="K17" t="n">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="L17" t="n">
-        <v>0.0001698618404079033</v>
+        <v>8.016620610507008e-05</v>
       </c>
       <c r="M17" t="n">
-        <v>13.14702388631692</v>
+        <v>13.10951220969956</v>
       </c>
       <c r="N17" t="n">
-        <v>313.2085262282871</v>
+        <v>311.3284873002786</v>
       </c>
       <c r="O17" t="n">
-        <v>17.69769833137313</v>
+        <v>17.64450303353083</v>
       </c>
       <c r="P17" t="n">
-        <v>321.9360733394738</v>
+        <v>321.8238251057809</v>
       </c>
       <c r="Q17" t="inlineStr"/>
       <c r="R17" t="inlineStr">
@@ -29286,28 +29454,28 @@
         <v>0.1168</v>
       </c>
       <c r="I18" t="n">
-        <v>-0.05694973749869808</v>
+        <v>-0.06183947212624781</v>
       </c>
       <c r="J18" t="n">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="K18" t="n">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="L18" t="n">
-        <v>0.0004110866339882557</v>
+        <v>0.0004911676358112516</v>
       </c>
       <c r="M18" t="n">
-        <v>15.62988495007879</v>
+        <v>15.55235845418886</v>
       </c>
       <c r="N18" t="n">
-        <v>398.4801581066338</v>
+        <v>395.9795260888762</v>
       </c>
       <c r="O18" t="n">
-        <v>19.96196779144366</v>
+        <v>19.89923430911039</v>
       </c>
       <c r="P18" t="n">
-        <v>323.5481255322542</v>
+        <v>323.5989919758061</v>
       </c>
       <c r="Q18" t="inlineStr"/>
       <c r="R18" t="inlineStr">
@@ -29364,28 +29532,28 @@
         <v>0.0864</v>
       </c>
       <c r="I19" t="n">
-        <v>0.1476693497169792</v>
+        <v>0.1386678699223189</v>
       </c>
       <c r="J19" t="n">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="K19" t="n">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="L19" t="n">
-        <v>0.002223114779972168</v>
+        <v>0.001986389113171283</v>
       </c>
       <c r="M19" t="n">
-        <v>17.44354320731777</v>
+        <v>17.36138588482356</v>
       </c>
       <c r="N19" t="n">
-        <v>473.9182865288188</v>
+        <v>471.1869834683089</v>
       </c>
       <c r="O19" t="n">
-        <v>21.76966436417472</v>
+        <v>21.70684185846271</v>
       </c>
       <c r="P19" t="n">
-        <v>330.0026289567255</v>
+        <v>330.098671956573</v>
       </c>
       <c r="Q19" t="inlineStr"/>
       <c r="R19" t="inlineStr">
@@ -29442,28 +29610,28 @@
         <v>0.0648</v>
       </c>
       <c r="I20" t="n">
-        <v>0.08551374516797967</v>
+        <v>0.08232697967484341</v>
       </c>
       <c r="J20" t="n">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="K20" t="n">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="L20" t="n">
-        <v>0.0008528916953648435</v>
+        <v>0.0008015183991956221</v>
       </c>
       <c r="M20" t="n">
-        <v>15.79414497665826</v>
+        <v>15.70224859521109</v>
       </c>
       <c r="N20" t="n">
-        <v>414.4429452208986</v>
+        <v>411.6929055715163</v>
       </c>
       <c r="O20" t="n">
-        <v>20.35787182445401</v>
+        <v>20.29021699173068</v>
       </c>
       <c r="P20" t="n">
-        <v>340.7843419304351</v>
+        <v>340.8182157410436</v>
       </c>
       <c r="Q20" t="inlineStr"/>
       <c r="R20" t="inlineStr">
@@ -29520,28 +29688,28 @@
         <v>0.08169999999999999</v>
       </c>
       <c r="I21" t="n">
-        <v>-0.1822209037170593</v>
+        <v>-0.1843988137933189</v>
       </c>
       <c r="J21" t="n">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="K21" t="n">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="L21" t="n">
-        <v>0.003869341723098385</v>
+        <v>0.004019828032926887</v>
       </c>
       <c r="M21" t="n">
-        <v>14.97965021591694</v>
+        <v>14.87813859436728</v>
       </c>
       <c r="N21" t="n">
-        <v>398.6812105584228</v>
+        <v>395.7583279984982</v>
       </c>
       <c r="O21" t="n">
-        <v>19.96700304398291</v>
+        <v>19.89367557789405</v>
       </c>
       <c r="P21" t="n">
-        <v>345.177184437588</v>
+        <v>345.201129215483</v>
       </c>
       <c r="Q21" t="inlineStr"/>
       <c r="R21" t="inlineStr">
@@ -29598,28 +29766,28 @@
         <v>0.1058</v>
       </c>
       <c r="I22" t="n">
-        <v>-0.7335513634764776</v>
+        <v>-0.7158951163211312</v>
       </c>
       <c r="J22" t="n">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="K22" t="n">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="L22" t="n">
-        <v>0.01878500955062501</v>
+        <v>0.01816766707992046</v>
       </c>
       <c r="M22" t="n">
-        <v>20.87049508416948</v>
+        <v>20.7684479132138</v>
       </c>
       <c r="N22" t="n">
-        <v>1277.666262711771</v>
+        <v>1268.714893592086</v>
       </c>
       <c r="O22" t="n">
-        <v>35.74445779014938</v>
+        <v>35.61902432116981</v>
       </c>
       <c r="P22" t="n">
-        <v>339.8443381255685</v>
+        <v>339.6453521176603</v>
       </c>
       <c r="Q22" t="inlineStr"/>
       <c r="R22" t="inlineStr">
@@ -29657,7 +29825,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W394"/>
+  <dimension ref="A1:W396"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -62607,11 +62775,7 @@
           <t>-37.68066815232049,174.81012651547326</t>
         </is>
       </c>
-      <c r="J393" t="inlineStr">
-        <is>
-          <t>-37.67999088592161,174.80985417478033</t>
-        </is>
-      </c>
+      <c r="J393" t="inlineStr"/>
       <c r="K393" t="inlineStr">
         <is>
           <t>-37.67935648544399,174.80943764471894</t>
@@ -62731,7 +62895,11 @@
         </is>
       </c>
       <c r="L394" t="inlineStr"/>
-      <c r="M394" t="inlineStr"/>
+      <c r="M394" t="inlineStr">
+        <is>
+          <t>-37.67814333547695,174.80842474953548</t>
+        </is>
+      </c>
       <c r="N394" t="inlineStr">
         <is>
           <t>-37.677354417780194,174.80850731805776</t>
@@ -62778,6 +62946,216 @@
         </is>
       </c>
       <c r="W394" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="395">
+      <c r="A395" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-19 22:05:54+00:00</t>
+        </is>
+      </c>
+      <c r="B395" t="inlineStr">
+        <is>
+          <t>-37.685517233358766,174.81172656563493</t>
+        </is>
+      </c>
+      <c r="C395" t="inlineStr">
+        <is>
+          <t>-37.68483698410002,174.81145676035186</t>
+        </is>
+      </c>
+      <c r="D395" t="inlineStr">
+        <is>
+          <t>-37.68415336885461,174.8111975415553</t>
+        </is>
+      </c>
+      <c r="E395" t="inlineStr">
+        <is>
+          <t>-37.68348723999236,174.81088320821493</t>
+        </is>
+      </c>
+      <c r="F395" t="inlineStr">
+        <is>
+          <t>-37.68283095611432,174.81053783693494</t>
+        </is>
+      </c>
+      <c r="G395" t="inlineStr">
+        <is>
+          <t>-37.68213716415864,174.8103106257956</t>
+        </is>
+      </c>
+      <c r="H395" t="inlineStr">
+        <is>
+          <t>-37.68144993229481,174.81006479034485</t>
+        </is>
+      </c>
+      <c r="I395" t="inlineStr">
+        <is>
+          <t>-37.68075553291148,174.80984628787604</t>
+        </is>
+      </c>
+      <c r="J395" t="inlineStr"/>
+      <c r="K395" t="inlineStr">
+        <is>
+          <t>-37.67946780245114,174.80907804185725</t>
+        </is>
+      </c>
+      <c r="L395" t="inlineStr">
+        <is>
+          <t>-37.67880852911625,174.80874184268225</t>
+        </is>
+      </c>
+      <c r="M395" t="inlineStr">
+        <is>
+          <t>-37.678148684465995,174.80840746988403</t>
+        </is>
+      </c>
+      <c r="N395" t="inlineStr">
+        <is>
+          <t>-37.67745696640353,174.80817604309885</t>
+        </is>
+      </c>
+      <c r="O395" t="inlineStr">
+        <is>
+          <t>-37.67677688929717,174.80793109794766</t>
+        </is>
+      </c>
+      <c r="P395" t="inlineStr">
+        <is>
+          <t>-37.676145237732136,174.80753890366665</t>
+        </is>
+      </c>
+      <c r="Q395" t="inlineStr">
+        <is>
+          <t>-37.675487349492,174.80720847915626</t>
+        </is>
+      </c>
+      <c r="R395" t="inlineStr">
+        <is>
+          <t>-37.67478978767229,174.8070159104703</t>
+        </is>
+      </c>
+      <c r="S395" t="inlineStr">
+        <is>
+          <t>-37.67413584975428,174.80665004892543</t>
+        </is>
+      </c>
+      <c r="T395" t="inlineStr">
+        <is>
+          <t>-37.67346679113211,174.80632825137613</t>
+        </is>
+      </c>
+      <c r="U395" t="inlineStr">
+        <is>
+          <t>-37.67278020461696,174.80604010295198</t>
+        </is>
+      </c>
+      <c r="V395" t="inlineStr">
+        <is>
+          <t>-37.67215170107445,174.80559119704864</t>
+        </is>
+      </c>
+      <c r="W395" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="396">
+      <c r="A396" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-12 22:05:36+00:00</t>
+        </is>
+      </c>
+      <c r="B396" t="inlineStr">
+        <is>
+          <t>-37.685456367395766,174.81191834137894</t>
+        </is>
+      </c>
+      <c r="C396" t="inlineStr">
+        <is>
+          <t>-37.684727806626114,174.81180075326148</t>
+        </is>
+      </c>
+      <c r="D396" t="inlineStr">
+        <is>
+          <t>-37.68406845349716,174.81146508944826</t>
+        </is>
+      </c>
+      <c r="E396" t="inlineStr">
+        <is>
+          <t>-37.68348061584479,174.81090407935923</t>
+        </is>
+      </c>
+      <c r="F396" t="inlineStr"/>
+      <c r="G396" t="inlineStr">
+        <is>
+          <t>-37.682028045568295,174.8106544289926</t>
+        </is>
+      </c>
+      <c r="H396" t="inlineStr">
+        <is>
+          <t>-37.68137981508825,174.81028686562044</t>
+        </is>
+      </c>
+      <c r="I396" t="inlineStr"/>
+      <c r="J396" t="inlineStr">
+        <is>
+          <t>-37.67984926744408,174.8103116572983</t>
+        </is>
+      </c>
+      <c r="K396" t="inlineStr"/>
+      <c r="L396" t="inlineStr"/>
+      <c r="M396" t="inlineStr"/>
+      <c r="N396" t="inlineStr">
+        <is>
+          <t>-37.6773512717373,174.80851748103123</t>
+        </is>
+      </c>
+      <c r="O396" t="inlineStr">
+        <is>
+          <t>-37.676713712428125,174.8081460234116</t>
+        </is>
+      </c>
+      <c r="P396" t="inlineStr">
+        <is>
+          <t>-37.67612668903954,174.80760887840205</t>
+        </is>
+      </c>
+      <c r="Q396" t="inlineStr">
+        <is>
+          <t>-37.675476338678386,174.8072522126905</t>
+        </is>
+      </c>
+      <c r="R396" t="inlineStr">
+        <is>
+          <t>-37.67476062050894,174.80713175796362</t>
+        </is>
+      </c>
+      <c r="S396" t="inlineStr">
+        <is>
+          <t>-37.67410173323791,174.80678555472545</t>
+        </is>
+      </c>
+      <c r="T396" t="inlineStr">
+        <is>
+          <t>-37.673475411138604,174.80629648606592</t>
+        </is>
+      </c>
+      <c r="U396" t="inlineStr">
+        <is>
+          <t>-37.672790298963704,174.806010501343</t>
+        </is>
+      </c>
+      <c r="V396" t="inlineStr">
+        <is>
+          <t>-37.672057783195534,174.8058302098337</t>
+        </is>
+      </c>
+      <c r="W396" t="inlineStr">
         <is>
           <t>L8</t>
         </is>

--- a/data/nzd0216/nzd0216.xlsx
+++ b/data/nzd0216/nzd0216.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W396"/>
+  <dimension ref="A1:W397"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -23502,9 +23502,7 @@
         <v>327.89</v>
       </c>
       <c r="L394" t="inlineStr"/>
-      <c r="M394" t="n">
-        <v>326.0814285714285</v>
-      </c>
+      <c r="M394" t="inlineStr"/>
       <c r="N394" t="n">
         <v>288.37</v>
       </c>
@@ -23575,9 +23573,7 @@
       <c r="L395" t="n">
         <v>325.96</v>
       </c>
-      <c r="M395" t="n">
-        <v>327.7171428571428</v>
-      </c>
+      <c r="M395" t="inlineStr"/>
       <c r="N395" t="n">
         <v>319.7292307692308</v>
       </c>
@@ -23629,19 +23625,27 @@
       <c r="E396" t="n">
         <v>332.8911111111111</v>
       </c>
-      <c r="F396" t="inlineStr"/>
+      <c r="F396" t="n">
+        <v>292.87</v>
+      </c>
       <c r="G396" t="n">
         <v>295.2513043478261</v>
       </c>
       <c r="H396" t="n">
         <v>299.5269230769231</v>
       </c>
-      <c r="I396" t="inlineStr"/>
+      <c r="I396" t="n">
+        <v>234.9274603174604</v>
+      </c>
       <c r="J396" t="n">
         <v>237.1510810810811</v>
       </c>
-      <c r="K396" t="inlineStr"/>
-      <c r="L396" t="inlineStr"/>
+      <c r="K396" t="n">
+        <v>265.39</v>
+      </c>
+      <c r="L396" t="n">
+        <v>252.8133333333333</v>
+      </c>
       <c r="M396" t="inlineStr"/>
       <c r="N396" t="n">
         <v>287.4079487179487</v>
@@ -23671,6 +23675,75 @@
         <v>319.595</v>
       </c>
       <c r="W396" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="397">
+      <c r="A397" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-28 22:05:27+00:00</t>
+        </is>
+      </c>
+      <c r="B397" t="n">
+        <v>324.6733333333333</v>
+      </c>
+      <c r="C397" t="n">
+        <v>304.42</v>
+      </c>
+      <c r="D397" t="n">
+        <v>292.5951724137931</v>
+      </c>
+      <c r="E397" t="inlineStr"/>
+      <c r="F397" t="n">
+        <v>274.49</v>
+      </c>
+      <c r="G397" t="inlineStr"/>
+      <c r="H397" t="n">
+        <v>263.95</v>
+      </c>
+      <c r="I397" t="n">
+        <v>225.9701587301588</v>
+      </c>
+      <c r="J397" t="n">
+        <v>227.6051351351352</v>
+      </c>
+      <c r="K397" t="n">
+        <v>264.23</v>
+      </c>
+      <c r="L397" t="n">
+        <v>249.4966666666667</v>
+      </c>
+      <c r="M397" t="n">
+        <v>269.9471428571429</v>
+      </c>
+      <c r="N397" t="n">
+        <v>255.9866666666667</v>
+      </c>
+      <c r="O397" t="inlineStr"/>
+      <c r="P397" t="n">
+        <v>304.2066666666667</v>
+      </c>
+      <c r="Q397" t="n">
+        <v>318.8066666666667</v>
+      </c>
+      <c r="R397" t="n">
+        <v>315.2894736842105</v>
+      </c>
+      <c r="S397" t="n">
+        <v>320.4028571428571</v>
+      </c>
+      <c r="T397" t="n">
+        <v>335.3172727272727</v>
+      </c>
+      <c r="U397" t="n">
+        <v>333.8928571428571</v>
+      </c>
+      <c r="V397" t="n">
+        <v>314.625</v>
+      </c>
+      <c r="W397" t="inlineStr">
         <is>
           <t>L8</t>
         </is>
@@ -23687,7 +23760,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B435"/>
+  <dimension ref="A1:B436"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -28045,6 +28118,16 @@
       </c>
       <c r="B435" t="n">
         <v>-0.31</v>
+      </c>
+    </row>
+    <row r="436">
+      <c r="A436" t="inlineStr">
+        <is>
+          <t>2025-04-28 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B436" t="n">
+        <v>1.69</v>
       </c>
     </row>
   </sheetData>
@@ -28218,28 +28301,28 @@
         <v>0.036</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.3065701275493605</v>
+        <v>-0.3091547879756445</v>
       </c>
       <c r="J2" t="n">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="K2" t="n">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="L2" t="n">
-        <v>0.01055831912452754</v>
+        <v>0.01082446772060441</v>
       </c>
       <c r="M2" t="n">
-        <v>16.74251310186336</v>
+        <v>16.68489460258861</v>
       </c>
       <c r="N2" t="n">
-        <v>471.7993915172317</v>
+        <v>469.8080548115152</v>
       </c>
       <c r="O2" t="n">
-        <v>21.72094361479795</v>
+        <v>21.67505605094287</v>
       </c>
       <c r="P2" t="n">
-        <v>335.6614998856255</v>
+        <v>335.6875302484734</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -28296,28 +28379,28 @@
         <v>0.0728</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.3455962991236988</v>
+        <v>-0.3517207493295131</v>
       </c>
       <c r="J3" t="n">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="K3" t="n">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="L3" t="n">
-        <v>0.001905305718679307</v>
+        <v>0.001991069403891155</v>
       </c>
       <c r="M3" t="n">
-        <v>37.47560686580728</v>
+        <v>37.33209224043242</v>
       </c>
       <c r="N3" t="n">
-        <v>3064.980841310702</v>
+        <v>3049.858883037244</v>
       </c>
       <c r="O3" t="n">
-        <v>55.36226911273328</v>
+        <v>55.22552745820762</v>
       </c>
       <c r="P3" t="n">
-        <v>319.6695565713902</v>
+        <v>319.7365117383058</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -28374,28 +28457,28 @@
         <v>0.2</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.4500465134918495</v>
+        <v>-0.4487838758055267</v>
       </c>
       <c r="J4" t="n">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="K4" t="n">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="L4" t="n">
-        <v>0.001913338843826495</v>
+        <v>0.001919060287568164</v>
       </c>
       <c r="M4" t="n">
-        <v>56.90341163919687</v>
+        <v>56.62537108080569</v>
       </c>
       <c r="N4" t="n">
-        <v>5280.072988805947</v>
+        <v>5253.94325842354</v>
       </c>
       <c r="O4" t="n">
-        <v>72.66411073429542</v>
+        <v>72.48408969162502</v>
       </c>
       <c r="P4" t="n">
-        <v>302.7227656518912</v>
+        <v>302.7090431220994</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -28455,7 +28538,7 @@
         <v>-1.103801358228586</v>
       </c>
       <c r="J5" t="n">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="K5" t="n">
         <v>220</v>
@@ -28530,28 +28613,28 @@
         <v>0.2</v>
       </c>
       <c r="I6" t="n">
-        <v>0.3524826558066976</v>
+        <v>0.3341338614883476</v>
       </c>
       <c r="J6" t="n">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="K6" t="n">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="L6" t="n">
-        <v>0.001819175770459092</v>
+        <v>0.00166499266505149</v>
       </c>
       <c r="M6" t="n">
-        <v>48.12612272549343</v>
+        <v>47.78363076764015</v>
       </c>
       <c r="N6" t="n">
-        <v>3491.504442208554</v>
+        <v>3459.183811949878</v>
       </c>
       <c r="O6" t="n">
-        <v>59.08895363947947</v>
+        <v>58.81482646365522</v>
       </c>
       <c r="P6" t="n">
-        <v>284.515189699829</v>
+        <v>284.7069217594643</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -28611,7 +28694,7 @@
         <v>-0.1600743867690877</v>
       </c>
       <c r="J7" t="n">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="K7" t="n">
         <v>190</v>
@@ -28686,28 +28769,28 @@
         <v>0.2</v>
       </c>
       <c r="I8" t="n">
-        <v>0.2174506047283017</v>
+        <v>0.1890139914885957</v>
       </c>
       <c r="J8" t="n">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="K8" t="n">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="L8" t="n">
-        <v>0.002250073146810916</v>
+        <v>0.001707169791961172</v>
       </c>
       <c r="M8" t="n">
-        <v>25.00443820299088</v>
+        <v>25.02404456911613</v>
       </c>
       <c r="N8" t="n">
-        <v>1006.994352313525</v>
+        <v>1007.464673007506</v>
       </c>
       <c r="O8" t="n">
-        <v>31.73317431826707</v>
+        <v>31.74058400545752</v>
       </c>
       <c r="P8" t="n">
-        <v>292.0587870292844</v>
+        <v>292.3679489678432</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -28758,28 +28841,28 @@
       <c r="G9" t="inlineStr"/>
       <c r="H9" t="inlineStr"/>
       <c r="I9" t="n">
-        <v>0.09071033441665433</v>
+        <v>0.02554765911873929</v>
       </c>
       <c r="J9" t="n">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="K9" t="n">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="L9" t="n">
-        <v>0.00018789162584254</v>
+        <v>1.506308876564333e-05</v>
       </c>
       <c r="M9" t="n">
-        <v>41.28339380485892</v>
+        <v>41.2523519915443</v>
       </c>
       <c r="N9" t="n">
-        <v>2171.363949533202</v>
+        <v>2165.838025860368</v>
       </c>
       <c r="O9" t="n">
-        <v>46.59789640673925</v>
+        <v>46.5385649312521</v>
       </c>
       <c r="P9" t="n">
-        <v>267.3755003679211</v>
+        <v>268.0703476538498</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -28836,28 +28919,28 @@
         <v>0.2</v>
       </c>
       <c r="I10" t="n">
-        <v>-0.6126726241381255</v>
+        <v>-0.642640075421968</v>
       </c>
       <c r="J10" t="n">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="K10" t="n">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="L10" t="n">
-        <v>0.008483658231253188</v>
+        <v>0.009385140567961248</v>
       </c>
       <c r="M10" t="n">
-        <v>40.29403113833254</v>
+        <v>40.24774558930448</v>
       </c>
       <c r="N10" t="n">
-        <v>2156.378893958019</v>
+        <v>2151.888975248193</v>
       </c>
       <c r="O10" t="n">
-        <v>46.43682691526219</v>
+        <v>46.38845734930397</v>
       </c>
       <c r="P10" t="n">
-        <v>277.2770876023864</v>
+        <v>277.5980008591189</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -28914,28 +28997,28 @@
         <v>0.2</v>
       </c>
       <c r="I11" t="n">
-        <v>-0.1191336179378669</v>
+        <v>-0.1412402861794261</v>
       </c>
       <c r="J11" t="n">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="K11" t="n">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="L11" t="n">
-        <v>0.0008280186198634798</v>
+        <v>0.00118097427131536</v>
       </c>
       <c r="M11" t="n">
-        <v>23.59590243568752</v>
+        <v>23.50623274455083</v>
       </c>
       <c r="N11" t="n">
-        <v>804.5737033166915</v>
+        <v>799.7384205600595</v>
       </c>
       <c r="O11" t="n">
-        <v>28.36500843145814</v>
+        <v>28.27964675451339</v>
       </c>
       <c r="P11" t="n">
-        <v>281.3610368388035</v>
+        <v>281.5992480242865</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -28986,28 +29069,28 @@
       <c r="G12" t="inlineStr"/>
       <c r="H12" t="inlineStr"/>
       <c r="I12" t="n">
-        <v>-0.6004575500522153</v>
+        <v>-0.631430735201708</v>
       </c>
       <c r="J12" t="n">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="K12" t="n">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="L12" t="n">
-        <v>0.01241940376159711</v>
+        <v>0.01391047257154299</v>
       </c>
       <c r="M12" t="n">
-        <v>32.26557215961775</v>
+        <v>32.14777597938056</v>
       </c>
       <c r="N12" t="n">
-        <v>1386.023499564329</v>
+        <v>1377.920293720907</v>
       </c>
       <c r="O12" t="n">
-        <v>37.22933654477782</v>
+        <v>37.12034878231759</v>
       </c>
       <c r="P12" t="n">
-        <v>285.6492098069739</v>
+        <v>285.9800228271204</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
@@ -29064,28 +29147,28 @@
         <v>0.2</v>
       </c>
       <c r="I13" t="n">
-        <v>0.2504202760859002</v>
+        <v>0.1802759106959514</v>
       </c>
       <c r="J13" t="n">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="K13" t="n">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="L13" t="n">
-        <v>0.003058777302776372</v>
+        <v>0.001581910511798901</v>
       </c>
       <c r="M13" t="n">
-        <v>26.75000542166994</v>
+        <v>26.6981832257308</v>
       </c>
       <c r="N13" t="n">
-        <v>1007.802580655483</v>
+        <v>1007.849099456403</v>
       </c>
       <c r="O13" t="n">
-        <v>31.74590651809273</v>
+        <v>31.74663918364278</v>
       </c>
       <c r="P13" t="n">
-        <v>291.4971414234643</v>
+        <v>292.2427636723451</v>
       </c>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr">
@@ -29142,28 +29225,28 @@
         <v>0.2</v>
       </c>
       <c r="I14" t="n">
-        <v>0.4431316212156594</v>
+        <v>0.4111023772622994</v>
       </c>
       <c r="J14" t="n">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="K14" t="n">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="L14" t="n">
-        <v>0.01225208919644549</v>
+        <v>0.01060442351008339</v>
       </c>
       <c r="M14" t="n">
-        <v>22.33205687860026</v>
+        <v>22.34560508475091</v>
       </c>
       <c r="N14" t="n">
-        <v>824.1084875516246</v>
+        <v>825.4387064811044</v>
       </c>
       <c r="O14" t="n">
-        <v>28.70728979809179</v>
+        <v>28.73044911728852</v>
       </c>
       <c r="P14" t="n">
-        <v>278.1884857713671</v>
+        <v>278.5085988412932</v>
       </c>
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr">
@@ -29223,7 +29306,7 @@
         <v>-0.03003489391420418</v>
       </c>
       <c r="J15" t="n">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="K15" t="n">
         <v>227</v>
@@ -29298,28 +29381,28 @@
         <v>0.0726</v>
       </c>
       <c r="I16" t="n">
-        <v>0.0308670769613028</v>
+        <v>0.02700040305870783</v>
       </c>
       <c r="J16" t="n">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="K16" t="n">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="L16" t="n">
-        <v>8.675383262890524e-05</v>
+        <v>6.686274103662182e-05</v>
       </c>
       <c r="M16" t="n">
-        <v>17.1427375785514</v>
+        <v>17.09725817811641</v>
       </c>
       <c r="N16" t="n">
-        <v>541.0546211821944</v>
+        <v>539.096799118881</v>
       </c>
       <c r="O16" t="n">
-        <v>23.26058084361167</v>
+        <v>23.2184581555038</v>
       </c>
       <c r="P16" t="n">
-        <v>308.5599031823225</v>
+        <v>308.6013742809269</v>
       </c>
       <c r="Q16" t="inlineStr"/>
       <c r="R16" t="inlineStr">
@@ -29376,28 +29459,28 @@
         <v>0.0707</v>
       </c>
       <c r="I17" t="n">
-        <v>-0.02265023915969874</v>
+        <v>-0.02445030207977982</v>
       </c>
       <c r="J17" t="n">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="K17" t="n">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="L17" t="n">
-        <v>8.016620610507008e-05</v>
+        <v>9.410316397995278e-05</v>
       </c>
       <c r="M17" t="n">
-        <v>13.10951220969956</v>
+        <v>13.0698534953944</v>
       </c>
       <c r="N17" t="n">
-        <v>311.3284873002786</v>
+        <v>310.2257835544724</v>
       </c>
       <c r="O17" t="n">
-        <v>17.64450303353083</v>
+        <v>17.61322751668394</v>
       </c>
       <c r="P17" t="n">
-        <v>321.8238251057809</v>
+        <v>321.8430556456679</v>
       </c>
       <c r="Q17" t="inlineStr"/>
       <c r="R17" t="inlineStr">
@@ -29454,28 +29537,28 @@
         <v>0.1168</v>
       </c>
       <c r="I18" t="n">
-        <v>-0.06183947212624781</v>
+        <v>-0.06646669413836248</v>
       </c>
       <c r="J18" t="n">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="K18" t="n">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="L18" t="n">
-        <v>0.0004911676358112516</v>
+        <v>0.0005711242330649346</v>
       </c>
       <c r="M18" t="n">
-        <v>15.55235845418886</v>
+        <v>15.51601188068903</v>
       </c>
       <c r="N18" t="n">
-        <v>395.9795260888762</v>
+        <v>394.7559252874501</v>
       </c>
       <c r="O18" t="n">
-        <v>19.89923430911039</v>
+        <v>19.86846559972486</v>
       </c>
       <c r="P18" t="n">
-        <v>323.5989919758061</v>
+        <v>323.6471893503766</v>
       </c>
       <c r="Q18" t="inlineStr"/>
       <c r="R18" t="inlineStr">
@@ -29532,28 +29615,28 @@
         <v>0.0864</v>
       </c>
       <c r="I19" t="n">
-        <v>0.1386678699223189</v>
+        <v>0.1293869758473828</v>
       </c>
       <c r="J19" t="n">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="K19" t="n">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="L19" t="n">
-        <v>0.001986389113171283</v>
+        <v>0.00173979563730664</v>
       </c>
       <c r="M19" t="n">
-        <v>17.36138588482356</v>
+        <v>17.34216447312772</v>
       </c>
       <c r="N19" t="n">
-        <v>471.1869834683089</v>
+        <v>470.1603971909545</v>
       </c>
       <c r="O19" t="n">
-        <v>21.70684185846271</v>
+        <v>21.68318235847669</v>
       </c>
       <c r="P19" t="n">
-        <v>330.098671956573</v>
+        <v>330.1978985608767</v>
       </c>
       <c r="Q19" t="inlineStr"/>
       <c r="R19" t="inlineStr">
@@ -29610,28 +29693,28 @@
         <v>0.0648</v>
       </c>
       <c r="I20" t="n">
-        <v>0.08232697967484341</v>
+        <v>0.07709688196337493</v>
       </c>
       <c r="J20" t="n">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="K20" t="n">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="L20" t="n">
-        <v>0.0008015183991956221</v>
+        <v>0.0007075267212737213</v>
       </c>
       <c r="M20" t="n">
-        <v>15.70224859521109</v>
+        <v>15.67358102410043</v>
       </c>
       <c r="N20" t="n">
-        <v>411.6929055715163</v>
+        <v>410.4994887227706</v>
       </c>
       <c r="O20" t="n">
-        <v>20.29021699173068</v>
+        <v>20.26078697195078</v>
       </c>
       <c r="P20" t="n">
-        <v>340.8182157410436</v>
+        <v>340.8740593867661</v>
       </c>
       <c r="Q20" t="inlineStr"/>
       <c r="R20" t="inlineStr">
@@ -29688,28 +29771,28 @@
         <v>0.08169999999999999</v>
       </c>
       <c r="I21" t="n">
-        <v>-0.1843988137933189</v>
+        <v>-0.1893539858097597</v>
       </c>
       <c r="J21" t="n">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="K21" t="n">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="L21" t="n">
-        <v>0.004019828032926887</v>
+        <v>0.004266904888162948</v>
       </c>
       <c r="M21" t="n">
-        <v>14.87813859436728</v>
+        <v>14.84503900306028</v>
       </c>
       <c r="N21" t="n">
-        <v>395.7583279984982</v>
+        <v>394.4567066663914</v>
       </c>
       <c r="O21" t="n">
-        <v>19.89367557789405</v>
+        <v>19.8609341841312</v>
       </c>
       <c r="P21" t="n">
-        <v>345.201129215483</v>
+        <v>345.25588469044</v>
       </c>
       <c r="Q21" t="inlineStr"/>
       <c r="R21" t="inlineStr">
@@ -29766,28 +29849,28 @@
         <v>0.1058</v>
       </c>
       <c r="I22" t="n">
-        <v>-0.7158951163211312</v>
+        <v>-0.7217101201840813</v>
       </c>
       <c r="J22" t="n">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="K22" t="n">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="L22" t="n">
-        <v>0.01816766707992046</v>
+        <v>0.01860282864723062</v>
       </c>
       <c r="M22" t="n">
-        <v>20.7684479132138</v>
+        <v>20.71514070263535</v>
       </c>
       <c r="N22" t="n">
-        <v>1268.714893592086</v>
+        <v>1263.461286998971</v>
       </c>
       <c r="O22" t="n">
-        <v>35.61902432116981</v>
+        <v>35.54520061835311</v>
       </c>
       <c r="P22" t="n">
-        <v>339.6453521176603</v>
+        <v>339.711243458368</v>
       </c>
       <c r="Q22" t="inlineStr"/>
       <c r="R22" t="inlineStr">
@@ -29825,7 +29908,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W396"/>
+  <dimension ref="A1:W397"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -62895,11 +62978,7 @@
         </is>
       </c>
       <c r="L394" t="inlineStr"/>
-      <c r="M394" t="inlineStr">
-        <is>
-          <t>-37.67814333547695,174.80842474953548</t>
-        </is>
-      </c>
+      <c r="M394" t="inlineStr"/>
       <c r="N394" t="inlineStr">
         <is>
           <t>-37.677354417780194,174.80850731805776</t>
@@ -63008,11 +63087,7 @@
           <t>-37.67880852911625,174.80874184268225</t>
         </is>
       </c>
-      <c r="M395" t="inlineStr">
-        <is>
-          <t>-37.678148684465995,174.80840746988403</t>
-        </is>
-      </c>
+      <c r="M395" t="inlineStr"/>
       <c r="N395" t="inlineStr">
         <is>
           <t>-37.67745696640353,174.80817604309885</t>
@@ -63090,7 +63165,11 @@
           <t>-37.68348061584479,174.81090407935923</t>
         </is>
       </c>
-      <c r="F396" t="inlineStr"/>
+      <c r="F396" t="inlineStr">
+        <is>
+          <t>-37.68268348355185,174.81100248453205</t>
+        </is>
+      </c>
       <c r="G396" t="inlineStr">
         <is>
           <t>-37.682028045568295,174.8106544289926</t>
@@ -63101,14 +63180,26 @@
           <t>-37.68137981508825,174.81028686562044</t>
         </is>
       </c>
-      <c r="I396" t="inlineStr"/>
+      <c r="I396" t="inlineStr">
+        <is>
+          <t>-37.68050500601431,174.81064971461555</t>
+        </is>
+      </c>
       <c r="J396" t="inlineStr">
         <is>
           <t>-37.67984926744408,174.8103116572983</t>
         </is>
       </c>
-      <c r="K396" t="inlineStr"/>
-      <c r="L396" t="inlineStr"/>
+      <c r="K396" t="inlineStr">
+        <is>
+          <t>-37.679276038291285,174.80969752153467</t>
+        </is>
+      </c>
+      <c r="L396" t="inlineStr">
+        <is>
+          <t>-37.67856932643655,174.80951456598703</t>
+        </is>
+      </c>
       <c r="M396" t="inlineStr"/>
       <c r="N396" t="inlineStr">
         <is>
@@ -63156,6 +63247,111 @@
         </is>
       </c>
       <c r="W396" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="397">
+      <c r="A397" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-28 22:05:27+00:00</t>
+        </is>
+      </c>
+      <c r="B397" t="inlineStr">
+        <is>
+          <t>-37.68544328963995,174.81195954644704</t>
+        </is>
+      </c>
+      <c r="C397" t="inlineStr">
+        <is>
+          <t>-37.68471223363447,174.81184981981121</t>
+        </is>
+      </c>
+      <c r="D397" t="inlineStr">
+        <is>
+          <t>-37.68400933885714,174.8116513440032</t>
+        </is>
+      </c>
+      <c r="E397" t="inlineStr"/>
+      <c r="F397" t="inlineStr">
+        <is>
+          <t>-37.68262206118679,174.8111960081679</t>
+        </is>
+      </c>
+      <c r="G397" t="inlineStr"/>
+      <c r="H397" t="inlineStr">
+        <is>
+          <t>-37.681261459387855,174.8106617179781</t>
+        </is>
+      </c>
+      <c r="I397" t="inlineStr">
+        <is>
+          <t>-37.680475527208664,174.81074425011766</t>
+        </is>
+      </c>
+      <c r="J397" t="inlineStr">
+        <is>
+          <t>-37.67981804961211,174.81041250198746</t>
+        </is>
+      </c>
+      <c r="K397" t="inlineStr">
+        <is>
+          <t>-37.67927224483449,174.8097097758742</t>
+        </is>
+      </c>
+      <c r="L397" t="inlineStr">
+        <is>
+          <t>-37.67855848022625,174.80954960321884</t>
+        </is>
+      </c>
+      <c r="M397" t="inlineStr">
+        <is>
+          <t>-37.67795976788591,174.80901774939588</t>
+        </is>
+      </c>
+      <c r="N397" t="inlineStr">
+        <is>
+          <t>-37.67724851925858,174.80884941051545</t>
+        </is>
+      </c>
+      <c r="O397" t="inlineStr"/>
+      <c r="P397" t="inlineStr">
+        <is>
+          <t>-37.67608986710348,174.8077477881815</t>
+        </is>
+      </c>
+      <c r="Q397" t="inlineStr">
+        <is>
+          <t>-37.67545623982107,174.80733204256663</t>
+        </is>
+      </c>
+      <c r="R397" t="inlineStr">
+        <is>
+          <t>-37.67476628009588,174.80710927899557</t>
+        </is>
+      </c>
+      <c r="S397" t="inlineStr">
+        <is>
+          <t>-37.674099797489326,174.8067932432129</t>
+        </is>
+      </c>
+      <c r="T397" t="inlineStr">
+        <is>
+          <t>-37.67345558272918,174.8063695550456</t>
+        </is>
+      </c>
+      <c r="U397" t="inlineStr">
+        <is>
+          <t>-37.67276681145293,174.80607937827665</t>
+        </is>
+      </c>
+      <c r="V397" t="inlineStr">
+        <is>
+          <t>-37.67203793739304,174.8058807154324</t>
+        </is>
+      </c>
+      <c r="W397" t="inlineStr">
         <is>
           <t>L8</t>
         </is>

--- a/data/nzd0216/nzd0216.xlsx
+++ b/data/nzd0216/nzd0216.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Intersects" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Tides" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transects" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Intersect points" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Intersects" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Tides" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Transects" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Intersect points" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W397"/>
+  <dimension ref="A1:W398"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -23695,11 +23695,15 @@
       <c r="D397" t="n">
         <v>292.5951724137931</v>
       </c>
-      <c r="E397" t="inlineStr"/>
+      <c r="E397" t="n">
+        <v>206.9155555555556</v>
+      </c>
       <c r="F397" t="n">
         <v>274.49</v>
       </c>
-      <c r="G397" t="inlineStr"/>
+      <c r="G397" t="n">
+        <v>241.665652173913</v>
+      </c>
       <c r="H397" t="n">
         <v>263.95</v>
       </c>
@@ -23746,6 +23750,67 @@
       <c r="W397" t="inlineStr">
         <is>
           <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="398">
+      <c r="A398" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-07 22:05:29+00:00</t>
+        </is>
+      </c>
+      <c r="B398" t="n">
+        <v>287.1833333333333</v>
+      </c>
+      <c r="C398" t="inlineStr"/>
+      <c r="D398" t="inlineStr"/>
+      <c r="E398" t="n">
+        <v>170.7388888888889</v>
+      </c>
+      <c r="F398" t="inlineStr"/>
+      <c r="G398" t="n">
+        <v>221.0004347826087</v>
+      </c>
+      <c r="H398" t="inlineStr"/>
+      <c r="I398" t="n">
+        <v>209.7453968253968</v>
+      </c>
+      <c r="J398" t="n">
+        <v>211.1027027027027</v>
+      </c>
+      <c r="K398" t="n">
+        <v>249.25</v>
+      </c>
+      <c r="L398" t="n">
+        <v>236.5266666666667</v>
+      </c>
+      <c r="M398" t="inlineStr"/>
+      <c r="N398" t="inlineStr"/>
+      <c r="O398" t="n">
+        <v>330.8133333333333</v>
+      </c>
+      <c r="P398" t="n">
+        <v>336.2166666666667</v>
+      </c>
+      <c r="Q398" t="n">
+        <v>339.8766666666667</v>
+      </c>
+      <c r="R398" t="n">
+        <v>346.4684210526316</v>
+      </c>
+      <c r="S398" t="n">
+        <v>346.3771428571428</v>
+      </c>
+      <c r="T398" t="n">
+        <v>357.7136363636364</v>
+      </c>
+      <c r="U398" t="n">
+        <v>329.2471428571428</v>
+      </c>
+      <c r="V398" t="inlineStr"/>
+      <c r="W398" t="inlineStr">
+        <is>
+          <t>L9</t>
         </is>
       </c>
     </row>
@@ -23760,7 +23825,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B436"/>
+  <dimension ref="A1:B437"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -28128,6 +28193,16 @@
       </c>
       <c r="B436" t="n">
         <v>1.69</v>
+      </c>
+    </row>
+    <row r="437">
+      <c r="A437" t="inlineStr">
+        <is>
+          <t>2025-06-07 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B437" t="n">
+        <v>0.13</v>
       </c>
     </row>
   </sheetData>
@@ -28301,28 +28376,28 @@
         <v>0.036</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.3091547879756445</v>
+        <v>-0.3423487512718577</v>
       </c>
       <c r="J2" t="n">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="K2" t="n">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="L2" t="n">
-        <v>0.01082446772060441</v>
+        <v>0.01315922168279837</v>
       </c>
       <c r="M2" t="n">
-        <v>16.68489460258861</v>
+        <v>16.80040736739389</v>
       </c>
       <c r="N2" t="n">
-        <v>469.8080548115152</v>
+        <v>474.7652955988004</v>
       </c>
       <c r="O2" t="n">
-        <v>21.67505605094287</v>
+        <v>21.78910956415613</v>
       </c>
       <c r="P2" t="n">
-        <v>335.6875302484734</v>
+        <v>336.0236774400373</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -28382,7 +28457,7 @@
         <v>-0.3517207493295131</v>
       </c>
       <c r="J3" t="n">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="K3" t="n">
         <v>200</v>
@@ -28460,7 +28535,7 @@
         <v>-0.4487838758055267</v>
       </c>
       <c r="J4" t="n">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="K4" t="n">
         <v>202</v>
@@ -28535,28 +28610,28 @@
         <v>0.07770000000000001</v>
       </c>
       <c r="I5" t="n">
-        <v>-1.103801358228586</v>
+        <v>-1.267351346534797</v>
       </c>
       <c r="J5" t="n">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="K5" t="n">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="L5" t="n">
-        <v>0.01261663214086384</v>
+        <v>0.01655635204247985</v>
       </c>
       <c r="M5" t="n">
-        <v>57.00127812349269</v>
+        <v>57.6768642780362</v>
       </c>
       <c r="N5" t="n">
-        <v>4757.339129672558</v>
+        <v>4796.89056387113</v>
       </c>
       <c r="O5" t="n">
-        <v>68.97346685264239</v>
+        <v>69.25958824503023</v>
       </c>
       <c r="P5" t="n">
-        <v>312.2507462869691</v>
+        <v>314.0157145979939</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -28616,7 +28691,7 @@
         <v>0.3341338614883476</v>
       </c>
       <c r="J6" t="n">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="K6" t="n">
         <v>205</v>
@@ -28691,28 +28766,28 @@
         <v>0.2</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.1600743867690877</v>
+        <v>-0.2909569038391093</v>
       </c>
       <c r="J7" t="n">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="K7" t="n">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="L7" t="n">
-        <v>0.000646098240551729</v>
+        <v>0.002131030077252682</v>
       </c>
       <c r="M7" t="n">
-        <v>34.80712671399707</v>
+        <v>35.24592671426198</v>
       </c>
       <c r="N7" t="n">
-        <v>1871.663215972394</v>
+        <v>1891.766351754902</v>
       </c>
       <c r="O7" t="n">
-        <v>43.26272316870951</v>
+        <v>43.49444046950026</v>
       </c>
       <c r="P7" t="n">
-        <v>297.1843816402935</v>
+        <v>298.6240234580188</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -28772,7 +28847,7 @@
         <v>0.1890139914885957</v>
       </c>
       <c r="J8" t="n">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="K8" t="n">
         <v>239</v>
@@ -28841,28 +28916,28 @@
       <c r="G9" t="inlineStr"/>
       <c r="H9" t="inlineStr"/>
       <c r="I9" t="n">
-        <v>0.02554765911873929</v>
+        <v>-0.02345197030827302</v>
       </c>
       <c r="J9" t="n">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="K9" t="n">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="L9" t="n">
-        <v>1.506308876564333e-05</v>
+        <v>1.271246577649876e-05</v>
       </c>
       <c r="M9" t="n">
-        <v>41.2523519915443</v>
+        <v>41.31400273570332</v>
       </c>
       <c r="N9" t="n">
-        <v>2165.838025860368</v>
+        <v>2171.218175088452</v>
       </c>
       <c r="O9" t="n">
-        <v>46.5385649312521</v>
+        <v>46.59633220639208</v>
       </c>
       <c r="P9" t="n">
-        <v>268.0703476538498</v>
+        <v>268.5961204955564</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -28919,28 +28994,28 @@
         <v>0.2</v>
       </c>
       <c r="I10" t="n">
-        <v>-0.642640075421968</v>
+        <v>-0.686600543858589</v>
       </c>
       <c r="J10" t="n">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="K10" t="n">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="L10" t="n">
-        <v>0.009385140567961248</v>
+        <v>0.01073826870721573</v>
       </c>
       <c r="M10" t="n">
-        <v>40.24774558930448</v>
+        <v>40.26079240100968</v>
       </c>
       <c r="N10" t="n">
-        <v>2151.888975248193</v>
+        <v>2153.277588108177</v>
       </c>
       <c r="O10" t="n">
-        <v>46.38845734930397</v>
+        <v>46.40342215945045</v>
       </c>
       <c r="P10" t="n">
-        <v>277.5980008591189</v>
+        <v>278.0711939459518</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -28997,28 +29072,28 @@
         <v>0.2</v>
       </c>
       <c r="I11" t="n">
-        <v>-0.1412402861794261</v>
+        <v>-0.1647594386417494</v>
       </c>
       <c r="J11" t="n">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="K11" t="n">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="L11" t="n">
-        <v>0.00118097427131536</v>
+        <v>0.001613481634278435</v>
       </c>
       <c r="M11" t="n">
-        <v>23.50623274455083</v>
+        <v>23.51258263115438</v>
       </c>
       <c r="N11" t="n">
-        <v>799.7384205600595</v>
+        <v>799.7972106012788</v>
       </c>
       <c r="O11" t="n">
-        <v>28.27964675451339</v>
+        <v>28.28068617628078</v>
       </c>
       <c r="P11" t="n">
-        <v>281.5992480242865</v>
+        <v>281.854102494285</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -29069,28 +29144,28 @@
       <c r="G12" t="inlineStr"/>
       <c r="H12" t="inlineStr"/>
       <c r="I12" t="n">
-        <v>-0.631430735201708</v>
+        <v>-0.6583228929380152</v>
       </c>
       <c r="J12" t="n">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="K12" t="n">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="L12" t="n">
-        <v>0.01391047257154299</v>
+        <v>0.01517799216341875</v>
       </c>
       <c r="M12" t="n">
-        <v>32.14777597938056</v>
+        <v>32.14034937479649</v>
       </c>
       <c r="N12" t="n">
-        <v>1377.920293720907</v>
+        <v>1376.794033677868</v>
       </c>
       <c r="O12" t="n">
-        <v>37.12034878231759</v>
+        <v>37.10517529506993</v>
       </c>
       <c r="P12" t="n">
-        <v>285.9800228271204</v>
+        <v>286.2689345462352</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
@@ -29150,7 +29225,7 @@
         <v>0.1802759106959514</v>
       </c>
       <c r="J13" t="n">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="K13" t="n">
         <v>245</v>
@@ -29228,7 +29303,7 @@
         <v>0.4111023772622994</v>
       </c>
       <c r="J14" t="n">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="K14" t="n">
         <v>213</v>
@@ -29303,28 +29378,28 @@
         <v>0.1895</v>
       </c>
       <c r="I15" t="n">
-        <v>-0.03003489391420418</v>
+        <v>0.01648187948868847</v>
       </c>
       <c r="J15" t="n">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="K15" t="n">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="L15" t="n">
-        <v>4.340846495798356e-05</v>
+        <v>1.303825423426552e-05</v>
       </c>
       <c r="M15" t="n">
-        <v>25.47666737834018</v>
+        <v>25.60657568496723</v>
       </c>
       <c r="N15" t="n">
-        <v>1067.572593844022</v>
+        <v>1075.270530940395</v>
       </c>
       <c r="O15" t="n">
-        <v>32.67372941437849</v>
+        <v>32.79131792015068</v>
       </c>
       <c r="P15" t="n">
-        <v>278.0987197055019</v>
+        <v>277.6152592756685</v>
       </c>
       <c r="Q15" t="inlineStr"/>
       <c r="R15" t="inlineStr">
@@ -29381,28 +29456,28 @@
         <v>0.0726</v>
       </c>
       <c r="I16" t="n">
-        <v>0.02700040305870783</v>
+        <v>0.04724202223683623</v>
       </c>
       <c r="J16" t="n">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="K16" t="n">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="L16" t="n">
-        <v>6.686274103662182e-05</v>
+        <v>0.000205159505683894</v>
       </c>
       <c r="M16" t="n">
-        <v>17.09725817811641</v>
+        <v>17.13254593437223</v>
       </c>
       <c r="N16" t="n">
-        <v>539.096799118881</v>
+        <v>539.769503100556</v>
       </c>
       <c r="O16" t="n">
-        <v>23.2184581555038</v>
+        <v>23.23294004426809</v>
       </c>
       <c r="P16" t="n">
-        <v>308.6013742809269</v>
+        <v>308.3831439883031</v>
       </c>
       <c r="Q16" t="inlineStr"/>
       <c r="R16" t="inlineStr">
@@ -29459,28 +29534,28 @@
         <v>0.0707</v>
       </c>
       <c r="I17" t="n">
-        <v>-0.02445030207977982</v>
+        <v>-0.01067565422095483</v>
       </c>
       <c r="J17" t="n">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="K17" t="n">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="L17" t="n">
-        <v>9.410316397995278e-05</v>
+        <v>1.800402496954234e-05</v>
       </c>
       <c r="M17" t="n">
-        <v>13.0698534953944</v>
+        <v>13.09864232619337</v>
       </c>
       <c r="N17" t="n">
-        <v>310.2257835544724</v>
+        <v>310.3487252660525</v>
       </c>
       <c r="O17" t="n">
-        <v>17.61322751668394</v>
+        <v>17.6167172102538</v>
       </c>
       <c r="P17" t="n">
-        <v>321.8430556456679</v>
+        <v>321.6951669279289</v>
       </c>
       <c r="Q17" t="inlineStr"/>
       <c r="R17" t="inlineStr">
@@ -29537,28 +29612,28 @@
         <v>0.1168</v>
       </c>
       <c r="I18" t="n">
-        <v>-0.06646669413836248</v>
+        <v>-0.04959494681054664</v>
       </c>
       <c r="J18" t="n">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="K18" t="n">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="L18" t="n">
-        <v>0.0005711242330649346</v>
+        <v>0.0003186287794464393</v>
       </c>
       <c r="M18" t="n">
-        <v>15.51601188068903</v>
+        <v>15.56691122055425</v>
       </c>
       <c r="N18" t="n">
-        <v>394.7559252874501</v>
+        <v>395.4522772863956</v>
       </c>
       <c r="O18" t="n">
-        <v>19.86846559972486</v>
+        <v>19.88598192914787</v>
       </c>
       <c r="P18" t="n">
-        <v>323.6471893503766</v>
+        <v>323.4705333904706</v>
       </c>
       <c r="Q18" t="inlineStr"/>
       <c r="R18" t="inlineStr">
@@ -29615,28 +29690,28 @@
         <v>0.0864</v>
       </c>
       <c r="I19" t="n">
-        <v>0.1293869758473828</v>
+        <v>0.1384036716127038</v>
       </c>
       <c r="J19" t="n">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="K19" t="n">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="L19" t="n">
-        <v>0.00173979563730664</v>
+        <v>0.002001944011196022</v>
       </c>
       <c r="M19" t="n">
-        <v>17.34216447312772</v>
+        <v>17.33108432663148</v>
       </c>
       <c r="N19" t="n">
-        <v>470.1603971909545</v>
+        <v>469.1069059847957</v>
       </c>
       <c r="O19" t="n">
-        <v>21.68318235847669</v>
+        <v>21.65887591692597</v>
       </c>
       <c r="P19" t="n">
-        <v>330.1978985608767</v>
+        <v>330.1010137273788</v>
       </c>
       <c r="Q19" t="inlineStr"/>
       <c r="R19" t="inlineStr">
@@ -29693,28 +29768,28 @@
         <v>0.0648</v>
       </c>
       <c r="I20" t="n">
-        <v>0.07709688196337493</v>
+        <v>0.08732221093054442</v>
       </c>
       <c r="J20" t="n">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="K20" t="n">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="L20" t="n">
-        <v>0.0007075267212737213</v>
+        <v>0.000912177987138385</v>
       </c>
       <c r="M20" t="n">
-        <v>15.67358102410043</v>
+        <v>15.67322261612791</v>
       </c>
       <c r="N20" t="n">
-        <v>410.4994887227706</v>
+        <v>409.8554103381888</v>
       </c>
       <c r="O20" t="n">
-        <v>20.26078697195078</v>
+        <v>20.24488602927141</v>
       </c>
       <c r="P20" t="n">
-        <v>340.8740593867661</v>
+        <v>340.7643368266977</v>
       </c>
       <c r="Q20" t="inlineStr"/>
       <c r="R20" t="inlineStr">
@@ -29771,28 +29846,28 @@
         <v>0.08169999999999999</v>
       </c>
       <c r="I21" t="n">
-        <v>-0.1893539858097597</v>
+        <v>-0.1977329804304754</v>
       </c>
       <c r="J21" t="n">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="K21" t="n">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="L21" t="n">
-        <v>0.004266904888162948</v>
+        <v>0.004679763027383155</v>
       </c>
       <c r="M21" t="n">
-        <v>14.84503900306028</v>
+        <v>14.82684202116384</v>
       </c>
       <c r="N21" t="n">
-        <v>394.4567066663914</v>
+        <v>393.4584012260901</v>
       </c>
       <c r="O21" t="n">
-        <v>19.8609341841312</v>
+        <v>19.83578587367009</v>
       </c>
       <c r="P21" t="n">
-        <v>345.25588469044</v>
+        <v>345.3489381469483</v>
       </c>
       <c r="Q21" t="inlineStr"/>
       <c r="R21" t="inlineStr">
@@ -29852,7 +29927,7 @@
         <v>-0.7217101201840813</v>
       </c>
       <c r="J22" t="n">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="K22" t="n">
         <v>233</v>
@@ -29908,7 +29983,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W397"/>
+  <dimension ref="A1:W398"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -33742,7 +33817,7 @@
       </c>
       <c r="T41" t="inlineStr">
         <is>
-          <t>-37.67345412709139,174.80637491915755</t>
+          <t>-37.6734541270914,174.80637491915755</t>
         </is>
       </c>
       <c r="U41" t="inlineStr">
@@ -37923,7 +37998,7 @@
       </c>
       <c r="P90" t="inlineStr">
         <is>
-          <t>-37.67616136327864,174.80747807006844</t>
+          <t>-37.676161363278645,174.80747807006844</t>
         </is>
       </c>
       <c r="Q90" t="inlineStr"/>
@@ -49041,7 +49116,7 @@
       <c r="S224" t="inlineStr"/>
       <c r="T224" t="inlineStr">
         <is>
-          <t>-37.67358509648255,174.805892284747</t>
+          <t>-37.67358509648254,174.805892284747</t>
         </is>
       </c>
       <c r="U224" t="inlineStr">
@@ -63273,13 +63348,21 @@
           <t>-37.68400933885714,174.8116513440032</t>
         </is>
       </c>
-      <c r="E397" t="inlineStr"/>
+      <c r="E397" t="inlineStr">
+        <is>
+          <t>-37.68305962604526,174.8122304888571</t>
+        </is>
+      </c>
       <c r="F397" t="inlineStr">
         <is>
           <t>-37.68262206118679,174.8111960081679</t>
         </is>
       </c>
-      <c r="G397" t="inlineStr"/>
+      <c r="G397" t="inlineStr">
+        <is>
+          <t>-37.68184897313082,174.8112186289204</t>
+        </is>
+      </c>
       <c r="H397" t="inlineStr">
         <is>
           <t>-37.681261459387855,174.8106617179781</t>
@@ -63354,6 +63437,95 @@
       <c r="W397" t="inlineStr">
         <is>
           <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="398">
+      <c r="A398" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-07 22:05:29+00:00</t>
+        </is>
+      </c>
+      <c r="B398" t="inlineStr">
+        <is>
+          <t>-37.685318003135606,174.81235429304857</t>
+        </is>
+      </c>
+      <c r="C398" t="inlineStr"/>
+      <c r="D398" t="inlineStr"/>
+      <c r="E398" t="inlineStr">
+        <is>
+          <t>-37.682938726821824,174.81261139380968</t>
+        </is>
+      </c>
+      <c r="F398" t="inlineStr"/>
+      <c r="G398" t="inlineStr">
+        <is>
+          <t>-37.68177991343969,174.8114362109316</t>
+        </is>
+      </c>
+      <c r="H398" t="inlineStr"/>
+      <c r="I398" t="inlineStr">
+        <is>
+          <t>-37.680422130738044,174.81091548631318</t>
+        </is>
+      </c>
+      <c r="J398" t="inlineStr">
+        <is>
+          <t>-37.679764081984096,174.81058683575247</t>
+        </is>
+      </c>
+      <c r="K398" t="inlineStr">
+        <is>
+          <t>-37.67922325680663,174.8098680257637</t>
+        </is>
+      </c>
+      <c r="L398" t="inlineStr">
+        <is>
+          <t>-37.678516065450886,174.80968661806105</t>
+        </is>
+      </c>
+      <c r="M398" t="inlineStr"/>
+      <c r="N398" t="inlineStr"/>
+      <c r="O398" t="inlineStr">
+        <is>
+          <t>-37.676831595738854,174.80774498721783</t>
+        </is>
+      </c>
+      <c r="P398" t="inlineStr">
+        <is>
+          <t>-37.67618111869411,174.80740354259981</t>
+        </is>
+      </c>
+      <c r="Q398" t="inlineStr">
+        <is>
+          <t>-37.67551357040171,174.8071043327693</t>
+        </is>
+      </c>
+      <c r="R398" t="inlineStr">
+        <is>
+          <t>-37.67485111611303,174.8067723215663</t>
+        </is>
+      </c>
+      <c r="S398" t="inlineStr">
+        <is>
+          <t>-37.67417047142916,174.8065125359567</t>
+        </is>
+      </c>
+      <c r="T398" t="inlineStr">
+        <is>
+          <t>-37.673520784470306,174.8061292816171</t>
+        </is>
+      </c>
+      <c r="U398" t="inlineStr">
+        <is>
+          <t>-37.67275030724084,174.80612777664837</t>
+        </is>
+      </c>
+      <c r="V398" t="inlineStr"/>
+      <c r="W398" t="inlineStr">
+        <is>
+          <t>L9</t>
         </is>
       </c>
     </row>

--- a/data/nzd0216/nzd0216.xlsx
+++ b/data/nzd0216/nzd0216.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W398"/>
+  <dimension ref="A1:W399"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -23643,9 +23643,7 @@
       <c r="K396" t="n">
         <v>265.39</v>
       </c>
-      <c r="L396" t="n">
-        <v>252.8133333333333</v>
-      </c>
+      <c r="L396" t="inlineStr"/>
       <c r="M396" t="inlineStr"/>
       <c r="N396" t="n">
         <v>287.4079487179487</v>
@@ -23716,9 +23714,7 @@
       <c r="K397" t="n">
         <v>264.23</v>
       </c>
-      <c r="L397" t="n">
-        <v>249.4966666666667</v>
-      </c>
+      <c r="L397" t="inlineStr"/>
       <c r="M397" t="n">
         <v>269.9471428571429</v>
       </c>
@@ -23763,11 +23759,15 @@
         <v>287.1833333333333</v>
       </c>
       <c r="C398" t="inlineStr"/>
-      <c r="D398" t="inlineStr"/>
+      <c r="D398" t="n">
+        <v>166.0965517241379</v>
+      </c>
       <c r="E398" t="n">
         <v>170.7388888888889</v>
       </c>
-      <c r="F398" t="inlineStr"/>
+      <c r="F398" t="n">
+        <v>186.72</v>
+      </c>
       <c r="G398" t="n">
         <v>221.0004347826087</v>
       </c>
@@ -23781,11 +23781,13 @@
       <c r="K398" t="n">
         <v>249.25</v>
       </c>
-      <c r="L398" t="n">
-        <v>236.5266666666667</v>
-      </c>
-      <c r="M398" t="inlineStr"/>
-      <c r="N398" t="inlineStr"/>
+      <c r="L398" t="inlineStr"/>
+      <c r="M398" t="n">
+        <v>330.9228571428571</v>
+      </c>
+      <c r="N398" t="n">
+        <v>324.1866666666667</v>
+      </c>
       <c r="O398" t="n">
         <v>330.8133333333333</v>
       </c>
@@ -23807,10 +23809,83 @@
       <c r="U398" t="n">
         <v>329.2471428571428</v>
       </c>
-      <c r="V398" t="inlineStr"/>
+      <c r="V398" t="n">
+        <v>129.425</v>
+      </c>
       <c r="W398" t="inlineStr">
         <is>
           <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="399">
+      <c r="A399" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-15 22:05:40+00:00</t>
+        </is>
+      </c>
+      <c r="B399" t="inlineStr"/>
+      <c r="C399" t="n">
+        <v>371.66</v>
+      </c>
+      <c r="D399" t="n">
+        <v>163.1493103448276</v>
+      </c>
+      <c r="E399" t="n">
+        <v>172.7644444444445</v>
+      </c>
+      <c r="F399" t="n">
+        <v>187.93</v>
+      </c>
+      <c r="G399" t="n">
+        <v>215.7191304347826</v>
+      </c>
+      <c r="H399" t="inlineStr"/>
+      <c r="I399" t="n">
+        <v>209.5898412698413</v>
+      </c>
+      <c r="J399" t="n">
+        <v>216.3010810810811</v>
+      </c>
+      <c r="K399" t="n">
+        <v>250.32</v>
+      </c>
+      <c r="L399" t="n">
+        <v>344.5633333333333</v>
+      </c>
+      <c r="M399" t="n">
+        <v>351.7028571428572</v>
+      </c>
+      <c r="N399" t="n">
+        <v>336.295641025641</v>
+      </c>
+      <c r="O399" t="n">
+        <v>346.6066666666667</v>
+      </c>
+      <c r="P399" t="n">
+        <v>348.2433333333333</v>
+      </c>
+      <c r="Q399" t="n">
+        <v>347.9133333333333</v>
+      </c>
+      <c r="R399" t="n">
+        <v>364.5052631578947</v>
+      </c>
+      <c r="S399" t="n">
+        <v>371.9371428571428</v>
+      </c>
+      <c r="T399" t="n">
+        <v>372.2763636363636</v>
+      </c>
+      <c r="U399" t="n">
+        <v>356.0271428571428</v>
+      </c>
+      <c r="V399" t="n">
+        <v>127.51</v>
+      </c>
+      <c r="W399" t="inlineStr">
+        <is>
+          <t>L8</t>
         </is>
       </c>
     </row>
@@ -23825,7 +23900,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B437"/>
+  <dimension ref="A1:B438"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -28203,6 +28278,16 @@
       </c>
       <c r="B437" t="n">
         <v>0.13</v>
+      </c>
+    </row>
+    <row r="438">
+      <c r="A438" t="inlineStr">
+        <is>
+          <t>2025-06-15 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B438" t="n">
+        <v>0.2</v>
       </c>
     </row>
   </sheetData>
@@ -28379,7 +28464,7 @@
         <v>-0.3423487512718577</v>
       </c>
       <c r="J2" t="n">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="K2" t="n">
         <v>233</v>
@@ -28454,28 +28539,28 @@
         <v>0.0728</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.3517207493295131</v>
+        <v>-0.2935428655405937</v>
       </c>
       <c r="J3" t="n">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="K3" t="n">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="L3" t="n">
-        <v>0.001991069403891155</v>
+        <v>0.001392058938696428</v>
       </c>
       <c r="M3" t="n">
-        <v>37.33209224043242</v>
+        <v>37.33522503609485</v>
       </c>
       <c r="N3" t="n">
-        <v>3049.858883037244</v>
+        <v>3052.91441174143</v>
       </c>
       <c r="O3" t="n">
-        <v>55.22552745820762</v>
+        <v>55.2531846298603</v>
       </c>
       <c r="P3" t="n">
-        <v>319.7365117383058</v>
+        <v>319.0962797653276</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -28532,28 +28617,28 @@
         <v>0.2</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.4487838758055267</v>
+        <v>-0.6778113762133824</v>
       </c>
       <c r="J4" t="n">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="K4" t="n">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="L4" t="n">
-        <v>0.001919060287568164</v>
+        <v>0.004315947124514663</v>
       </c>
       <c r="M4" t="n">
-        <v>56.62537108080569</v>
+        <v>57.8482328267193</v>
       </c>
       <c r="N4" t="n">
-        <v>5253.94325842354</v>
+        <v>5355.301120544697</v>
       </c>
       <c r="O4" t="n">
-        <v>72.48408969162502</v>
+        <v>73.17992293344328</v>
       </c>
       <c r="P4" t="n">
-        <v>302.7090431220994</v>
+        <v>305.2139660881331</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -28610,28 +28695,28 @@
         <v>0.07770000000000001</v>
       </c>
       <c r="I5" t="n">
-        <v>-1.267351346534797</v>
+        <v>-1.360215106483552</v>
       </c>
       <c r="J5" t="n">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="K5" t="n">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="L5" t="n">
-        <v>0.01655635204247985</v>
+        <v>0.01897511698619092</v>
       </c>
       <c r="M5" t="n">
-        <v>57.6768642780362</v>
+        <v>58.08540116782564</v>
       </c>
       <c r="N5" t="n">
-        <v>4796.89056387113</v>
+        <v>4827.682938074038</v>
       </c>
       <c r="O5" t="n">
-        <v>69.25958824503023</v>
+        <v>69.48152947419939</v>
       </c>
       <c r="P5" t="n">
-        <v>314.0157145979939</v>
+        <v>315.0212044919708</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -28688,28 +28773,28 @@
         <v>0.2</v>
       </c>
       <c r="I6" t="n">
-        <v>0.3341338614883476</v>
+        <v>0.1396196125085186</v>
       </c>
       <c r="J6" t="n">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="K6" t="n">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="L6" t="n">
-        <v>0.00166499266505149</v>
+        <v>0.0002877012208234442</v>
       </c>
       <c r="M6" t="n">
-        <v>47.78363076764015</v>
+        <v>48.67103970113286</v>
       </c>
       <c r="N6" t="n">
-        <v>3459.183811949878</v>
+        <v>3531.228906594453</v>
       </c>
       <c r="O6" t="n">
-        <v>58.81482646365522</v>
+        <v>59.42414413851034</v>
       </c>
       <c r="P6" t="n">
-        <v>284.7069217594643</v>
+        <v>286.7518523586776</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -28766,28 +28851,28 @@
         <v>0.2</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.2909569038391093</v>
+        <v>-0.3702102480275086</v>
       </c>
       <c r="J7" t="n">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="K7" t="n">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="L7" t="n">
-        <v>0.002131030077252682</v>
+        <v>0.003428481467674271</v>
       </c>
       <c r="M7" t="n">
-        <v>35.24592671426198</v>
+        <v>35.56294198719507</v>
       </c>
       <c r="N7" t="n">
-        <v>1891.766351754902</v>
+        <v>1910.990357895581</v>
       </c>
       <c r="O7" t="n">
-        <v>43.49444046950026</v>
+        <v>43.71487570490829</v>
       </c>
       <c r="P7" t="n">
-        <v>298.6240234580188</v>
+        <v>299.4984594287246</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -28847,7 +28932,7 @@
         <v>0.1890139914885957</v>
       </c>
       <c r="J8" t="n">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="K8" t="n">
         <v>239</v>
@@ -28916,28 +29001,28 @@
       <c r="G9" t="inlineStr"/>
       <c r="H9" t="inlineStr"/>
       <c r="I9" t="n">
-        <v>-0.02345197030827302</v>
+        <v>-0.07148235240378106</v>
       </c>
       <c r="J9" t="n">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="K9" t="n">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="L9" t="n">
-        <v>1.271246577649876e-05</v>
+        <v>0.0001182805317597735</v>
       </c>
       <c r="M9" t="n">
-        <v>41.31400273570332</v>
+        <v>41.36991565606446</v>
       </c>
       <c r="N9" t="n">
-        <v>2171.218175088452</v>
+        <v>2176.272358513064</v>
       </c>
       <c r="O9" t="n">
-        <v>46.59633220639208</v>
+        <v>46.65053438614679</v>
       </c>
       <c r="P9" t="n">
-        <v>268.5961204955564</v>
+        <v>269.1120372816071</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -28994,28 +29079,28 @@
         <v>0.2</v>
       </c>
       <c r="I10" t="n">
-        <v>-0.686600543858589</v>
+        <v>-0.7249824374169065</v>
       </c>
       <c r="J10" t="n">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="K10" t="n">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="L10" t="n">
-        <v>0.01073826870721573</v>
+        <v>0.01201374740381078</v>
       </c>
       <c r="M10" t="n">
-        <v>40.26079240100968</v>
+        <v>40.24925066795675</v>
       </c>
       <c r="N10" t="n">
-        <v>2153.277588108177</v>
+        <v>2152.264040912943</v>
       </c>
       <c r="O10" t="n">
-        <v>46.40342215945045</v>
+        <v>46.39249983470327</v>
       </c>
       <c r="P10" t="n">
-        <v>278.0711939459518</v>
+        <v>278.4847636315462</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -29072,28 +29157,28 @@
         <v>0.2</v>
       </c>
       <c r="I11" t="n">
-        <v>-0.1647594386417494</v>
+        <v>-0.1868925133004066</v>
       </c>
       <c r="J11" t="n">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="K11" t="n">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="L11" t="n">
-        <v>0.001613481634278435</v>
+        <v>0.002084963269914697</v>
       </c>
       <c r="M11" t="n">
-        <v>23.51258263115438</v>
+        <v>23.51299722461224</v>
       </c>
       <c r="N11" t="n">
-        <v>799.7972106012788</v>
+        <v>799.5542312491528</v>
       </c>
       <c r="O11" t="n">
-        <v>28.28068617628078</v>
+        <v>28.27638999676502</v>
       </c>
       <c r="P11" t="n">
-        <v>281.854102494285</v>
+        <v>282.0941615245108</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -29144,28 +29229,28 @@
       <c r="G12" t="inlineStr"/>
       <c r="H12" t="inlineStr"/>
       <c r="I12" t="n">
-        <v>-0.6583228929380152</v>
+        <v>-0.5387360198732535</v>
       </c>
       <c r="J12" t="n">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="K12" t="n">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="L12" t="n">
-        <v>0.01517799216341875</v>
+        <v>0.009951877151896493</v>
       </c>
       <c r="M12" t="n">
-        <v>32.14034937479649</v>
+        <v>32.44969181716353</v>
       </c>
       <c r="N12" t="n">
-        <v>1376.794033677868</v>
+        <v>1402.182311252276</v>
       </c>
       <c r="O12" t="n">
-        <v>37.10517529506993</v>
+        <v>37.44572487283796</v>
       </c>
       <c r="P12" t="n">
-        <v>286.2689345462352</v>
+        <v>284.9855786489178</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
@@ -29222,28 +29307,28 @@
         <v>0.2</v>
       </c>
       <c r="I13" t="n">
-        <v>0.1802759106959514</v>
+        <v>0.2526555047812685</v>
       </c>
       <c r="J13" t="n">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="K13" t="n">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="L13" t="n">
-        <v>0.001581910511798901</v>
+        <v>0.0031028765243446</v>
       </c>
       <c r="M13" t="n">
-        <v>26.6981832257308</v>
+        <v>26.87099392163715</v>
       </c>
       <c r="N13" t="n">
-        <v>1007.849099456403</v>
+        <v>1016.164602837447</v>
       </c>
       <c r="O13" t="n">
-        <v>31.74663918364278</v>
+        <v>31.87733682159548</v>
       </c>
       <c r="P13" t="n">
-        <v>292.2427636723451</v>
+        <v>291.4649794803282</v>
       </c>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr">
@@ -29300,28 +29385,28 @@
         <v>0.2</v>
       </c>
       <c r="I14" t="n">
-        <v>0.4111023772622994</v>
+        <v>0.4883389276872624</v>
       </c>
       <c r="J14" t="n">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="K14" t="n">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="L14" t="n">
-        <v>0.01060442351008339</v>
+        <v>0.01491980318830222</v>
       </c>
       <c r="M14" t="n">
-        <v>22.34560508475091</v>
+        <v>22.60226570857078</v>
       </c>
       <c r="N14" t="n">
-        <v>825.4387064811044</v>
+        <v>833.4092262638093</v>
       </c>
       <c r="O14" t="n">
-        <v>28.73044911728852</v>
+        <v>28.86882793366938</v>
       </c>
       <c r="P14" t="n">
-        <v>278.5085988412932</v>
+        <v>277.7323631534596</v>
       </c>
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr">
@@ -29378,28 +29463,28 @@
         <v>0.1895</v>
       </c>
       <c r="I15" t="n">
-        <v>0.01648187948868847</v>
+        <v>0.0754576696811721</v>
       </c>
       <c r="J15" t="n">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="K15" t="n">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="L15" t="n">
-        <v>1.303825423426552e-05</v>
+        <v>0.000270524438670372</v>
       </c>
       <c r="M15" t="n">
-        <v>25.60657568496723</v>
+        <v>25.80041053941577</v>
       </c>
       <c r="N15" t="n">
-        <v>1075.270530940395</v>
+        <v>1090.835909443162</v>
       </c>
       <c r="O15" t="n">
-        <v>32.79131792015068</v>
+        <v>33.02780509575473</v>
       </c>
       <c r="P15" t="n">
-        <v>277.6152592756685</v>
+        <v>277.0016739906519</v>
       </c>
       <c r="Q15" t="inlineStr"/>
       <c r="R15" t="inlineStr">
@@ -29456,28 +29541,28 @@
         <v>0.0726</v>
       </c>
       <c r="I16" t="n">
-        <v>0.04724202223683623</v>
+        <v>0.07603988515987951</v>
       </c>
       <c r="J16" t="n">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="K16" t="n">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="L16" t="n">
-        <v>0.000205159505683894</v>
+        <v>0.0005297917366056115</v>
       </c>
       <c r="M16" t="n">
-        <v>17.13254593437223</v>
+        <v>17.21333476869924</v>
       </c>
       <c r="N16" t="n">
-        <v>539.769503100556</v>
+        <v>543.3060924830185</v>
       </c>
       <c r="O16" t="n">
-        <v>23.23294004426809</v>
+        <v>23.30892731300646</v>
       </c>
       <c r="P16" t="n">
-        <v>308.3831439883031</v>
+        <v>308.0723446769606</v>
       </c>
       <c r="Q16" t="inlineStr"/>
       <c r="R16" t="inlineStr">
@@ -29534,28 +29619,28 @@
         <v>0.0707</v>
       </c>
       <c r="I17" t="n">
-        <v>-0.01067565422095483</v>
+        <v>0.008707800520138963</v>
       </c>
       <c r="J17" t="n">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="K17" t="n">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="L17" t="n">
-        <v>1.800402496954234e-05</v>
+        <v>1.197113998585575e-05</v>
       </c>
       <c r="M17" t="n">
-        <v>13.09864232619337</v>
+        <v>13.15812825578543</v>
       </c>
       <c r="N17" t="n">
-        <v>310.3487252660525</v>
+        <v>311.7244470941085</v>
       </c>
       <c r="O17" t="n">
-        <v>17.6167172102538</v>
+        <v>17.65571995400099</v>
       </c>
       <c r="P17" t="n">
-        <v>321.6951669279289</v>
+        <v>321.486855189929</v>
       </c>
       <c r="Q17" t="inlineStr"/>
       <c r="R17" t="inlineStr">
@@ -29612,28 +29697,28 @@
         <v>0.1168</v>
       </c>
       <c r="I18" t="n">
-        <v>-0.04959494681054664</v>
+        <v>-0.0207316626515236</v>
       </c>
       <c r="J18" t="n">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="K18" t="n">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="L18" t="n">
-        <v>0.0003186287794464393</v>
+        <v>5.522229728505135e-05</v>
       </c>
       <c r="M18" t="n">
-        <v>15.56691122055425</v>
+        <v>15.6935009316182</v>
       </c>
       <c r="N18" t="n">
-        <v>395.4522772863956</v>
+        <v>400.2135847717379</v>
       </c>
       <c r="O18" t="n">
-        <v>19.88598192914787</v>
+        <v>20.00533890669533</v>
       </c>
       <c r="P18" t="n">
-        <v>323.4705333904706</v>
+        <v>323.1680061449112</v>
       </c>
       <c r="Q18" t="inlineStr"/>
       <c r="R18" t="inlineStr">
@@ -29690,28 +29775,28 @@
         <v>0.0864</v>
       </c>
       <c r="I19" t="n">
-        <v>0.1384036716127038</v>
+        <v>0.1650272312730444</v>
       </c>
       <c r="J19" t="n">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="K19" t="n">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="L19" t="n">
-        <v>0.002001944011196022</v>
+        <v>0.002833751714089394</v>
       </c>
       <c r="M19" t="n">
-        <v>17.33108432663148</v>
+        <v>17.41795118373609</v>
       </c>
       <c r="N19" t="n">
-        <v>469.1069059847957</v>
+        <v>472.4666636831211</v>
       </c>
       <c r="O19" t="n">
-        <v>21.65887591692597</v>
+        <v>21.73629829762007</v>
       </c>
       <c r="P19" t="n">
-        <v>330.1010137273788</v>
+        <v>329.8146578563789</v>
       </c>
       <c r="Q19" t="inlineStr"/>
       <c r="R19" t="inlineStr">
@@ -29768,28 +29853,28 @@
         <v>0.0648</v>
       </c>
       <c r="I20" t="n">
-        <v>0.08732221093054442</v>
+        <v>0.1072994211540896</v>
       </c>
       <c r="J20" t="n">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="K20" t="n">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="L20" t="n">
-        <v>0.000912177987138385</v>
+        <v>0.001376632751635576</v>
       </c>
       <c r="M20" t="n">
-        <v>15.67322261612791</v>
+        <v>15.72337063906024</v>
       </c>
       <c r="N20" t="n">
-        <v>409.8554103381888</v>
+        <v>411.3204620590116</v>
       </c>
       <c r="O20" t="n">
-        <v>20.24488602927141</v>
+        <v>20.28103700649973</v>
       </c>
       <c r="P20" t="n">
-        <v>340.7643368266977</v>
+        <v>340.5497604233587</v>
       </c>
       <c r="Q20" t="inlineStr"/>
       <c r="R20" t="inlineStr">
@@ -29846,28 +29931,28 @@
         <v>0.08169999999999999</v>
       </c>
       <c r="I21" t="n">
-        <v>-0.1977329804304754</v>
+        <v>-0.1859908911473913</v>
       </c>
       <c r="J21" t="n">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="K21" t="n">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="L21" t="n">
-        <v>0.004679763027383155</v>
+        <v>0.004163201708540898</v>
       </c>
       <c r="M21" t="n">
-        <v>14.82684202116384</v>
+        <v>14.8360445261572</v>
       </c>
       <c r="N21" t="n">
-        <v>393.4584012260901</v>
+        <v>392.9169012299523</v>
       </c>
       <c r="O21" t="n">
-        <v>19.83578587367009</v>
+        <v>19.8221316015698</v>
       </c>
       <c r="P21" t="n">
-        <v>345.3489381469483</v>
+        <v>345.2184058712277</v>
       </c>
       <c r="Q21" t="inlineStr"/>
       <c r="R21" t="inlineStr">
@@ -29924,28 +30009,28 @@
         <v>0.1058</v>
       </c>
       <c r="I22" t="n">
-        <v>-0.7217101201840813</v>
+        <v>-1.051226305460267</v>
       </c>
       <c r="J22" t="n">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="K22" t="n">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="L22" t="n">
-        <v>0.01860282864723062</v>
+        <v>0.03175746387970668</v>
       </c>
       <c r="M22" t="n">
-        <v>20.71514070263535</v>
+        <v>22.7341548779096</v>
       </c>
       <c r="N22" t="n">
-        <v>1263.461286998971</v>
+        <v>1561.054476012741</v>
       </c>
       <c r="O22" t="n">
-        <v>35.54520061835311</v>
+        <v>39.51018192836805</v>
       </c>
       <c r="P22" t="n">
-        <v>339.711243458368</v>
+        <v>343.4660626198324</v>
       </c>
       <c r="Q22" t="inlineStr"/>
       <c r="R22" t="inlineStr">
@@ -29983,7 +30068,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W398"/>
+  <dimension ref="A1:W399"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -63270,11 +63355,7 @@
           <t>-37.679276038291285,174.80969752153467</t>
         </is>
       </c>
-      <c r="L396" t="inlineStr">
-        <is>
-          <t>-37.67856932643655,174.80951456598703</t>
-        </is>
-      </c>
+      <c r="L396" t="inlineStr"/>
       <c r="M396" t="inlineStr"/>
       <c r="N396" t="inlineStr">
         <is>
@@ -63383,11 +63464,7 @@
           <t>-37.67927224483449,174.8097097758742</t>
         </is>
       </c>
-      <c r="L397" t="inlineStr">
-        <is>
-          <t>-37.67855848022625,174.80954960321884</t>
-        </is>
-      </c>
+      <c r="L397" t="inlineStr"/>
       <c r="M397" t="inlineStr">
         <is>
           <t>-37.67795976788591,174.80901774939588</t>
@@ -63452,13 +63529,21 @@
         </is>
       </c>
       <c r="C398" t="inlineStr"/>
-      <c r="D398" t="inlineStr"/>
+      <c r="D398" t="inlineStr">
+        <is>
+          <t>-37.68358659379946,174.81298326628328</t>
+        </is>
+      </c>
       <c r="E398" t="inlineStr">
         <is>
           <t>-37.682938726821824,174.81261139380968</t>
         </is>
       </c>
-      <c r="F398" t="inlineStr"/>
+      <c r="F398" t="inlineStr">
+        <is>
+          <t>-37.68232874673737,174.81212013688463</t>
+        </is>
+      </c>
       <c r="G398" t="inlineStr">
         <is>
           <t>-37.68177991343969,174.8114362109316</t>
@@ -63480,13 +63565,17 @@
           <t>-37.67922325680663,174.8098680257637</t>
         </is>
       </c>
-      <c r="L398" t="inlineStr">
-        <is>
-          <t>-37.678516065450886,174.80968661806105</t>
-        </is>
-      </c>
-      <c r="M398" t="inlineStr"/>
-      <c r="N398" t="inlineStr"/>
+      <c r="L398" t="inlineStr"/>
+      <c r="M398" t="inlineStr">
+        <is>
+          <t>-37.678159167543,174.808373604778</t>
+        </is>
+      </c>
+      <c r="N398" t="inlineStr">
+        <is>
+          <t>-37.67747154270496,174.80812895523152</t>
+        </is>
+      </c>
       <c r="O398" t="inlineStr">
         <is>
           <t>-37.676831595738854,174.80774498721783</t>
@@ -63522,10 +63611,123 @@
           <t>-37.67275030724084,174.80612777664837</t>
         </is>
       </c>
-      <c r="V398" t="inlineStr"/>
+      <c r="V398" t="inlineStr">
+        <is>
+          <t>-37.67129839673669,174.80776271526057</t>
+        </is>
+      </c>
       <c r="W398" t="inlineStr">
         <is>
           <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="399">
+      <c r="A399" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-15 22:05:40+00:00</t>
+        </is>
+      </c>
+      <c r="B399" t="inlineStr"/>
+      <c r="C399" t="inlineStr">
+        <is>
+          <t>-37.684936937273406,174.81114182745253</t>
+        </is>
+      </c>
+      <c r="D399" t="inlineStr">
+        <is>
+          <t>-37.68357674425429,174.81301429802767</t>
+        </is>
+      </c>
+      <c r="E399" t="inlineStr">
+        <is>
+          <t>-37.68294549608126,174.81259006672263</t>
+        </is>
+      </c>
+      <c r="F399" t="inlineStr">
+        <is>
+          <t>-37.682332790427736,174.8121073968681</t>
+        </is>
+      </c>
+      <c r="G399" t="inlineStr">
+        <is>
+          <t>-37.6817622641433,174.81149181719093</t>
+        </is>
+      </c>
+      <c r="H399" t="inlineStr"/>
+      <c r="I399" t="inlineStr">
+        <is>
+          <t>-37.68042161879607,174.81091712804582</t>
+        </is>
+      </c>
+      <c r="J399" t="inlineStr">
+        <is>
+          <t>-37.679781082180895,174.8105319194598</t>
+        </is>
+      </c>
+      <c r="K399" t="inlineStr">
+        <is>
+          <t>-37.67922675595836,174.80985672220734</t>
+        </is>
+      </c>
+      <c r="L399" t="inlineStr">
+        <is>
+          <t>-37.678869364553705,174.80854531576117</t>
+        </is>
+      </c>
+      <c r="M399" t="inlineStr">
+        <is>
+          <t>-37.67822712044906,174.80815408500564</t>
+        </is>
+      </c>
+      <c r="N399" t="inlineStr">
+        <is>
+          <t>-37.67751114027878,174.80800103724886</t>
+        </is>
+      </c>
+      <c r="O399" t="inlineStr">
+        <is>
+          <t>-37.67688095735111,174.80757705845818</t>
+        </is>
+      </c>
+      <c r="P399" t="inlineStr">
+        <is>
+          <t>-37.67621540311506,174.80727420382618</t>
+        </is>
+      </c>
+      <c r="Q399" t="inlineStr">
+        <is>
+          <t>-37.675535437718814,174.80701747801024</t>
+        </is>
+      </c>
+      <c r="R399" t="inlineStr">
+        <is>
+          <t>-37.674900192830755,174.80657739326074</t>
+        </is>
+      </c>
+      <c r="S399" t="inlineStr">
+        <is>
+          <t>-37.67424001749096,174.8062363053924</t>
+        </is>
+      </c>
+      <c r="T399" t="inlineStr">
+        <is>
+          <t>-37.673563180165694,174.80597304903694</t>
+        </is>
+      </c>
+      <c r="U399" t="inlineStr">
+        <is>
+          <t>-37.672845444724004,174.80584878622284</t>
+        </is>
+      </c>
+      <c r="V399" t="inlineStr">
+        <is>
+          <t>-37.67129074960613,174.80778217526387</t>
+        </is>
+      </c>
+      <c r="W399" t="inlineStr">
+        <is>
+          <t>L8</t>
         </is>
       </c>
     </row>

--- a/data/nzd0216/nzd0216.xlsx
+++ b/data/nzd0216/nzd0216.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W399"/>
+  <dimension ref="A1:W400"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -23824,10 +23824,10 @@
           <t>2025-06-15 22:05:40+00:00</t>
         </is>
       </c>
-      <c r="B399" t="inlineStr"/>
-      <c r="C399" t="n">
-        <v>371.66</v>
-      </c>
+      <c r="B399" t="n">
+        <v>369.4166666666667</v>
+      </c>
+      <c r="C399" t="inlineStr"/>
       <c r="D399" t="n">
         <v>163.1493103448276</v>
       </c>
@@ -23886,6 +23886,77 @@
       <c r="W399" t="inlineStr">
         <is>
           <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="400">
+      <c r="A400" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-25 22:05:54+00:00</t>
+        </is>
+      </c>
+      <c r="B400" t="n">
+        <v>364.7733333333333</v>
+      </c>
+      <c r="C400" t="n">
+        <v>182.79</v>
+      </c>
+      <c r="D400" t="n">
+        <v>177.2393103448276</v>
+      </c>
+      <c r="E400" t="n">
+        <v>200.8822222222223</v>
+      </c>
+      <c r="F400" t="n">
+        <v>202.33</v>
+      </c>
+      <c r="G400" t="n">
+        <v>230.7760869565217</v>
+      </c>
+      <c r="H400" t="inlineStr"/>
+      <c r="I400" t="n">
+        <v>223.7649206349206</v>
+      </c>
+      <c r="J400" t="n">
+        <v>227.5013513513514</v>
+      </c>
+      <c r="K400" t="n">
+        <v>264.43</v>
+      </c>
+      <c r="L400" t="inlineStr"/>
+      <c r="M400" t="n">
+        <v>322.5814285714285</v>
+      </c>
+      <c r="N400" t="n">
+        <v>319.6743589743589</v>
+      </c>
+      <c r="O400" t="n">
+        <v>315.3433333333333</v>
+      </c>
+      <c r="P400" t="n">
+        <v>329.1766666666667</v>
+      </c>
+      <c r="Q400" t="n">
+        <v>331.4366666666667</v>
+      </c>
+      <c r="R400" t="n">
+        <v>330.5557894736842</v>
+      </c>
+      <c r="S400" t="n">
+        <v>355.8885714285714</v>
+      </c>
+      <c r="T400" t="n">
+        <v>362.7272727272728</v>
+      </c>
+      <c r="U400" t="n">
+        <v>329.8385714285715</v>
+      </c>
+      <c r="V400" t="n">
+        <v>143.14</v>
+      </c>
+      <c r="W400" t="inlineStr">
+        <is>
+          <t>L9</t>
         </is>
       </c>
     </row>
@@ -23900,7 +23971,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B438"/>
+  <dimension ref="A1:B439"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -28288,6 +28359,16 @@
       </c>
       <c r="B438" t="n">
         <v>0.2</v>
+      </c>
+    </row>
+    <row r="439">
+      <c r="A439" t="inlineStr">
+        <is>
+          <t>2025-07-25 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B439" t="n">
+        <v>1.36</v>
       </c>
     </row>
   </sheetData>
@@ -28461,28 +28542,28 @@
         <v>0.036</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.3423487512718577</v>
+        <v>-0.2782583604803316</v>
       </c>
       <c r="J2" t="n">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="K2" t="n">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="L2" t="n">
-        <v>0.01315922168279837</v>
+        <v>0.008638255308861864</v>
       </c>
       <c r="M2" t="n">
-        <v>16.80040736739389</v>
+        <v>16.96692973063986</v>
       </c>
       <c r="N2" t="n">
-        <v>474.7652955988004</v>
+        <v>483.9702332502023</v>
       </c>
       <c r="O2" t="n">
-        <v>21.78910956415613</v>
+        <v>21.99932347255711</v>
       </c>
       <c r="P2" t="n">
-        <v>336.0236774400373</v>
+        <v>335.3722701096551</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -28539,28 +28620,28 @@
         <v>0.0728</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.2935428655405937</v>
+        <v>-0.4751343609887327</v>
       </c>
       <c r="J3" t="n">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="K3" t="n">
         <v>201</v>
       </c>
       <c r="L3" t="n">
-        <v>0.001392058938696428</v>
+        <v>0.003567510716405708</v>
       </c>
       <c r="M3" t="n">
-        <v>37.33522503609485</v>
+        <v>38.02582277998587</v>
       </c>
       <c r="N3" t="n">
-        <v>3052.91441174143</v>
+        <v>3114.877298336579</v>
       </c>
       <c r="O3" t="n">
-        <v>55.2531846298603</v>
+        <v>55.8110858014479</v>
       </c>
       <c r="P3" t="n">
-        <v>319.0962797653276</v>
+        <v>321.1018944256516</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -28617,28 +28698,28 @@
         <v>0.2</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.6778113762133824</v>
+        <v>-0.7777157282827041</v>
       </c>
       <c r="J4" t="n">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="K4" t="n">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="L4" t="n">
-        <v>0.004315947124514663</v>
+        <v>0.005660792164738471</v>
       </c>
       <c r="M4" t="n">
-        <v>57.8482328267193</v>
+        <v>58.33463387192424</v>
       </c>
       <c r="N4" t="n">
-        <v>5355.301120544697</v>
+        <v>5387.928274831076</v>
       </c>
       <c r="O4" t="n">
-        <v>73.17992293344328</v>
+        <v>73.40250864126564</v>
       </c>
       <c r="P4" t="n">
-        <v>305.2139660881331</v>
+        <v>306.3135362685722</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -28695,28 +28776,28 @@
         <v>0.07770000000000001</v>
       </c>
       <c r="I5" t="n">
-        <v>-1.360215106483552</v>
+        <v>-1.427648798288717</v>
       </c>
       <c r="J5" t="n">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="K5" t="n">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="L5" t="n">
-        <v>0.01897511698619092</v>
+        <v>0.02091649221915781</v>
       </c>
       <c r="M5" t="n">
-        <v>58.08540116782564</v>
+        <v>58.30464398991457</v>
       </c>
       <c r="N5" t="n">
-        <v>4827.682938074038</v>
+        <v>4833.668093724521</v>
       </c>
       <c r="O5" t="n">
-        <v>69.48152947419939</v>
+        <v>69.52458625352992</v>
       </c>
       <c r="P5" t="n">
-        <v>315.0212044919708</v>
+        <v>315.7553337469137</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -28773,28 +28854,28 @@
         <v>0.2</v>
       </c>
       <c r="I6" t="n">
-        <v>0.1396196125085186</v>
+        <v>0.0589846520459708</v>
       </c>
       <c r="J6" t="n">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="K6" t="n">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="L6" t="n">
-        <v>0.0002877012208234442</v>
+        <v>5.130038179024243e-05</v>
       </c>
       <c r="M6" t="n">
-        <v>48.67103970113286</v>
+        <v>48.9902359954843</v>
       </c>
       <c r="N6" t="n">
-        <v>3531.228906594453</v>
+        <v>3550.983586488505</v>
       </c>
       <c r="O6" t="n">
-        <v>59.42414413851034</v>
+        <v>59.59012994186625</v>
       </c>
       <c r="P6" t="n">
-        <v>286.7518523586776</v>
+        <v>287.6046711244055</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -28851,28 +28932,28 @@
         <v>0.2</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.3702102480275086</v>
+        <v>-0.4321123531489443</v>
       </c>
       <c r="J7" t="n">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="K7" t="n">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="L7" t="n">
-        <v>0.003428481467674271</v>
+        <v>0.004669915492391374</v>
       </c>
       <c r="M7" t="n">
-        <v>35.56294198719507</v>
+        <v>35.76919206943689</v>
       </c>
       <c r="N7" t="n">
-        <v>1910.990357895581</v>
+        <v>1918.909191692708</v>
       </c>
       <c r="O7" t="n">
-        <v>43.71487570490829</v>
+        <v>43.80535574210884</v>
       </c>
       <c r="P7" t="n">
-        <v>299.4984594287246</v>
+        <v>300.1848503118977</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -28932,7 +29013,7 @@
         <v>0.1890139914885957</v>
       </c>
       <c r="J8" t="n">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="K8" t="n">
         <v>239</v>
@@ -29001,28 +29082,28 @@
       <c r="G9" t="inlineStr"/>
       <c r="H9" t="inlineStr"/>
       <c r="I9" t="n">
-        <v>-0.07148235240378106</v>
+        <v>-0.1072116032927879</v>
       </c>
       <c r="J9" t="n">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="K9" t="n">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="L9" t="n">
-        <v>0.0001182805317597735</v>
+        <v>0.0002672511936007149</v>
       </c>
       <c r="M9" t="n">
-        <v>41.36991565606446</v>
+        <v>41.36457200051848</v>
       </c>
       <c r="N9" t="n">
-        <v>2176.272358513064</v>
+        <v>2174.982013824585</v>
       </c>
       <c r="O9" t="n">
-        <v>46.65053438614679</v>
+        <v>46.63670243300426</v>
       </c>
       <c r="P9" t="n">
-        <v>269.1120372816071</v>
+        <v>269.497843720206</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -29079,28 +29160,28 @@
         <v>0.2</v>
       </c>
       <c r="I10" t="n">
-        <v>-0.7249824374169065</v>
+        <v>-0.7529984404261711</v>
       </c>
       <c r="J10" t="n">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="K10" t="n">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="L10" t="n">
-        <v>0.01201374740381078</v>
+        <v>0.01303269251280592</v>
       </c>
       <c r="M10" t="n">
-        <v>40.24925066795675</v>
+        <v>40.1918884553944</v>
       </c>
       <c r="N10" t="n">
-        <v>2152.264040912943</v>
+        <v>2147.355972735814</v>
       </c>
       <c r="O10" t="n">
-        <v>46.39249983470327</v>
+        <v>46.33957242720108</v>
       </c>
       <c r="P10" t="n">
-        <v>278.4847636315462</v>
+        <v>278.7881893075802</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -29157,28 +29238,28 @@
         <v>0.2</v>
       </c>
       <c r="I11" t="n">
-        <v>-0.1868925133004066</v>
+        <v>-0.1972892781262447</v>
       </c>
       <c r="J11" t="n">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="K11" t="n">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="L11" t="n">
-        <v>0.002084963269914697</v>
+        <v>0.002340362069824686</v>
       </c>
       <c r="M11" t="n">
-        <v>23.51299722461224</v>
+        <v>23.46512072055001</v>
       </c>
       <c r="N11" t="n">
-        <v>799.5542312491528</v>
+        <v>797.1243613328095</v>
       </c>
       <c r="O11" t="n">
-        <v>28.27638999676502</v>
+        <v>28.23339089328112</v>
       </c>
       <c r="P11" t="n">
-        <v>282.0941615245108</v>
+        <v>282.2074526169288</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -29232,7 +29313,7 @@
         <v>-0.5387360198732535</v>
       </c>
       <c r="J12" t="n">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="K12" t="n">
         <v>252</v>
@@ -29307,28 +29388,28 @@
         <v>0.2</v>
       </c>
       <c r="I13" t="n">
-        <v>0.2526555047812685</v>
+        <v>0.2726759551033572</v>
       </c>
       <c r="J13" t="n">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="K13" t="n">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="L13" t="n">
-        <v>0.0031028765243446</v>
+        <v>0.003633421476483045</v>
       </c>
       <c r="M13" t="n">
-        <v>26.87099392163715</v>
+        <v>26.87012027646252</v>
       </c>
       <c r="N13" t="n">
-        <v>1016.164602837447</v>
+        <v>1014.477060986764</v>
       </c>
       <c r="O13" t="n">
-        <v>31.87733682159548</v>
+        <v>31.85085651888759</v>
       </c>
       <c r="P13" t="n">
-        <v>291.4649794803282</v>
+        <v>291.2486778603757</v>
       </c>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr">
@@ -29385,28 +29466,28 @@
         <v>0.2</v>
       </c>
       <c r="I14" t="n">
-        <v>0.4883389276872624</v>
+        <v>0.5157573632313057</v>
       </c>
       <c r="J14" t="n">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="K14" t="n">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="L14" t="n">
-        <v>0.01491980318830222</v>
+        <v>0.01670226708491629</v>
       </c>
       <c r="M14" t="n">
-        <v>22.60226570857078</v>
+        <v>22.66117940515392</v>
       </c>
       <c r="N14" t="n">
-        <v>833.4092262638093</v>
+        <v>833.4783107877878</v>
       </c>
       <c r="O14" t="n">
-        <v>28.86882793366938</v>
+        <v>28.87002443344632</v>
       </c>
       <c r="P14" t="n">
-        <v>277.7323631534596</v>
+        <v>277.4553074566355</v>
       </c>
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr">
@@ -29463,28 +29544,28 @@
         <v>0.1895</v>
       </c>
       <c r="I15" t="n">
-        <v>0.0754576696811721</v>
+        <v>0.1066803103556155</v>
       </c>
       <c r="J15" t="n">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="K15" t="n">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="L15" t="n">
-        <v>0.000270524438670372</v>
+        <v>0.0005425574507621489</v>
       </c>
       <c r="M15" t="n">
-        <v>25.80041053941577</v>
+        <v>25.85030562954885</v>
       </c>
       <c r="N15" t="n">
-        <v>1090.835909443162</v>
+        <v>1091.776368035305</v>
       </c>
       <c r="O15" t="n">
-        <v>33.02780509575473</v>
+        <v>33.04203940490515</v>
       </c>
       <c r="P15" t="n">
-        <v>277.0016739906519</v>
+        <v>276.6751509141971</v>
       </c>
       <c r="Q15" t="inlineStr"/>
       <c r="R15" t="inlineStr">
@@ -29541,28 +29622,28 @@
         <v>0.0726</v>
       </c>
       <c r="I16" t="n">
-        <v>0.07603988515987951</v>
+        <v>0.09030219482942102</v>
       </c>
       <c r="J16" t="n">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="K16" t="n">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="L16" t="n">
-        <v>0.0005297917366056115</v>
+        <v>0.0007506909964197783</v>
       </c>
       <c r="M16" t="n">
-        <v>17.21333476869924</v>
+        <v>17.22244129330048</v>
       </c>
       <c r="N16" t="n">
-        <v>543.3060924830185</v>
+        <v>542.6257996001859</v>
       </c>
       <c r="O16" t="n">
-        <v>23.30892731300646</v>
+        <v>23.29432977357764</v>
       </c>
       <c r="P16" t="n">
-        <v>308.0723446769606</v>
+        <v>307.9176241501537</v>
       </c>
       <c r="Q16" t="inlineStr"/>
       <c r="R16" t="inlineStr">
@@ -29619,28 +29700,28 @@
         <v>0.0707</v>
       </c>
       <c r="I17" t="n">
-        <v>0.008707800520138963</v>
+        <v>0.0158219193835426</v>
       </c>
       <c r="J17" t="n">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="K17" t="n">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="L17" t="n">
-        <v>1.197113998585575e-05</v>
+        <v>3.977374481345386e-05</v>
       </c>
       <c r="M17" t="n">
-        <v>13.15812825578543</v>
+        <v>13.1499676873636</v>
       </c>
       <c r="N17" t="n">
-        <v>311.7244470941085</v>
+        <v>310.9452182858774</v>
       </c>
       <c r="O17" t="n">
-        <v>17.65571995400099</v>
+        <v>17.63363882713598</v>
       </c>
       <c r="P17" t="n">
-        <v>321.486855189929</v>
+        <v>321.4100247766879</v>
       </c>
       <c r="Q17" t="inlineStr"/>
       <c r="R17" t="inlineStr">
@@ -29697,28 +29778,28 @@
         <v>0.1168</v>
       </c>
       <c r="I18" t="n">
-        <v>-0.0207316626515236</v>
+        <v>-0.01532530683775698</v>
       </c>
       <c r="J18" t="n">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="K18" t="n">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="L18" t="n">
-        <v>5.522229728505135e-05</v>
+        <v>3.037315644804917e-05</v>
       </c>
       <c r="M18" t="n">
-        <v>15.6935009316182</v>
+        <v>15.6727240366321</v>
       </c>
       <c r="N18" t="n">
-        <v>400.2135847717379</v>
+        <v>399.0477281221607</v>
       </c>
       <c r="O18" t="n">
-        <v>20.00533890669533</v>
+        <v>19.97617901707333</v>
       </c>
       <c r="P18" t="n">
-        <v>323.1680061449112</v>
+        <v>323.1110470010006</v>
       </c>
       <c r="Q18" t="inlineStr"/>
       <c r="R18" t="inlineStr">
@@ -29775,28 +29856,28 @@
         <v>0.0864</v>
       </c>
       <c r="I19" t="n">
-        <v>0.1650272312730444</v>
+        <v>0.1802059853728924</v>
       </c>
       <c r="J19" t="n">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="K19" t="n">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="L19" t="n">
-        <v>0.002833751714089394</v>
+        <v>0.00338950323343068</v>
       </c>
       <c r="M19" t="n">
-        <v>17.41795118373609</v>
+        <v>17.44081424086351</v>
       </c>
       <c r="N19" t="n">
-        <v>472.4666636831211</v>
+        <v>472.4615611372528</v>
       </c>
       <c r="O19" t="n">
-        <v>21.73629829762007</v>
+        <v>21.73618092345693</v>
       </c>
       <c r="P19" t="n">
-        <v>329.8146578563789</v>
+        <v>329.6505905617344</v>
       </c>
       <c r="Q19" t="inlineStr"/>
       <c r="R19" t="inlineStr">
@@ -29853,28 +29934,28 @@
         <v>0.0648</v>
       </c>
       <c r="I20" t="n">
-        <v>0.1072994211540896</v>
+        <v>0.1205541196208491</v>
       </c>
       <c r="J20" t="n">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="K20" t="n">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="L20" t="n">
-        <v>0.001376632751635576</v>
+        <v>0.001743961841885078</v>
       </c>
       <c r="M20" t="n">
-        <v>15.72337063906024</v>
+        <v>15.73879156842117</v>
       </c>
       <c r="N20" t="n">
-        <v>411.3204620590116</v>
+        <v>411.1922251924614</v>
       </c>
       <c r="O20" t="n">
-        <v>20.28103700649973</v>
+        <v>20.27787526326319</v>
       </c>
       <c r="P20" t="n">
-        <v>340.5497604233587</v>
+        <v>340.4066908809103</v>
       </c>
       <c r="Q20" t="inlineStr"/>
       <c r="R20" t="inlineStr">
@@ -29931,28 +30012,28 @@
         <v>0.08169999999999999</v>
       </c>
       <c r="I21" t="n">
-        <v>-0.1859908911473913</v>
+        <v>-0.1938775850614178</v>
       </c>
       <c r="J21" t="n">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="K21" t="n">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="L21" t="n">
-        <v>0.004163201708540898</v>
+        <v>0.004550468746017389</v>
       </c>
       <c r="M21" t="n">
-        <v>14.8360445261572</v>
+        <v>14.8162587292158</v>
       </c>
       <c r="N21" t="n">
-        <v>392.9169012299523</v>
+        <v>391.8870457335855</v>
       </c>
       <c r="O21" t="n">
-        <v>19.8221316015698</v>
+        <v>19.79613714171493</v>
       </c>
       <c r="P21" t="n">
-        <v>345.2184058712277</v>
+        <v>345.3065138325169</v>
       </c>
       <c r="Q21" t="inlineStr"/>
       <c r="R21" t="inlineStr">
@@ -30009,28 +30090,28 @@
         <v>0.1058</v>
       </c>
       <c r="I22" t="n">
-        <v>-1.051226305460267</v>
+        <v>-1.199382240362954</v>
       </c>
       <c r="J22" t="n">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="K22" t="n">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="L22" t="n">
-        <v>0.03175746387970668</v>
+        <v>0.03830069217365684</v>
       </c>
       <c r="M22" t="n">
-        <v>22.7341548779096</v>
+        <v>23.71657163976766</v>
       </c>
       <c r="N22" t="n">
-        <v>1561.054476012741</v>
+        <v>1679.995634863083</v>
       </c>
       <c r="O22" t="n">
-        <v>39.51018192836805</v>
+        <v>40.98774981458585</v>
       </c>
       <c r="P22" t="n">
-        <v>343.4660626198324</v>
+        <v>345.1637081261254</v>
       </c>
       <c r="Q22" t="inlineStr"/>
       <c r="R22" t="inlineStr">
@@ -30068,7 +30149,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W399"/>
+  <dimension ref="A1:W400"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -63628,12 +63709,12 @@
           <t>2025-06-15 22:05:40+00:00</t>
         </is>
       </c>
-      <c r="B399" t="inlineStr"/>
-      <c r="C399" t="inlineStr">
-        <is>
-          <t>-37.684936937273406,174.81114182745253</t>
-        </is>
-      </c>
+      <c r="B399" t="inlineStr">
+        <is>
+          <t>-37.685592814113306,174.8114884249157</t>
+        </is>
+      </c>
+      <c r="C399" t="inlineStr"/>
       <c r="D399" t="inlineStr">
         <is>
           <t>-37.68357674425429,174.81301429802767</t>
@@ -63728,6 +63809,115 @@
       <c r="W399" t="inlineStr">
         <is>
           <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="400">
+      <c r="A400" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-25 22:05:54+00:00</t>
+        </is>
+      </c>
+      <c r="B400" t="inlineStr">
+        <is>
+          <t>-37.685577296982714,174.81153731663252</t>
+        </is>
+      </c>
+      <c r="C400" t="inlineStr">
+        <is>
+          <t>-37.68430575813433,174.81313049136756</t>
+        </is>
+      </c>
+      <c r="D400" t="inlineStr">
+        <is>
+          <t>-37.683623832314346,174.81286594319388</t>
+        </is>
+      </c>
+      <c r="E400" t="inlineStr">
+        <is>
+          <t>-37.683039463261835,174.81229401405096</t>
+        </is>
+      </c>
+      <c r="F400" t="inlineStr">
+        <is>
+          <t>-37.682380913581774,174.81195578003218</t>
+        </is>
+      </c>
+      <c r="G400" t="inlineStr">
+        <is>
+          <t>-37.681812582078805,174.81133328411764</t>
+        </is>
+      </c>
+      <c r="H400" t="inlineStr"/>
+      <c r="I400" t="inlineStr">
+        <is>
+          <t>-37.68046826967845,174.81076752422337</t>
+        </is>
+      </c>
+      <c r="J400" t="inlineStr">
+        <is>
+          <t>-37.67981771021052,174.81041359837317</t>
+        </is>
+      </c>
+      <c r="K400" t="inlineStr">
+        <is>
+          <t>-37.679272898878864,174.80970766305717</t>
+        </is>
+      </c>
+      <c r="L400" t="inlineStr"/>
+      <c r="M400" t="inlineStr">
+        <is>
+          <t>-37.67813189003359,174.80846172345352</t>
+        </is>
+      </c>
+      <c r="N400" t="inlineStr">
+        <is>
+          <t>-37.677456786966665,174.80817662275842</t>
+        </is>
+      </c>
+      <c r="O400" t="inlineStr">
+        <is>
+          <t>-37.67678324446893,174.80790947778604</t>
+        </is>
+      </c>
+      <c r="P400" t="inlineStr">
+        <is>
+          <t>-37.67616104970025,174.8074792530438</t>
+        </is>
+      </c>
+      <c r="Q400" t="inlineStr">
+        <is>
+          <t>-37.67549060556974,174.80719554641988</t>
+        </is>
+      </c>
+      <c r="R400" t="inlineStr">
+        <is>
+          <t>-37.67480781892954,174.8069442928165</t>
+        </is>
+      </c>
+      <c r="S400" t="inlineStr">
+        <is>
+          <t>-37.674196351096406,174.80640974465507</t>
+        </is>
+      </c>
+      <c r="T400" t="inlineStr">
+        <is>
+          <t>-37.67353538042677,174.80607549409325</t>
+        </is>
+      </c>
+      <c r="U400" t="inlineStr">
+        <is>
+          <t>-37.67275240833164,174.80612161523328</t>
+        </is>
+      </c>
+      <c r="V400" t="inlineStr">
+        <is>
+          <t>-37.6713531644761,174.80762334493429</t>
+        </is>
+      </c>
+      <c r="W400" t="inlineStr">
+        <is>
+          <t>L9</t>
         </is>
       </c>
     </row>

--- a/data/nzd0216/nzd0216.xlsx
+++ b/data/nzd0216/nzd0216.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W400"/>
+  <dimension ref="A1:W401"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -23809,9 +23809,7 @@
       <c r="U398" t="n">
         <v>329.2471428571428</v>
       </c>
-      <c r="V398" t="n">
-        <v>129.425</v>
-      </c>
+      <c r="V398" t="inlineStr"/>
       <c r="W398" t="inlineStr">
         <is>
           <t>L9</t>
@@ -23880,9 +23878,7 @@
       <c r="U399" t="n">
         <v>356.0271428571428</v>
       </c>
-      <c r="V399" t="n">
-        <v>127.51</v>
-      </c>
+      <c r="V399" t="inlineStr"/>
       <c r="W399" t="inlineStr">
         <is>
           <t>L8</t>
@@ -23898,9 +23894,7 @@
       <c r="B400" t="n">
         <v>364.7733333333333</v>
       </c>
-      <c r="C400" t="n">
-        <v>182.79</v>
-      </c>
+      <c r="C400" t="inlineStr"/>
       <c r="D400" t="n">
         <v>177.2393103448276</v>
       </c>
@@ -23923,7 +23917,9 @@
       <c r="K400" t="n">
         <v>264.43</v>
       </c>
-      <c r="L400" t="inlineStr"/>
+      <c r="L400" t="n">
+        <v>249.8066666666667</v>
+      </c>
       <c r="M400" t="n">
         <v>322.5814285714285</v>
       </c>
@@ -23951,10 +23947,77 @@
       <c r="U400" t="n">
         <v>329.8385714285715</v>
       </c>
-      <c r="V400" t="n">
-        <v>143.14</v>
-      </c>
+      <c r="V400" t="inlineStr"/>
       <c r="W400" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="401">
+      <c r="A401" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-10 22:06:04+00:00</t>
+        </is>
+      </c>
+      <c r="B401" t="n">
+        <v>328.7866666666667</v>
+      </c>
+      <c r="C401" t="n">
+        <v>304.04</v>
+      </c>
+      <c r="D401" t="n">
+        <v>179.4451724137931</v>
+      </c>
+      <c r="E401" t="n">
+        <v>200.3911111111111</v>
+      </c>
+      <c r="F401" t="n">
+        <v>213.36</v>
+      </c>
+      <c r="G401" t="n">
+        <v>231.7839130434782</v>
+      </c>
+      <c r="H401" t="inlineStr"/>
+      <c r="I401" t="n">
+        <v>223.8288888888889</v>
+      </c>
+      <c r="J401" t="n">
+        <v>225.3675675675676</v>
+      </c>
+      <c r="K401" t="n">
+        <v>263.72</v>
+      </c>
+      <c r="L401" t="n">
+        <v>251.7433333333333</v>
+      </c>
+      <c r="M401" t="n">
+        <v>283.23</v>
+      </c>
+      <c r="N401" t="inlineStr"/>
+      <c r="O401" t="inlineStr"/>
+      <c r="P401" t="n">
+        <v>307.0733333333333</v>
+      </c>
+      <c r="Q401" t="n">
+        <v>321.4333333333333</v>
+      </c>
+      <c r="R401" t="n">
+        <v>315.8268421052632</v>
+      </c>
+      <c r="S401" t="n">
+        <v>326.68</v>
+      </c>
+      <c r="T401" t="n">
+        <v>337.4245454545455</v>
+      </c>
+      <c r="U401" t="n">
+        <v>329.6</v>
+      </c>
+      <c r="V401" t="n">
+        <v>315.19</v>
+      </c>
+      <c r="W401" t="inlineStr">
         <is>
           <t>L9</t>
         </is>
@@ -23971,7 +24034,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B439"/>
+  <dimension ref="A1:B440"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -28369,6 +28432,16 @@
       </c>
       <c r="B439" t="n">
         <v>1.36</v>
+      </c>
+    </row>
+    <row r="440">
+      <c r="A440" t="inlineStr">
+        <is>
+          <t>2025-08-10 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B440" t="n">
+        <v>1.4</v>
       </c>
     </row>
   </sheetData>
@@ -28542,28 +28615,28 @@
         <v>0.036</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.2782583604803316</v>
+        <v>-0.2777727688513084</v>
       </c>
       <c r="J2" t="n">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="K2" t="n">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="L2" t="n">
-        <v>0.008638255308861864</v>
+        <v>0.008679964782530969</v>
       </c>
       <c r="M2" t="n">
-        <v>16.96692973063986</v>
+        <v>16.89738884552888</v>
       </c>
       <c r="N2" t="n">
-        <v>483.9702332502023</v>
+        <v>481.9210488791535</v>
       </c>
       <c r="O2" t="n">
-        <v>21.99932347255711</v>
+        <v>21.95270026395736</v>
       </c>
       <c r="P2" t="n">
-        <v>335.3722701096551</v>
+        <v>335.3673094195875</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -28620,28 +28693,28 @@
         <v>0.0728</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.4751343609887327</v>
+        <v>-0.3581250750256237</v>
       </c>
       <c r="J3" t="n">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="K3" t="n">
         <v>201</v>
       </c>
       <c r="L3" t="n">
-        <v>0.003567510716405708</v>
+        <v>0.002083443154897391</v>
       </c>
       <c r="M3" t="n">
-        <v>38.02582277998587</v>
+        <v>37.19073289470935</v>
       </c>
       <c r="N3" t="n">
-        <v>3114.877298336579</v>
+        <v>3034.899471643974</v>
       </c>
       <c r="O3" t="n">
-        <v>55.8110858014479</v>
+        <v>55.08992168849012</v>
       </c>
       <c r="P3" t="n">
-        <v>321.1018944256516</v>
+        <v>319.8075138844727</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -28698,28 +28771,28 @@
         <v>0.2</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.7777157282827041</v>
+        <v>-0.873420051511162</v>
       </c>
       <c r="J4" t="n">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="K4" t="n">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="L4" t="n">
-        <v>0.005660792164738471</v>
+        <v>0.007117654889272074</v>
       </c>
       <c r="M4" t="n">
-        <v>58.33463387192424</v>
+        <v>58.78069339092747</v>
       </c>
       <c r="N4" t="n">
-        <v>5387.928274831076</v>
+        <v>5416.375447481814</v>
       </c>
       <c r="O4" t="n">
-        <v>73.40250864126564</v>
+        <v>73.59602874803649</v>
       </c>
       <c r="P4" t="n">
-        <v>306.3135362685722</v>
+        <v>307.3692747093852</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -28776,28 +28849,28 @@
         <v>0.07770000000000001</v>
       </c>
       <c r="I5" t="n">
-        <v>-1.427648798288717</v>
+        <v>-1.494043163183914</v>
       </c>
       <c r="J5" t="n">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="K5" t="n">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="L5" t="n">
-        <v>0.02091649221915781</v>
+        <v>0.02292130924392655</v>
       </c>
       <c r="M5" t="n">
-        <v>58.30464398991457</v>
+        <v>58.51336480215562</v>
       </c>
       <c r="N5" t="n">
-        <v>4833.668093724521</v>
+        <v>4839.203508238165</v>
       </c>
       <c r="O5" t="n">
-        <v>69.52458625352992</v>
+        <v>69.56438390612085</v>
       </c>
       <c r="P5" t="n">
-        <v>315.7553337469137</v>
+        <v>316.4797130493992</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -28854,28 +28927,28 @@
         <v>0.2</v>
       </c>
       <c r="I6" t="n">
-        <v>0.0589846520459708</v>
+        <v>-0.009764345992929512</v>
       </c>
       <c r="J6" t="n">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="K6" t="n">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="L6" t="n">
-        <v>5.130038179024243e-05</v>
+        <v>1.407994923652289e-06</v>
       </c>
       <c r="M6" t="n">
-        <v>48.9902359954843</v>
+        <v>49.23058328359041</v>
       </c>
       <c r="N6" t="n">
-        <v>3550.983586488505</v>
+        <v>3561.081971877889</v>
       </c>
       <c r="O6" t="n">
-        <v>59.59012994186625</v>
+        <v>59.6748018168296</v>
       </c>
       <c r="P6" t="n">
-        <v>287.6046711244055</v>
+        <v>288.3333577874344</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -28932,28 +29005,28 @@
         <v>0.2</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.4321123531489443</v>
+        <v>-0.4913384244999044</v>
       </c>
       <c r="J7" t="n">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="K7" t="n">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="L7" t="n">
-        <v>0.004669915492391374</v>
+        <v>0.006039106981675868</v>
       </c>
       <c r="M7" t="n">
-        <v>35.76919206943689</v>
+        <v>35.9548382953783</v>
       </c>
       <c r="N7" t="n">
-        <v>1918.909191692708</v>
+        <v>1925.610442805954</v>
       </c>
       <c r="O7" t="n">
-        <v>43.80535574210884</v>
+        <v>43.88177802694364</v>
       </c>
       <c r="P7" t="n">
-        <v>300.1848503118977</v>
+        <v>300.8428689060532</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -29013,7 +29086,7 @@
         <v>0.1890139914885957</v>
       </c>
       <c r="J8" t="n">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="K8" t="n">
         <v>239</v>
@@ -29082,28 +29155,28 @@
       <c r="G9" t="inlineStr"/>
       <c r="H9" t="inlineStr"/>
       <c r="I9" t="n">
-        <v>-0.1072116032927879</v>
+        <v>-0.1421670204148519</v>
       </c>
       <c r="J9" t="n">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="K9" t="n">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="L9" t="n">
-        <v>0.0002672511936007149</v>
+        <v>0.0004720101727302417</v>
       </c>
       <c r="M9" t="n">
-        <v>41.36457200051848</v>
+        <v>41.3578149871563</v>
       </c>
       <c r="N9" t="n">
-        <v>2174.982013824585</v>
+        <v>2173.487159455956</v>
       </c>
       <c r="O9" t="n">
-        <v>46.63670243300426</v>
+        <v>46.62067309097925</v>
       </c>
       <c r="P9" t="n">
-        <v>269.497843720206</v>
+        <v>269.8760830254495</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -29160,28 +29233,28 @@
         <v>0.2</v>
       </c>
       <c r="I10" t="n">
-        <v>-0.7529984404261711</v>
+        <v>-0.7822217467787763</v>
       </c>
       <c r="J10" t="n">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="K10" t="n">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="L10" t="n">
-        <v>0.01303269251280592</v>
+        <v>0.01413717551611193</v>
       </c>
       <c r="M10" t="n">
-        <v>40.1918884553944</v>
+        <v>40.14194204723805</v>
       </c>
       <c r="N10" t="n">
-        <v>2147.355972735814</v>
+        <v>2142.968966487349</v>
       </c>
       <c r="O10" t="n">
-        <v>46.33957242720108</v>
+        <v>46.29221280612268</v>
       </c>
       <c r="P10" t="n">
-        <v>278.7881893075802</v>
+        <v>279.1053357099516</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -29238,28 +29311,28 @@
         <v>0.2</v>
       </c>
       <c r="I11" t="n">
-        <v>-0.1972892781262447</v>
+        <v>-0.2080444498423624</v>
       </c>
       <c r="J11" t="n">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="K11" t="n">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="L11" t="n">
-        <v>0.002340362069824686</v>
+        <v>0.002621097517079951</v>
       </c>
       <c r="M11" t="n">
-        <v>23.46512072055001</v>
+        <v>23.41884805583349</v>
       </c>
       <c r="N11" t="n">
-        <v>797.1243613328095</v>
+        <v>794.766857966984</v>
       </c>
       <c r="O11" t="n">
-        <v>28.23339089328112</v>
+        <v>28.19160970868787</v>
       </c>
       <c r="P11" t="n">
-        <v>282.2074526169288</v>
+        <v>282.3248662219082</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -29310,28 +29383,28 @@
       <c r="G12" t="inlineStr"/>
       <c r="H12" t="inlineStr"/>
       <c r="I12" t="n">
-        <v>-0.5387360198732535</v>
+        <v>-0.5720334866454631</v>
       </c>
       <c r="J12" t="n">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="K12" t="n">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="L12" t="n">
-        <v>0.009951877151896493</v>
+        <v>0.0113704953795295</v>
       </c>
       <c r="M12" t="n">
-        <v>32.44969181716353</v>
+        <v>32.34102408556837</v>
       </c>
       <c r="N12" t="n">
-        <v>1402.182311252276</v>
+        <v>1394.313536758361</v>
       </c>
       <c r="O12" t="n">
-        <v>37.44572487283796</v>
+        <v>37.34050798741711</v>
       </c>
       <c r="P12" t="n">
-        <v>284.9855786489178</v>
+        <v>285.3456093111744</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
@@ -29388,28 +29461,28 @@
         <v>0.2</v>
       </c>
       <c r="I13" t="n">
-        <v>0.2726759551033572</v>
+        <v>0.2605092727565416</v>
       </c>
       <c r="J13" t="n">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="K13" t="n">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="L13" t="n">
-        <v>0.003633421476483045</v>
+        <v>0.003341649904295751</v>
       </c>
       <c r="M13" t="n">
-        <v>26.87012027646252</v>
+        <v>26.81699441629652</v>
       </c>
       <c r="N13" t="n">
-        <v>1014.477060986764</v>
+        <v>1011.303391530011</v>
       </c>
       <c r="O13" t="n">
-        <v>31.85085651888759</v>
+        <v>31.80099670655012</v>
       </c>
       <c r="P13" t="n">
-        <v>291.2486778603757</v>
+        <v>291.3803888641931</v>
       </c>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr">
@@ -29469,7 +29542,7 @@
         <v>0.5157573632313057</v>
       </c>
       <c r="J14" t="n">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="K14" t="n">
         <v>216</v>
@@ -29547,7 +29620,7 @@
         <v>0.1066803103556155</v>
       </c>
       <c r="J15" t="n">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="K15" t="n">
         <v>230</v>
@@ -29622,28 +29695,28 @@
         <v>0.0726</v>
       </c>
       <c r="I16" t="n">
-        <v>0.09030219482942102</v>
+        <v>0.08795013470791331</v>
       </c>
       <c r="J16" t="n">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="K16" t="n">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="L16" t="n">
-        <v>0.0007506909964197783</v>
+        <v>0.0007173520040293369</v>
       </c>
       <c r="M16" t="n">
-        <v>17.22244129330048</v>
+        <v>17.16930442310235</v>
       </c>
       <c r="N16" t="n">
-        <v>542.6257996001859</v>
+        <v>540.6309047757588</v>
       </c>
       <c r="O16" t="n">
-        <v>23.29432977357764</v>
+        <v>23.2514710239107</v>
       </c>
       <c r="P16" t="n">
-        <v>307.9176241501537</v>
+        <v>307.9431920336991</v>
       </c>
       <c r="Q16" t="inlineStr"/>
       <c r="R16" t="inlineStr">
@@ -29700,28 +29773,28 @@
         <v>0.0707</v>
       </c>
       <c r="I17" t="n">
-        <v>0.0158219193835426</v>
+        <v>0.01554170763750287</v>
       </c>
       <c r="J17" t="n">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="K17" t="n">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="L17" t="n">
-        <v>3.977374481345386e-05</v>
+        <v>3.866292398435611e-05</v>
       </c>
       <c r="M17" t="n">
-        <v>13.1499676873636</v>
+        <v>13.10435199005181</v>
       </c>
       <c r="N17" t="n">
-        <v>310.9452182858774</v>
+        <v>309.8391750699332</v>
       </c>
       <c r="O17" t="n">
-        <v>17.63363882713598</v>
+        <v>17.60224914804734</v>
       </c>
       <c r="P17" t="n">
-        <v>321.4100247766879</v>
+        <v>321.4130568784892</v>
       </c>
       <c r="Q17" t="inlineStr"/>
       <c r="R17" t="inlineStr">
@@ -29778,28 +29851,28 @@
         <v>0.1168</v>
       </c>
       <c r="I18" t="n">
-        <v>-0.01532530683775698</v>
+        <v>-0.01999689732792334</v>
       </c>
       <c r="J18" t="n">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="K18" t="n">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="L18" t="n">
-        <v>3.037315644804917e-05</v>
+        <v>5.20526375559216e-05</v>
       </c>
       <c r="M18" t="n">
-        <v>15.6727240366321</v>
+        <v>15.63712587429319</v>
       </c>
       <c r="N18" t="n">
-        <v>399.0477281221607</v>
+        <v>397.8377847772899</v>
       </c>
       <c r="O18" t="n">
-        <v>19.97617901707333</v>
+        <v>19.94587137172227</v>
       </c>
       <c r="P18" t="n">
-        <v>323.1110470010006</v>
+        <v>323.1603657838584</v>
       </c>
       <c r="Q18" t="inlineStr"/>
       <c r="R18" t="inlineStr">
@@ -29856,28 +29929,28 @@
         <v>0.0864</v>
       </c>
       <c r="I19" t="n">
-        <v>0.1802059853728924</v>
+        <v>0.1749309502591968</v>
       </c>
       <c r="J19" t="n">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="K19" t="n">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="L19" t="n">
-        <v>0.00338950323343068</v>
+        <v>0.003215728332925383</v>
       </c>
       <c r="M19" t="n">
-        <v>17.44081424086351</v>
+        <v>17.40445865638741</v>
       </c>
       <c r="N19" t="n">
-        <v>472.4615611372528</v>
+        <v>471.0504105051635</v>
       </c>
       <c r="O19" t="n">
-        <v>21.73618092345693</v>
+        <v>21.70369577987038</v>
       </c>
       <c r="P19" t="n">
-        <v>329.6505905617344</v>
+        <v>329.7077203514919</v>
       </c>
       <c r="Q19" t="inlineStr"/>
       <c r="R19" t="inlineStr">
@@ -29934,28 +30007,28 @@
         <v>0.0648</v>
       </c>
       <c r="I20" t="n">
-        <v>0.1205541196208491</v>
+        <v>0.1164144358919034</v>
       </c>
       <c r="J20" t="n">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="K20" t="n">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="L20" t="n">
-        <v>0.001743961841885078</v>
+        <v>0.001637239992022921</v>
       </c>
       <c r="M20" t="n">
-        <v>15.73879156842117</v>
+        <v>15.70550068873133</v>
       </c>
       <c r="N20" t="n">
-        <v>411.1922251924614</v>
+        <v>409.948413869095</v>
       </c>
       <c r="O20" t="n">
-        <v>20.27787526326319</v>
+        <v>20.24718286253905</v>
       </c>
       <c r="P20" t="n">
-        <v>340.4066908809103</v>
+        <v>340.4514611351863</v>
       </c>
       <c r="Q20" t="inlineStr"/>
       <c r="R20" t="inlineStr">
@@ -30012,28 +30085,28 @@
         <v>0.08169999999999999</v>
       </c>
       <c r="I21" t="n">
-        <v>-0.1938775850614178</v>
+        <v>-0.2017987551203776</v>
       </c>
       <c r="J21" t="n">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="K21" t="n">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="L21" t="n">
-        <v>0.004550468746017389</v>
+        <v>0.00495859343649141</v>
       </c>
       <c r="M21" t="n">
-        <v>14.8162587292158</v>
+        <v>14.79660977308999</v>
       </c>
       <c r="N21" t="n">
-        <v>391.8870457335855</v>
+        <v>390.8734797628113</v>
       </c>
       <c r="O21" t="n">
-        <v>19.79613714171493</v>
+        <v>19.77052047273443</v>
       </c>
       <c r="P21" t="n">
-        <v>345.3065138325169</v>
+        <v>345.3951807269437</v>
       </c>
       <c r="Q21" t="inlineStr"/>
       <c r="R21" t="inlineStr">
@@ -30090,28 +30163,28 @@
         <v>0.1058</v>
       </c>
       <c r="I22" t="n">
-        <v>-1.199382240362954</v>
+        <v>-0.7268767566924772</v>
       </c>
       <c r="J22" t="n">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="K22" t="n">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="L22" t="n">
-        <v>0.03830069217365684</v>
+        <v>0.01901990417149302</v>
       </c>
       <c r="M22" t="n">
-        <v>23.71657163976766</v>
+        <v>20.65764700462467</v>
       </c>
       <c r="N22" t="n">
-        <v>1679.995634863083</v>
+        <v>1258.207190807792</v>
       </c>
       <c r="O22" t="n">
-        <v>40.98774981458585</v>
+        <v>35.47121637056998</v>
       </c>
       <c r="P22" t="n">
-        <v>345.1637081261254</v>
+        <v>339.7705519551996</v>
       </c>
       <c r="Q22" t="inlineStr"/>
       <c r="R22" t="inlineStr">
@@ -30149,7 +30222,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W400"/>
+  <dimension ref="A1:W401"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -63692,11 +63765,7 @@
           <t>-37.67275030724084,174.80612777664837</t>
         </is>
       </c>
-      <c r="V398" t="inlineStr">
-        <is>
-          <t>-37.67129839673669,174.80776271526057</t>
-        </is>
-      </c>
+      <c r="V398" t="inlineStr"/>
       <c r="W398" t="inlineStr">
         <is>
           <t>L9</t>
@@ -63801,11 +63870,7 @@
           <t>-37.672845444724004,174.80584878622284</t>
         </is>
       </c>
-      <c r="V399" t="inlineStr">
-        <is>
-          <t>-37.67129074960613,174.80778217526387</t>
-        </is>
-      </c>
+      <c r="V399" t="inlineStr"/>
       <c r="W399" t="inlineStr">
         <is>
           <t>L8</t>
@@ -63823,11 +63888,7 @@
           <t>-37.685577296982714,174.81153731663252</t>
         </is>
       </c>
-      <c r="C400" t="inlineStr">
-        <is>
-          <t>-37.68430575813433,174.81313049136756</t>
-        </is>
-      </c>
+      <c r="C400" t="inlineStr"/>
       <c r="D400" t="inlineStr">
         <is>
           <t>-37.683623832314346,174.81286594319388</t>
@@ -63864,7 +63925,11 @@
           <t>-37.679272898878864,174.80970766305717</t>
         </is>
       </c>
-      <c r="L400" t="inlineStr"/>
+      <c r="L400" t="inlineStr">
+        <is>
+          <t>-37.678559493993056,174.80954632838257</t>
+        </is>
+      </c>
       <c r="M400" t="inlineStr">
         <is>
           <t>-37.67813189003359,174.80846172345352</t>
@@ -63910,12 +63975,113 @@
           <t>-37.67275240833164,174.80612161523328</t>
         </is>
       </c>
-      <c r="V400" t="inlineStr">
-        <is>
-          <t>-37.6713531644761,174.80762334493429</t>
-        </is>
-      </c>
+      <c r="V400" t="inlineStr"/>
       <c r="W400" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="401">
+      <c r="A401" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-10 22:06:04+00:00</t>
+        </is>
+      </c>
+      <c r="B401" t="inlineStr">
+        <is>
+          <t>-37.68545703576449,174.8119162354977</t>
+        </is>
+      </c>
+      <c r="C401" t="inlineStr">
+        <is>
+          <t>-37.684710963732975,174.81185382094526</t>
+        </is>
+      </c>
+      <c r="D401" t="inlineStr">
+        <is>
+          <t>-37.683631204176166,174.812842717463</t>
+        </is>
+      </c>
+      <c r="E401" t="inlineStr">
+        <is>
+          <t>-37.683037822017226,174.81229918497675</t>
+        </is>
+      </c>
+      <c r="F401" t="inlineStr">
+        <is>
+          <t>-37.682417774452276,174.81183964561035</t>
+        </is>
+      </c>
+      <c r="G401" t="inlineStr">
+        <is>
+          <t>-37.681815950064646,174.81132267281745</t>
+        </is>
+      </c>
+      <c r="H401" t="inlineStr"/>
+      <c r="I401" t="inlineStr">
+        <is>
+          <t>-37.68046848020071,174.8107668491018</t>
+        </is>
+      </c>
+      <c r="J401" t="inlineStr">
+        <is>
+          <t>-37.679810732147175,174.8104361399471</t>
+        </is>
+      </c>
+      <c r="K401" t="inlineStr">
+        <is>
+          <t>-37.67927057702121,174.8097151635576</t>
+        </is>
+      </c>
+      <c r="L401" t="inlineStr">
+        <is>
+          <t>-37.67856582730852,174.80952586945696</t>
+        </is>
+      </c>
+      <c r="M401" t="inlineStr">
+        <is>
+          <t>-37.678003205097724,174.80887743021336</t>
+        </is>
+      </c>
+      <c r="N401" t="inlineStr"/>
+      <c r="O401" t="inlineStr"/>
+      <c r="P401" t="inlineStr">
+        <is>
+          <t>-37.67609803921152,174.80771695918475</t>
+        </is>
+      </c>
+      <c r="Q401" t="inlineStr">
+        <is>
+          <t>-37.67546338689374,174.80730365541368</t>
+        </is>
+      </c>
+      <c r="R401" t="inlineStr">
+        <is>
+          <t>-37.67476774225063,174.80710347154903</t>
+        </is>
+      </c>
+      <c r="S401" t="inlineStr">
+        <is>
+          <t>-37.67411687714965,174.80672540541974</t>
+        </is>
+      </c>
+      <c r="T401" t="inlineStr">
+        <is>
+          <t>-37.673461717578164,174.80634694774946</t>
+        </is>
+      </c>
+      <c r="U401" t="inlineStr">
+        <is>
+          <t>-37.67275156079022,174.8061241006351</t>
+        </is>
+      </c>
+      <c r="V401" t="inlineStr">
+        <is>
+          <t>-37.672040193506476,174.80587497385167</t>
+        </is>
+      </c>
+      <c r="W401" t="inlineStr">
         <is>
           <t>L9</t>
         </is>

--- a/data/nzd0216/nzd0216.xlsx
+++ b/data/nzd0216/nzd0216.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W401"/>
+  <dimension ref="A1:W402"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -23917,9 +23917,7 @@
       <c r="K400" t="n">
         <v>264.43</v>
       </c>
-      <c r="L400" t="n">
-        <v>249.8066666666667</v>
-      </c>
+      <c r="L400" t="inlineStr"/>
       <c r="M400" t="n">
         <v>322.5814285714285</v>
       </c>
@@ -23988,14 +23986,16 @@
       <c r="K401" t="n">
         <v>263.72</v>
       </c>
-      <c r="L401" t="n">
-        <v>251.7433333333333</v>
-      </c>
+      <c r="L401" t="inlineStr"/>
       <c r="M401" t="n">
         <v>283.23</v>
       </c>
-      <c r="N401" t="inlineStr"/>
-      <c r="O401" t="inlineStr"/>
+      <c r="N401" t="n">
+        <v>269.1794871794872</v>
+      </c>
+      <c r="O401" t="n">
+        <v>267.9166666666667</v>
+      </c>
       <c r="P401" t="n">
         <v>307.0733333333333</v>
       </c>
@@ -24018,6 +24018,61 @@
         <v>315.19</v>
       </c>
       <c r="W401" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="402">
+      <c r="A402" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-27 22:06:18+00:00</t>
+        </is>
+      </c>
+      <c r="B402" t="inlineStr"/>
+      <c r="C402" t="inlineStr"/>
+      <c r="D402" t="inlineStr"/>
+      <c r="E402" t="inlineStr"/>
+      <c r="F402" t="inlineStr"/>
+      <c r="G402" t="inlineStr"/>
+      <c r="H402" t="inlineStr"/>
+      <c r="I402" t="inlineStr"/>
+      <c r="J402" t="inlineStr"/>
+      <c r="K402" t="inlineStr"/>
+      <c r="L402" t="n">
+        <v>308.7166666666667</v>
+      </c>
+      <c r="M402" t="n">
+        <v>291.3742857142857</v>
+      </c>
+      <c r="N402" t="n">
+        <v>270.5335897435897</v>
+      </c>
+      <c r="O402" t="n">
+        <v>285.1633333333333</v>
+      </c>
+      <c r="P402" t="n">
+        <v>306.1566666666667</v>
+      </c>
+      <c r="Q402" t="n">
+        <v>323.5866666666667</v>
+      </c>
+      <c r="R402" t="n">
+        <v>326.8636842105263</v>
+      </c>
+      <c r="S402" t="n">
+        <v>341.3657142857143</v>
+      </c>
+      <c r="T402" t="n">
+        <v>346.170909090909</v>
+      </c>
+      <c r="U402" t="n">
+        <v>338.9457142857143</v>
+      </c>
+      <c r="V402" t="n">
+        <v>321.945</v>
+      </c>
+      <c r="W402" t="inlineStr">
         <is>
           <t>L9</t>
         </is>
@@ -24034,7 +24089,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B440"/>
+  <dimension ref="A1:B441"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -28442,6 +28497,16 @@
       </c>
       <c r="B440" t="n">
         <v>1.4</v>
+      </c>
+    </row>
+    <row r="441">
+      <c r="A441" t="inlineStr">
+        <is>
+          <t>2025-09-27 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B441" t="n">
+        <v>-0.05</v>
       </c>
     </row>
   </sheetData>
@@ -28618,7 +28683,7 @@
         <v>-0.2777727688513084</v>
       </c>
       <c r="J2" t="n">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="K2" t="n">
         <v>236</v>
@@ -28696,7 +28761,7 @@
         <v>-0.3581250750256237</v>
       </c>
       <c r="J3" t="n">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="K3" t="n">
         <v>201</v>
@@ -28774,7 +28839,7 @@
         <v>-0.873420051511162</v>
       </c>
       <c r="J4" t="n">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="K4" t="n">
         <v>206</v>
@@ -28852,7 +28917,7 @@
         <v>-1.494043163183914</v>
       </c>
       <c r="J5" t="n">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="K5" t="n">
         <v>225</v>
@@ -28930,7 +28995,7 @@
         <v>-0.009764345992929512</v>
       </c>
       <c r="J6" t="n">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="K6" t="n">
         <v>209</v>
@@ -29008,7 +29073,7 @@
         <v>-0.4913384244999044</v>
       </c>
       <c r="J7" t="n">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="K7" t="n">
         <v>195</v>
@@ -29086,7 +29151,7 @@
         <v>0.1890139914885957</v>
       </c>
       <c r="J8" t="n">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="K8" t="n">
         <v>239</v>
@@ -29158,7 +29223,7 @@
         <v>-0.1421670204148519</v>
       </c>
       <c r="J9" t="n">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="K9" t="n">
         <v>239</v>
@@ -29236,7 +29301,7 @@
         <v>-0.7822217467787763</v>
       </c>
       <c r="J10" t="n">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="K10" t="n">
         <v>230</v>
@@ -29314,7 +29379,7 @@
         <v>-0.2080444498423624</v>
       </c>
       <c r="J11" t="n">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="K11" t="n">
         <v>263</v>
@@ -29383,28 +29448,28 @@
       <c r="G12" t="inlineStr"/>
       <c r="H12" t="inlineStr"/>
       <c r="I12" t="n">
-        <v>-0.5720334866454631</v>
+        <v>-0.5069461357121015</v>
       </c>
       <c r="J12" t="n">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="K12" t="n">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="L12" t="n">
-        <v>0.0113704953795295</v>
+        <v>0.008864802412872241</v>
       </c>
       <c r="M12" t="n">
-        <v>32.34102408556837</v>
+        <v>32.47718695618194</v>
       </c>
       <c r="N12" t="n">
-        <v>1394.313536758361</v>
+        <v>1402.193941707751</v>
       </c>
       <c r="O12" t="n">
-        <v>37.34050798741711</v>
+        <v>37.44588017002339</v>
       </c>
       <c r="P12" t="n">
-        <v>285.3456093111744</v>
+        <v>284.639631156185</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
@@ -29461,28 +29526,28 @@
         <v>0.2</v>
       </c>
       <c r="I13" t="n">
-        <v>0.2605092727565416</v>
+        <v>0.2550354891833916</v>
       </c>
       <c r="J13" t="n">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="K13" t="n">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="L13" t="n">
-        <v>0.003341649904295751</v>
+        <v>0.003229042177006258</v>
       </c>
       <c r="M13" t="n">
-        <v>26.81699441629652</v>
+        <v>26.7339724776601</v>
       </c>
       <c r="N13" t="n">
-        <v>1011.303391530011</v>
+        <v>1007.439449919692</v>
       </c>
       <c r="O13" t="n">
-        <v>31.80099670655012</v>
+        <v>31.74018667115384</v>
       </c>
       <c r="P13" t="n">
-        <v>291.3803888641931</v>
+        <v>291.4399970521333</v>
       </c>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr">
@@ -29539,28 +29604,28 @@
         <v>0.2</v>
       </c>
       <c r="I14" t="n">
-        <v>0.5157573632313057</v>
+        <v>0.4773319486741679</v>
       </c>
       <c r="J14" t="n">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="K14" t="n">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="L14" t="n">
-        <v>0.01670226708491629</v>
+        <v>0.0145593847939105</v>
       </c>
       <c r="M14" t="n">
-        <v>22.66117940515392</v>
+        <v>22.60239925968148</v>
       </c>
       <c r="N14" t="n">
-        <v>833.4783107877878</v>
+        <v>829.7505479864295</v>
       </c>
       <c r="O14" t="n">
-        <v>28.87002443344632</v>
+        <v>28.80539095354252</v>
       </c>
       <c r="P14" t="n">
-        <v>277.4553074566355</v>
+        <v>277.8454706576703</v>
       </c>
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr">
@@ -29617,28 +29682,28 @@
         <v>0.1895</v>
       </c>
       <c r="I15" t="n">
-        <v>0.1066803103556155</v>
+        <v>0.1018763059349659</v>
       </c>
       <c r="J15" t="n">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="K15" t="n">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="L15" t="n">
-        <v>0.0005425574507621489</v>
+        <v>0.0005033163046296307</v>
       </c>
       <c r="M15" t="n">
-        <v>25.85030562954885</v>
+        <v>25.7011530247905</v>
       </c>
       <c r="N15" t="n">
-        <v>1091.776368035305</v>
+        <v>1083.075141526765</v>
       </c>
       <c r="O15" t="n">
-        <v>33.04203940490515</v>
+        <v>32.9101069813935</v>
       </c>
       <c r="P15" t="n">
-        <v>276.6751509141971</v>
+        <v>276.725173351454</v>
       </c>
       <c r="Q15" t="inlineStr"/>
       <c r="R15" t="inlineStr">
@@ -29695,28 +29760,28 @@
         <v>0.0726</v>
       </c>
       <c r="I16" t="n">
-        <v>0.08795013470791331</v>
+        <v>0.08493130287921882</v>
       </c>
       <c r="J16" t="n">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="K16" t="n">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="L16" t="n">
-        <v>0.0007173520040293369</v>
+        <v>0.0006739249709870609</v>
       </c>
       <c r="M16" t="n">
-        <v>17.16930442310235</v>
+        <v>17.1196198665529</v>
       </c>
       <c r="N16" t="n">
-        <v>540.6309047757588</v>
+        <v>538.6747807943859</v>
       </c>
       <c r="O16" t="n">
-        <v>23.2514710239107</v>
+        <v>23.20936838421903</v>
       </c>
       <c r="P16" t="n">
-        <v>307.9431920336991</v>
+        <v>307.9762078712496</v>
       </c>
       <c r="Q16" t="inlineStr"/>
       <c r="R16" t="inlineStr">
@@ -29773,28 +29838,28 @@
         <v>0.0707</v>
       </c>
       <c r="I17" t="n">
-        <v>0.01554170763750287</v>
+        <v>0.01683019518727286</v>
       </c>
       <c r="J17" t="n">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="K17" t="n">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="L17" t="n">
-        <v>3.866292398435611e-05</v>
+        <v>4.567858732584806e-05</v>
       </c>
       <c r="M17" t="n">
-        <v>13.10435199005181</v>
+        <v>13.06496166418218</v>
       </c>
       <c r="N17" t="n">
-        <v>309.8391750699332</v>
+        <v>308.751440691866</v>
       </c>
       <c r="O17" t="n">
-        <v>17.60224914804734</v>
+        <v>17.57132438639347</v>
       </c>
       <c r="P17" t="n">
-        <v>321.4130568784892</v>
+        <v>321.3990336389251</v>
       </c>
       <c r="Q17" t="inlineStr"/>
       <c r="R17" t="inlineStr">
@@ -29851,28 +29916,28 @@
         <v>0.1168</v>
       </c>
       <c r="I18" t="n">
-        <v>-0.01999689732792334</v>
+        <v>-0.01712642615896188</v>
       </c>
       <c r="J18" t="n">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="K18" t="n">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="L18" t="n">
-        <v>5.20526375559216e-05</v>
+        <v>3.844658695129066e-05</v>
       </c>
       <c r="M18" t="n">
-        <v>15.63712587429319</v>
+        <v>15.60116428144454</v>
       </c>
       <c r="N18" t="n">
-        <v>397.8377847772899</v>
+        <v>396.5357570230844</v>
       </c>
       <c r="O18" t="n">
-        <v>19.94587137172227</v>
+        <v>19.91320559385365</v>
       </c>
       <c r="P18" t="n">
-        <v>323.1603657838584</v>
+        <v>323.1298770998171</v>
       </c>
       <c r="Q18" t="inlineStr"/>
       <c r="R18" t="inlineStr">
@@ -29929,28 +29994,28 @@
         <v>0.0864</v>
       </c>
       <c r="I19" t="n">
-        <v>0.1749309502591968</v>
+        <v>0.1798623194286285</v>
       </c>
       <c r="J19" t="n">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="K19" t="n">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="L19" t="n">
-        <v>0.003215728332925383</v>
+        <v>0.003421918763483522</v>
       </c>
       <c r="M19" t="n">
-        <v>17.40445865638741</v>
+        <v>17.37206894104387</v>
       </c>
       <c r="N19" t="n">
-        <v>471.0504105051635</v>
+        <v>469.623384937025</v>
       </c>
       <c r="O19" t="n">
-        <v>21.70369577987038</v>
+        <v>21.67079566921863</v>
       </c>
       <c r="P19" t="n">
-        <v>329.7077203514919</v>
+        <v>329.6540008845624</v>
       </c>
       <c r="Q19" t="inlineStr"/>
       <c r="R19" t="inlineStr">
@@ -30007,28 +30072,28 @@
         <v>0.0648</v>
       </c>
       <c r="I20" t="n">
-        <v>0.1164144358919034</v>
+        <v>0.1182489242633396</v>
       </c>
       <c r="J20" t="n">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="K20" t="n">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="L20" t="n">
-        <v>0.001637239992022921</v>
+        <v>0.00170092732593552</v>
       </c>
       <c r="M20" t="n">
-        <v>15.70550068873133</v>
+        <v>15.66283214204124</v>
       </c>
       <c r="N20" t="n">
-        <v>409.948413869095</v>
+        <v>408.6147781370509</v>
       </c>
       <c r="O20" t="n">
-        <v>20.24718286253905</v>
+        <v>20.21422217492058</v>
       </c>
       <c r="P20" t="n">
-        <v>340.4514611351863</v>
+        <v>340.4315064302956</v>
       </c>
       <c r="Q20" t="inlineStr"/>
       <c r="R20" t="inlineStr">
@@ -30085,28 +30150,28 @@
         <v>0.08169999999999999</v>
       </c>
       <c r="I21" t="n">
-        <v>-0.2017987551203776</v>
+        <v>-0.2026951065312384</v>
       </c>
       <c r="J21" t="n">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="K21" t="n">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="L21" t="n">
-        <v>0.00495859343649141</v>
+        <v>0.00503920432253202</v>
       </c>
       <c r="M21" t="n">
-        <v>14.79660977308999</v>
+        <v>14.74680543994147</v>
       </c>
       <c r="N21" t="n">
-        <v>390.8734797628113</v>
+        <v>389.4624956856838</v>
       </c>
       <c r="O21" t="n">
-        <v>19.77052047273443</v>
+        <v>19.73480417145516</v>
       </c>
       <c r="P21" t="n">
-        <v>345.3951807269437</v>
+        <v>345.4052727633145</v>
       </c>
       <c r="Q21" t="inlineStr"/>
       <c r="R21" t="inlineStr">
@@ -30163,28 +30228,28 @@
         <v>0.1058</v>
       </c>
       <c r="I22" t="n">
-        <v>-0.7268767566924772</v>
+        <v>-0.7259458933071155</v>
       </c>
       <c r="J22" t="n">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="K22" t="n">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="L22" t="n">
-        <v>0.01901990417149302</v>
+        <v>0.01913157381427366</v>
       </c>
       <c r="M22" t="n">
-        <v>20.65764700462467</v>
+        <v>20.57311656343138</v>
       </c>
       <c r="N22" t="n">
-        <v>1258.207190807792</v>
+        <v>1252.857805478909</v>
       </c>
       <c r="O22" t="n">
-        <v>35.47121637056998</v>
+        <v>35.39573145845285</v>
       </c>
       <c r="P22" t="n">
-        <v>339.7705519551996</v>
+        <v>339.7598048789906</v>
       </c>
       <c r="Q22" t="inlineStr"/>
       <c r="R22" t="inlineStr">
@@ -30222,7 +30287,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W401"/>
+  <dimension ref="A1:W402"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -63925,11 +63990,7 @@
           <t>-37.679272898878864,174.80970766305717</t>
         </is>
       </c>
-      <c r="L400" t="inlineStr">
-        <is>
-          <t>-37.678559493993056,174.80954632838257</t>
-        </is>
-      </c>
+      <c r="L400" t="inlineStr"/>
       <c r="M400" t="inlineStr">
         <is>
           <t>-37.67813189003359,174.80846172345352</t>
@@ -64034,18 +64095,22 @@
           <t>-37.67927057702121,174.8097151635576</t>
         </is>
       </c>
-      <c r="L401" t="inlineStr">
-        <is>
-          <t>-37.67856582730852,174.80952586945696</t>
-        </is>
-      </c>
+      <c r="L401" t="inlineStr"/>
       <c r="M401" t="inlineStr">
         <is>
           <t>-37.678003205097724,174.80887743021336</t>
         </is>
       </c>
-      <c r="N401" t="inlineStr"/>
-      <c r="O401" t="inlineStr"/>
+      <c r="N401" t="inlineStr">
+        <is>
+          <t>-37.67729166194448,174.80871004374896</t>
+        </is>
+      </c>
+      <c r="O401" t="inlineStr">
+        <is>
+          <t>-37.676635011682976,174.8084137581979</t>
+        </is>
+      </c>
       <c r="P401" t="inlineStr">
         <is>
           <t>-37.67609803921152,174.80771695918475</t>
@@ -64082,6 +64147,83 @@
         </is>
       </c>
       <c r="W401" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="402">
+      <c r="A402" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-27 22:06:18+00:00</t>
+        </is>
+      </c>
+      <c r="B402" t="inlineStr"/>
+      <c r="C402" t="inlineStr"/>
+      <c r="D402" t="inlineStr"/>
+      <c r="E402" t="inlineStr"/>
+      <c r="F402" t="inlineStr"/>
+      <c r="G402" t="inlineStr"/>
+      <c r="H402" t="inlineStr"/>
+      <c r="I402" t="inlineStr"/>
+      <c r="J402" t="inlineStr"/>
+      <c r="K402" t="inlineStr"/>
+      <c r="L402" t="inlineStr">
+        <is>
+          <t>-37.678752140778535,174.80892400217084</t>
+        </is>
+      </c>
+      <c r="M402" t="inlineStr">
+        <is>
+          <t>-37.67802983822252,174.80879139445955</t>
+        </is>
+      </c>
+      <c r="N402" t="inlineStr">
+        <is>
+          <t>-37.67729609007275,174.80869573922473</t>
+        </is>
+      </c>
+      <c r="O402" t="inlineStr">
+        <is>
+          <t>-37.67668891665253,174.80823037729965</t>
+        </is>
+      </c>
+      <c r="P402" t="inlineStr">
+        <is>
+          <t>-37.676095426038295,174.80772681729493</t>
+        </is>
+      </c>
+      <c r="Q402" t="inlineStr">
+        <is>
+          <t>-37.67546924603713,174.8072803837079</t>
+        </is>
+      </c>
+      <c r="R402" t="inlineStr">
+        <is>
+          <t>-37.67479777292816,174.8069841941665</t>
+        </is>
+      </c>
+      <c r="S402" t="inlineStr">
+        <is>
+          <t>-37.674156835786604,174.80656669511652</t>
+        </is>
+      </c>
+      <c r="T402" t="inlineStr">
+        <is>
+          <t>-37.673487180596645,174.80625311475032</t>
+        </is>
+      </c>
+      <c r="U402" t="inlineStr">
+        <is>
+          <t>-37.6727847620454,174.8060267383251</t>
+        </is>
+      </c>
+      <c r="V402" t="inlineStr">
+        <is>
+          <t>-37.67206716701837,174.80580632890715</t>
+        </is>
+      </c>
+      <c r="W402" t="inlineStr">
         <is>
           <t>L9</t>
         </is>

--- a/data/nzd0216/nzd0216.xlsx
+++ b/data/nzd0216/nzd0216.xlsx
@@ -28671,13 +28671,13 @@
         <v>1</v>
       </c>
       <c r="F2" t="n">
-        <v>0.03</v>
+        <v>0.04</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0242</v>
+        <v>0.0341</v>
       </c>
       <c r="H2" t="n">
-        <v>0.036</v>
+        <v>0.0451</v>
       </c>
       <c r="I2" t="n">
         <v>-0.2777509379992886</v>
@@ -28749,13 +28749,13 @@
         <v>0.9499926577566496</v>
       </c>
       <c r="F3" t="n">
-        <v>0.05</v>
+        <v>0.035</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0369</v>
+        <v>0.0276</v>
       </c>
       <c r="H3" t="n">
-        <v>0.0728</v>
+        <v>0.0413</v>
       </c>
       <c r="I3" t="n">
         <v>-0.3581250750256239</v>
@@ -28827,13 +28827,13 @@
         <v>0.8999853155128646</v>
       </c>
       <c r="F4" t="n">
-        <v>0.145</v>
+        <v>0.025</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0746</v>
+        <v>0.0236</v>
       </c>
       <c r="H4" t="n">
-        <v>0.2</v>
+        <v>0.0312</v>
       </c>
       <c r="I4" t="n">
         <v>-0.8734299930409229</v>
@@ -28905,13 +28905,13 @@
         <v>0.8499779732695143</v>
       </c>
       <c r="F5" t="n">
-        <v>0.045</v>
+        <v>0.03</v>
       </c>
       <c r="G5" t="n">
-        <v>0.0314</v>
+        <v>0.0274</v>
       </c>
       <c r="H5" t="n">
-        <v>0.07770000000000001</v>
+        <v>0.0406</v>
       </c>
       <c r="I5" t="n">
         <v>-1.494020189496844</v>
@@ -28983,13 +28983,13 @@
         <v>0.7999706310257293</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1</v>
+        <v>0.035</v>
       </c>
       <c r="G6" t="n">
-        <v>0.0603</v>
+        <v>0.0293</v>
       </c>
       <c r="H6" t="n">
-        <v>0.2</v>
+        <v>0.0429</v>
       </c>
       <c r="I6" t="n">
         <v>-0.009764345992929054</v>
@@ -29061,13 +29061,13 @@
         <v>0.7499632887819443</v>
       </c>
       <c r="F7" t="n">
-        <v>0.115</v>
+        <v>0.045</v>
       </c>
       <c r="G7" t="n">
-        <v>0.0672</v>
+        <v>0.0378</v>
       </c>
       <c r="H7" t="n">
-        <v>0.2</v>
+        <v>0.0549</v>
       </c>
       <c r="I7" t="n">
         <v>-0.4913824254301726</v>
@@ -29139,13 +29139,13 @@
         <v>0.6999559465381594</v>
       </c>
       <c r="F8" t="n">
-        <v>0.13</v>
+        <v>0.04</v>
       </c>
       <c r="G8" t="n">
-        <v>0.0795</v>
+        <v>0.0337</v>
       </c>
       <c r="H8" t="n">
-        <v>0.2</v>
+        <v>0.0527</v>
       </c>
       <c r="I8" t="n">
         <v>0.189049716950594</v>
@@ -29216,9 +29216,15 @@
       <c r="E9" t="n">
         <v>0.6499490485718002</v>
       </c>
-      <c r="F9" t="inlineStr"/>
-      <c r="G9" t="inlineStr"/>
-      <c r="H9" t="inlineStr"/>
+      <c r="F9" t="n">
+        <v>0.035</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0.0293</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0.0423</v>
+      </c>
       <c r="I9" t="n">
         <v>-0.1421947630750505</v>
       </c>
@@ -29289,13 +29295,13 @@
         <v>0.5999417063279574</v>
       </c>
       <c r="F10" t="n">
-        <v>0.185</v>
+        <v>0.04</v>
       </c>
       <c r="G10" t="n">
-        <v>0.0927</v>
+        <v>0.0318</v>
       </c>
       <c r="H10" t="n">
-        <v>0.2</v>
+        <v>0.0559</v>
       </c>
       <c r="I10" t="n">
         <v>-0.782193248657752</v>
@@ -29367,13 +29373,13 @@
         <v>0.5499343640841144</v>
       </c>
       <c r="F11" t="n">
-        <v>0.125</v>
+        <v>0.06</v>
       </c>
       <c r="G11" t="n">
-        <v>0.0859</v>
+        <v>0.0491</v>
       </c>
       <c r="H11" t="n">
-        <v>0.2</v>
+        <v>0.0741</v>
       </c>
       <c r="I11" t="n">
         <v>-0.2080444498423624</v>
@@ -29444,9 +29450,15 @@
       <c r="E12" t="n">
         <v>0.4999270218402715</v>
       </c>
-      <c r="F12" t="inlineStr"/>
-      <c r="G12" t="inlineStr"/>
-      <c r="H12" t="inlineStr"/>
+      <c r="F12" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0.036</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0.056</v>
+      </c>
       <c r="I12" t="n">
         <v>-0.5069581022047683</v>
       </c>
@@ -29517,13 +29529,13 @@
         <v>0.4499196795964285</v>
       </c>
       <c r="F13" t="n">
-        <v>0.175</v>
+        <v>0.04</v>
       </c>
       <c r="G13" t="n">
-        <v>0.1177</v>
+        <v>0.0332</v>
       </c>
       <c r="H13" t="n">
-        <v>0.2</v>
+        <v>0.0482</v>
       </c>
       <c r="I13" t="n">
         <v>0.2549949265391173</v>
@@ -29595,13 +29607,13 @@
         <v>0.3999123373528046</v>
       </c>
       <c r="F14" t="n">
-        <v>0.195</v>
+        <v>0.03</v>
       </c>
       <c r="G14" t="n">
-        <v>0.1216</v>
+        <v>0.0259</v>
       </c>
       <c r="H14" t="n">
-        <v>0.2</v>
+        <v>0.0363</v>
       </c>
       <c r="I14" t="n">
         <v>0.4773240222747422</v>
@@ -29673,13 +29685,13 @@
         <v>0.3499049951091807</v>
       </c>
       <c r="F15" t="n">
-        <v>0.12</v>
+        <v>0.04</v>
       </c>
       <c r="G15" t="n">
-        <v>0.09</v>
+        <v>0.0342</v>
       </c>
       <c r="H15" t="n">
-        <v>0.1895</v>
+        <v>0.0495</v>
       </c>
       <c r="I15" t="n">
         <v>0.1018886328925344</v>
@@ -29751,13 +29763,13 @@
         <v>0.2999237170579636</v>
       </c>
       <c r="F16" t="n">
-        <v>0.06</v>
+        <v>0.045</v>
       </c>
       <c r="G16" t="n">
-        <v>0.0539</v>
+        <v>0.04</v>
       </c>
       <c r="H16" t="n">
-        <v>0.0726</v>
+        <v>0.0483</v>
       </c>
       <c r="I16" t="n">
         <v>0.08491233271278478</v>
@@ -29829,13 +29841,13 @@
         <v>0.2499163748141856</v>
       </c>
       <c r="F17" t="n">
-        <v>0.06</v>
+        <v>0.05</v>
       </c>
       <c r="G17" t="n">
-        <v>0.0539</v>
+        <v>0.0441</v>
       </c>
       <c r="H17" t="n">
-        <v>0.0707</v>
+        <v>0.0533</v>
       </c>
       <c r="I17" t="n">
         <v>0.01681871324141856</v>
@@ -29907,13 +29919,13 @@
         <v>0.1999090325708534</v>
       </c>
       <c r="F18" t="n">
-        <v>0.095</v>
+        <v>0.045</v>
       </c>
       <c r="G18" t="n">
-        <v>0.0784</v>
+        <v>0.0371</v>
       </c>
       <c r="H18" t="n">
-        <v>0.1168</v>
+        <v>0.057</v>
       </c>
       <c r="I18" t="n">
         <v>-0.0171120200076166</v>
@@ -29985,13 +29997,13 @@
         <v>0.1499016903275212</v>
       </c>
       <c r="F19" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.03</v>
       </c>
       <c r="G19" t="n">
-        <v>0.0572</v>
+        <v>0.0291</v>
       </c>
       <c r="H19" t="n">
-        <v>0.0864</v>
+        <v>0.037</v>
       </c>
       <c r="I19" t="n">
         <v>0.1798717593737852</v>
@@ -30063,13 +30075,13 @@
         <v>0.0998943480841889</v>
       </c>
       <c r="F20" t="n">
-        <v>0.055</v>
+        <v>0.05</v>
       </c>
       <c r="G20" t="n">
-        <v>0.0512</v>
+        <v>0.0415</v>
       </c>
       <c r="H20" t="n">
-        <v>0.0648</v>
+        <v>0.0606</v>
       </c>
       <c r="I20" t="n">
         <v>0.1182637048209606</v>
@@ -30144,10 +30156,10 @@
         <v>0.07000000000000001</v>
       </c>
       <c r="G21" t="n">
-        <v>0.0589</v>
+        <v>0.0527</v>
       </c>
       <c r="H21" t="n">
-        <v>0.08169999999999999</v>
+        <v>0.1024</v>
       </c>
       <c r="I21" t="n">
         <v>-0.2026776232763282</v>
@@ -30219,13 +30231,13 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0.08</v>
+        <v>0.045</v>
       </c>
       <c r="G22" t="n">
-        <v>0.0638</v>
+        <v>0.0349</v>
       </c>
       <c r="H22" t="n">
-        <v>0.1058</v>
+        <v>0.0602</v>
       </c>
       <c r="I22" t="n">
         <v>-0.72596570605021</v>
